--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69754B97-97E6-4D0B-8B49-F3E0D053BE3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B905A-156A-4358-B1F9-EA94E72FE773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAME35_parameter_value[FRAME35_parameter_name[K]]-FRAME35_parameter_value[FRAME35_parameter_name[L]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_A</t>
   </si>
   <si>
@@ -91,18 +87,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAME10_parameter_value[FRAME10_parameter_name[B]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME22.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(FRAME1_parameter_value[FRAME1_parameter_name[E]]-FRAME1_parameter_value[FRAME1_parameter_name[DD]])-(FRAME22_parameter_value[FRAME22_parameter_name[A(1)]]-FRAME22_parameter_value[FRAME22_parameter_name[A(2)]])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME33.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,26 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(FRAME22_parameter_value[FRAME22_parameter_name[D]]-Ass_A)/2+(FRAME1_parameter_value[FRAME1_parameter_name[CC]]/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(FRAME22_parameter_value[FRAME22_parameter_name[D]]-Ass_A)/2+(FRAME2_parameter_value[FRAME2_parameter_name[CC]]/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME22_parameter_value[FRAME22_parameter_name[D]]+(FRAME1_parameter_value[FRAME1_parameter_name[CC]]/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME33_parameter_value[FRAME33_parameter_name[K]]+(FRAME1_parameter_value[FRAME1_parameter_name[CC]]/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-FRAME2_parameter_value[FRAME2_parameter_name[B]]-FRAME34_parameter_value[FRAME34_parameter_name[B]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,34 +119,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(FRAME22_parameter_value[FRAME22_parameter_name[D]]+(FRAME1_parameter_value[FRAME1_parameter_name[CC]]/2)+(FRAME2_parameter_value[FRAME2_parameter_name[CC]]/2))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-FRAME2_parameter_value[FRAME2_parameter_name[B]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-FRAME10_parameter_value[FRAME10_parameter_name[B]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>偏移方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAME22_parameter_value[FRAME22_parameter_name[O]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(FRAME1_parameter_value[FRAME1_parameter_name[B]]-FRAME33_parameter_value[FRAME33_parameter_name[B]])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(FRAME2_parameter_value[FRAME2_parameter_name[CC]]/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,18 +131,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-((FRAME2_parameter_value[FRAME2_parameter_name[E]]-FRAME1_parameter_value[FRAME1_parameter_name[DD]])-(FRAME7_parameter_value[FRAME_parameter_name[A]]-FRAME7_parameter_value[FRAME7_parameter_name[Y]]))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-(FRAME2_parameter_value[FRAME2_parameter_name[B]]-Ass_B)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(FRAME2_parameter_value[FRAME2_parameter_name[CC]]/2)+FRAME19_parameter_value[FRAME19_parameter_name[AH]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME19.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(apv['FRAME22][apn['FRAME22]['D']]-Ass_A)/2+apv['FRAME1'][apn['FRAME1']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,11 +199,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(FRAME2_parameter_value[FRAME2_parameter_name[B]]-Ass_B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME8要更改</t>
+    <t>(apv['FRAME22'][apn['FRAME22']['D']]-Ass_A)/2+apv['FRAME1'][apn['FRAME1']['CC']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME22'][apn['FRAME22']['D']]+apv['FRAME1'][apn['FRAME1']['CC']]/2+apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME35'][apn['FRAME35']['K']]-apv['FRAME35'][apn['FRAME35']['L']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME22'][apn['FRAME22']['D']]-Ass_A)/2+apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME10'][apn['FRAME10']['B']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['B']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME1'][apn['FRAME1']['E']]-apv['FRAME1'][apn['FRAME1']['DD']])-apv['FRAME22'][apn['FRAME22']['A(1)']]-apv['FRAME22'][apn['FRAME22']['A(2)']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME22'][apn['FRAME22']['O']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME22'][apn['FRAME22']['D']]+apv['FRAME1'][apn['FRAME1']['CC']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['B']]-apv['FRAME33'][apn['FRAME33']['B']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME33'][apn['FRAME33']['K']]+apv['FRAME1'][apn['FRAME1']['CC']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['B']]-apv['FRAME34'][apn['FRAME34']['B']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
+  </si>
+  <si>
+    <t>-((apv['FRAME2'][apn['FRAME2']['E']]-apv['FRAME2'][apn['FRAME2']['DD']])-apv['FRAME7'][apn['FRAME7']['A']]-apv['FRAME7'][apn['FRAME7']['Y']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Ass_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME30.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['B']]-Ass_B-apv['FRAME8'][apn['FRAME8']['B']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['F']]-(apv['FRAME30'][apn['FRAME30']['M']]/2))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME1'][apn['FRAME1']['bbbbb']]-apv['FRAME3'][apn['FRAME3']['A']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['F']]-Ass_F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['CC']]/2+apv['FRAME3'][apn['FRAME3']['B']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME2'][apn['FRAME2']['bbbbb']]-apv['FRAME4'][apn['FRAME4']['A']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['F']]-Ass_G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME31.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']]-apv['FRAME4'][apn['FRAME4']['b']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4'][apn['FRAME4']['B']]/2-apv['FRAME4'][apn['FRAME4']['b']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME4'][apn['FRAME4']['C']]-Ass_H)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,12 +379,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -332,6 +399,26 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -365,10 +452,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -717,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -731,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -752,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -773,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -794,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
@@ -814,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -834,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -842,6 +929,7 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -854,7 +942,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -874,7 +962,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -894,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -914,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -934,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -954,7 +1042,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -968,13 +1056,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
@@ -988,13 +1076,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
@@ -1008,13 +1096,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -1023,18 +1111,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
@@ -1043,18 +1131,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>5</v>
@@ -1063,18 +1151,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
@@ -1082,16 +1170,17 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
@@ -1103,18 +1192,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>5</v>
@@ -1123,18 +1212,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
@@ -1143,15 +1232,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -1163,18 +1252,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>5</v>
@@ -1183,15 +1272,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>38</v>
@@ -1203,18 +1292,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -1223,18 +1312,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>42</v>
+      <c r="D27" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>5</v>
@@ -1243,18 +1332,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
@@ -1263,18 +1352,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>6</v>
@@ -1283,18 +1372,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>5</v>
@@ -1303,18 +1392,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
@@ -1323,18 +1412,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
@@ -1343,18 +1432,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>5</v>
@@ -1363,18 +1452,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
@@ -1383,18 +1472,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>6</v>
@@ -1403,18 +1492,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>5</v>
@@ -1423,18 +1512,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>7</v>
@@ -1443,18 +1532,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
@@ -1463,15 +1552,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>61</v>
@@ -1480,21 +1569,21 @@
         <v>5</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
@@ -1502,39 +1591,609 @@
       <c r="F40" s="1">
         <v>1</v>
       </c>
-      <c r="G40" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="3"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="3"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="3"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F44" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1548,7 +2207,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1585,7 +2244,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5">
         <v>464</v>
@@ -1617,7 +2276,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5">
         <v>286</v>
@@ -1649,7 +2308,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5">
         <v>631</v>
@@ -1681,7 +2340,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5">
         <v>648</v>
@@ -1712,52 +2371,132 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="A6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="5">
+        <v>59.5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5">
+        <v>67.5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>74</v>
+      </c>
+      <c r="F6" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5">
+        <v>27.5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>30</v>
+      </c>
+      <c r="J6" s="5">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="5">
+        <v>305</v>
+      </c>
+      <c r="C7" s="5">
+        <v>328</v>
+      </c>
+      <c r="D7" s="5">
+        <v>355</v>
+      </c>
+      <c r="E7" s="5">
+        <v>395</v>
+      </c>
+      <c r="F7" s="5">
+        <v>435</v>
+      </c>
+      <c r="G7" s="5">
+        <v>510</v>
+      </c>
+      <c r="H7" s="5">
+        <v>595</v>
+      </c>
+      <c r="I7" s="5">
+        <v>621</v>
+      </c>
+      <c r="J7" s="5">
+        <v>706</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="A8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="5">
+        <v>628</v>
+      </c>
+      <c r="C8" s="5">
+        <v>665</v>
+      </c>
+      <c r="D8" s="5">
+        <v>712</v>
+      </c>
+      <c r="E8" s="5">
+        <v>768</v>
+      </c>
+      <c r="F8" s="5">
+        <v>810</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1011</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1124</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1197</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1340</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="5">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601B905A-156A-4358-B1F9-EA94E72FE773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F46EC4E-23D3-46D8-811F-FBE04CE51414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="105">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,18 +247,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-((apv['FRAME2'][apn['FRAME2']['E']]-apv['FRAME2'][apn['FRAME2']['DD']])-apv['FRAME7'][apn['FRAME7']['A']]-apv['FRAME7'][apn['FRAME7']['Y']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Ass_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME30.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['B']]-Ass_B-apv['FRAME8'][apn['FRAME8']['B']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['F']]-(apv['FRAME30'][apn['FRAME30']['M']]/2))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
-  </si>
-  <si>
-    <t>-((apv['FRAME2'][apn['FRAME2']['E']]-apv['FRAME2'][apn['FRAME2']['DD']])-apv['FRAME7'][apn['FRAME7']['A']]-apv['FRAME7'][apn['FRAME7']['Y']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-Ass_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME1'][apn['FRAME1']['bbbbb']]-apv['FRAME3'][apn['FRAME3']['A']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['F']]-Ass_F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['CC']]/2+apv['FRAME3'][apn['FRAME3']['B']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME2'][apn['FRAME2']['bbbbb']]-apv['FRAME4'][apn['FRAME4']['A']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['F']]-Ass_G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME31.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']]-apv['FRAME4'][apn['FRAME4']['b']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4'][apn['FRAME4']['B']]/2-apv['FRAME4'][apn['FRAME4']['b']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME4'][apn['FRAME4']['C']]-Ass_H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME27.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME27'][apn['FRAME27']['A']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['F']]-apv['FRAME27'][apn['FRAME27']['B']]-apv['FRAME30'][apn['FRAME30']['M']]-apv['FRAME27'][apn['FRAME27']['J']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['CC']]/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME27_1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME27_1'][apn['FRAME27_1']['A']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['F']]-apv['FRAME27_1'][apn['FRAME27_1']['B']]-apv['FRAME30'][apn['FRAME30']['M']]-apv['FRAME27_1'][apn['FRAME27_1']['J']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME27_1'][apn['FRAME27_1']['I']]+apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME24.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -266,15 +383,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['B']]-Ass_B-apv['FRAME8'][apn['FRAME8']['B']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['F']]-(apv['FRAME30'][apn['FRAME30']['M']]/2))</t>
+    <t>-(apv['FRAME30'][apn['FRAME30']['A']]-apv['FRAME24'][apn['FRAME24']['B']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME24'][apn['FRAME24']['A']]+apv['FRAME30'][apn['FRAME30']['M']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME30'][apn['FRAME30']['E']]-(apv['FRAME24'][apn['FRAME24']['I']]-apv['FRAME2'][apn['FRAME2']['CC']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME24_1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME24'][apn['FRAME24']['I']]-apv['FRAME2'][apn['FRAME2']['CC']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME11.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,31 +411,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ass_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME1'][apn['FRAME1']['bbbbb']]-apv['FRAME3'][apn['FRAME3']['A']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['F']]-Ass_F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['CC']]/2+apv['FRAME3'][apn['FRAME3']['B']])</t>
+    <t>apv['FRAME3'][apn['FRAME3']['B']]/2+apv['FRAME11'][apn['FRAME11']['A']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME3'][apn['FRAME3']['O']]+Ass_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3'][apn['FRAME3']['A']]-apv['FRAME3'][apn['FRAME3']['E']]-apv['FRAME11'][apn['FRAME11']['A']]/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME36.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,31 +439,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME2'][apn['FRAME2']['bbbbb']]-apv['FRAME4'][apn['FRAME4']['A']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['F']]-Ass_G)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME31.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']]-apv['FRAME4'][apn['FRAME4']['b']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4'][apn['FRAME4']['B']]/2-apv['FRAME4'][apn['FRAME4']['b']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME4'][apn['FRAME4']['C']]-Ass_H)</t>
+    <t>(Ass_J-apv['FRAME36'][apn['FRAME36']['A']]/2)+(apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +471,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +540,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +563,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1303,7 +1416,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -1343,7 +1456,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
@@ -1563,7 +1676,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>5</v>
@@ -1583,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
@@ -1597,13 +1710,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
@@ -1617,13 +1730,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>5</v>
@@ -1637,13 +1750,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
@@ -1657,13 +1770,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
@@ -1677,13 +1790,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>5</v>
@@ -1697,13 +1810,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>7</v>
@@ -1717,13 +1830,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
@@ -1737,13 +1850,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>5</v>
@@ -1757,13 +1870,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
@@ -1777,13 +1890,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
@@ -1797,13 +1910,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>5</v>
@@ -1817,13 +1930,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
@@ -1836,201 +1949,353 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="3"/>
+      <c r="B53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="3"/>
+      <c r="B54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="3"/>
+      <c r="B56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E57" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="3"/>
+      <c r="B58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
+      <c r="B59" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="3"/>
+      <c r="B60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="E60" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="3"/>
+      <c r="B61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="3"/>
+      <c r="B62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="3"/>
+      <c r="B63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="E63" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="3"/>
+      <c r="B64" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E64" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="3"/>
+      <c r="B66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="E66" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E67" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="1" t="s">
+      <c r="B68" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="1" t="s">
+      <c r="B69" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="1" t="s">
+      <c r="B70" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2041,7 +2306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2052,7 +2317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2063,7 +2328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2074,7 +2339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2085,7 +2350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2096,7 +2361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2107,7 +2372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2118,7 +2383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2129,7 +2394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2207,7 +2472,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2372,7 +2637,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5">
         <v>59.5</v>
@@ -2404,7 +2669,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5">
         <v>305</v>
@@ -2436,7 +2701,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="5">
         <v>628</v>
@@ -2468,7 +2733,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="5">
         <v>12</v>
@@ -2499,28 +2764,68 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="A10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="5">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5">
+        <v>33</v>
+      </c>
+      <c r="H10" s="5">
+        <v>24</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="A11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="5">
+        <v>250</v>
+      </c>
+      <c r="C11" s="5">
+        <v>297</v>
+      </c>
+      <c r="D11" s="5">
+        <v>330</v>
+      </c>
+      <c r="E11" s="5">
+        <v>348</v>
+      </c>
+      <c r="F11" s="5">
+        <v>353.5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>448</v>
+      </c>
+      <c r="H11" s="5">
+        <v>487</v>
+      </c>
+      <c r="I11" s="5">
+        <v>565</v>
+      </c>
+      <c r="J11" s="5">
+        <v>636</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F46EC4E-23D3-46D8-811F-FBE04CE51414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE822FA-D385-463F-9B31-A4D7F1721917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="200">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME1'][apn['FRAME1']['bbbbb']]-apv['FRAME3'][apn['FRAME3']['A']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-(apv['FRAME1'][apn['FRAME1']['F']]-Ass_F)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME2'][apn['FRAME2']['bbbbb']]-apv['FRAME4'][apn['FRAME4']['A']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-(apv['FRAME2'][apn['FRAME2']['F']]-Ass_G)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -440,6 +432,391 @@
   </si>
   <si>
     <t>(Ass_J-apv['FRAME36'][apn['FRAME36']['A']]/2)+(apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME4'][apn['FRAME4']['K']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4'][apn['FRAME4']['B']]-apv['FRAME36'][apn['FRAME36']['D']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME2'][apn['FRAME2']['bbbbb']]-Ass_K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['CC']])/2</t>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['CC']])/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME32.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME5'][apn['FRAME5']['A']]+Ass_L+apv['FRAME32'][apn['FRAME32']['C']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME2'][apn['FRAME2']['bbbbb']]-Ass_K-apv['FRAME32'][apn['FRAME32']['A']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME3'][apn['FRAME3']['A']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME4'][apn['FRAME4']['A']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME18.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME18'][apn['FRAME18']['A']]+Ass_N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['CC']])/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME26.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME26'][apn['FRAME26']['B']]</t>
+  </si>
+  <si>
+    <t>apv['FRAME26'][apn['FRAME26']['B']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME26.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME18'][apn['FRAME18']['A']]-(Ass_O+apv['FRAME26'][apn['FRAME26']['I']]))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME25.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_J-apv['FRAME25'][apn['FRAME25']['B']]/2)+(apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_P+apv['FRAME4'][apn['FRAME4']['B']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4'][apn['FRAME4']['B']]/2-apv['FRAME6'][apn['FRAME6']['f']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME6'][apn['FRAME6']['i']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4'][apn['FRAME4']['B']]/2+apv['FRAME6'][apn['FRAME6']['f']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME29.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4'][apn['FRAME4']['B']]/2-apv['FRAME6'][apn['FRAME6']['e']]+apv['FRAME29'][apn['FRAME29']['A']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME29'][apn['FRAME29']['B']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_Q-(apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']])-apv['FRAME6'][apn['FRAME6']['E']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_Q+(apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']])-apv['FRAME29'][apn['FRAME29']['A']]/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME29.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4'][apn['FRAME4']['B']]/2+apv['FRAME6'][apn['FRAME6']['e']]+apv['FRAME29'][apn['FRAME29']['A']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME20.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME1'][apn['FRAME1']['bbbbb']]-Ass_M-apv['FRAME18'][apn['FRAME18']['F']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME1'][apn['FRAME1']['bbbbb']]-Ass_R-apv['FRAME20'][apn['FRAME20']['H']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME20'][apn['FRAME20']['A']]+Ass_N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME20'][apn['FRAME20']['B']]+apv['FRAME1'][apn['FRAME1']['CC']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME26.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME26.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME20'][apn['FRAME20']['B']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME20'][apn['FRAME20']['A']]-Ass_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_O+apv['FRAME26'][apn['FRAME26']['I']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME14.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['F']]-apv['FRAME2'][apn['FRAME2']['G']]-apv['FRAME14'][apn['FRAME14']['B']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME14'][apn['FRAME14']['A']]+apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]-Ass_S-apv['FRAME14'][apn['FRAME14']['g3']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME17.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME30'][apn['FRAME30']['A']]-Ass_S-apv['FRAME17'][apn['FRAME17']['g3']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['CC']]/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME15.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1'][apn['FRAME1']['F']]-apv['FRAME1'][apn['FRAME1']['G']]-apv['FRAME17'][apn['FRAME17']['B']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1'][apn['FRAME1']['F']]-apv['FRAME1'][apn['FRAME1']['G']]-Ass_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME3'][apn['FRAME3']['B']]/2-Ass_U+apv['FRAME1'][apn['FRAME1']['CC']]/2-apv['FRAME15'][apn['FRAME15']['B']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME15.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]-Ass_S-apv['FRAME17'][apn['FRAME17']['g3']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['F']]-apv['FRAME2'][apn['FRAME2']['G']]-Ass_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3'][apn['FRAME3']['B']]/2-Ass_U+apv['FRAME1'][apn['FRAME1']['CC']]/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]-(apv['FRAME17'][apn['FRAME17']['g3']]-apv['FRAME17'][apn['FRAME17']['g2']])-apv['FRAME13'][apn['FRAME13']['k']]-apv['FRAME13'][apn['FRAME13']['j']]-Ass_V-Ass_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['F']]-apv['FRAME2'][apn['FRAME2']['G']]</t>
+  </si>
+  <si>
+    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]-(apv['FRAME17'][apn['FRAME17']['g3']]-apv['FRAME17'][apn['FRAME17']['g2']])-apv['FRAME13'][apn['FRAME13']['k']]-apv['FRAME13'][apn['FRAME13']['j']]-Ass_V-Ass_S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-apv['FRAME1'][apn['FRAME1']['CC']]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME16.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1'][apn['FRAME1']['CC']]/2+apv['FRAME13'][apn['FRAME13']['E']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME21.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2'][apn['FRAME2']['F']]-apv['FRAME2'][apn['FRAME2']['G']]-Ass_T-apv['FRAME21'][apn['FRAME21']['D']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME21.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3'][apn['FRAME3']['B']]/2-Ass_U+apv['FRAME1'][apn['FRAME1']['CC']]/2-apv['FRAME21'][apn['FRAME21']['C']])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME38.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME19.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME19'][apn['FRAME19']['A']]-Ass_W-apv['FRAME38'][apn['FRAME38']['A']]-apv['FRAME3'][apn['FRAME3']['C']]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME19'][apn['FRAME19']['AH']]+apv['FRAME38'][apn['FRAME38']['B']])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +848,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,12 +858,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,10 +936,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1776,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
@@ -1796,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>5</v>
@@ -1816,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>7</v>
@@ -1830,13 +2201,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
@@ -1850,13 +2221,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>5</v>
@@ -1870,13 +2241,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
@@ -1890,13 +2261,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
@@ -1910,13 +2281,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>5</v>
@@ -1930,13 +2301,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
@@ -1950,13 +2321,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -1970,13 +2341,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
@@ -1990,13 +2361,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
@@ -2010,13 +2381,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -2030,13 +2401,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>5</v>
@@ -2050,13 +2421,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
@@ -2070,13 +2441,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -2090,13 +2461,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>5</v>
@@ -2110,13 +2481,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
@@ -2130,13 +2501,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
@@ -2150,13 +2521,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>5</v>
@@ -2170,13 +2541,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>7</v>
@@ -2190,13 +2561,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
@@ -2210,13 +2581,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>5</v>
@@ -2230,13 +2601,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>7</v>
@@ -2250,13 +2621,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>6</v>
@@ -2267,198 +2638,1463 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="B69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F69" s="8"/>
+      <c r="E69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="8"/>
+      <c r="B70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="3"/>
+      <c r="B71" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="E71" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="3"/>
+      <c r="B72" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E72" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="3"/>
+      <c r="B73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="3"/>
+      <c r="B74" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="E74" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="E75" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="3"/>
+      <c r="B76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="E76" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="E77" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="3"/>
+      <c r="B78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E78" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="3"/>
+      <c r="B79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E79" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="3"/>
+      <c r="B80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="E80" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="3"/>
+      <c r="B81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="E81" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="3"/>
+      <c r="B82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E82" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="3"/>
+      <c r="B83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="E83" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="3"/>
+      <c r="B84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E84" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E85" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E140" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E141" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E142" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E143" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E144" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E145" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E146" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E147" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E148" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E150" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E151" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E153" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E154" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1048576" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2469,10 +4105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2733,7 +4369,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5">
         <v>12</v>
@@ -2765,7 +4401,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="5">
         <v>10</v>
@@ -2797,7 +4433,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" s="5">
         <v>250</v>
@@ -2828,112 +4464,452 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="5">
+        <v>818</v>
+      </c>
+      <c r="C12" s="5">
+        <v>950</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1016</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1080</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1180</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1340</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1587</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1814</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1990</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5">
+        <v>8</v>
+      </c>
+      <c r="I13" s="5">
+        <v>8</v>
+      </c>
+      <c r="J13" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="5">
+        <v>200</v>
+      </c>
+      <c r="C14" s="5">
+        <v>250</v>
+      </c>
+      <c r="D14" s="5">
+        <v>250</v>
+      </c>
+      <c r="E14" s="5">
+        <v>280</v>
+      </c>
+      <c r="F14" s="5">
+        <v>320</v>
+      </c>
+      <c r="G14" s="5">
+        <v>360</v>
+      </c>
+      <c r="H14" s="5">
+        <v>320</v>
+      </c>
+      <c r="I14" s="5">
+        <v>490</v>
+      </c>
+      <c r="J14" s="5">
+        <v>593</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="5">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5">
+        <v>92</v>
+      </c>
+      <c r="F15" s="5">
+        <v>161</v>
+      </c>
+      <c r="G15" s="5">
+        <v>180</v>
+      </c>
+      <c r="H15" s="5">
+        <v>221</v>
+      </c>
+      <c r="I15" s="5">
+        <v>204</v>
+      </c>
+      <c r="J15" s="5">
+        <v>228.5</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="5">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <v>15</v>
+      </c>
+      <c r="G16" s="5">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5">
+        <v>20</v>
+      </c>
+      <c r="I16" s="5">
+        <v>20</v>
+      </c>
+      <c r="J16" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="5">
+        <v>98</v>
+      </c>
+      <c r="C17" s="5">
+        <v>94</v>
+      </c>
+      <c r="D17" s="5">
+        <v>88</v>
+      </c>
+      <c r="E17" s="5">
+        <v>88</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="5">
+        <v>191.5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>231.73</v>
+      </c>
+      <c r="D18" s="5">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="E18" s="5">
+        <v>272.24</v>
+      </c>
+      <c r="F18" s="5">
+        <v>272.24</v>
+      </c>
+      <c r="G18" s="5">
+        <v>272.24</v>
+      </c>
+      <c r="H18" s="5">
+        <v>470</v>
+      </c>
+      <c r="I18" s="5">
+        <v>395</v>
+      </c>
+      <c r="J18" s="5">
+        <v>315</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="5">
+        <v>180</v>
+      </c>
+      <c r="C19" s="5">
+        <v>230</v>
+      </c>
+      <c r="D19" s="5">
+        <v>230</v>
+      </c>
+      <c r="E19" s="5">
+        <v>260</v>
+      </c>
+      <c r="F19" s="5">
+        <v>300</v>
+      </c>
+      <c r="G19" s="5">
+        <v>360</v>
+      </c>
+      <c r="H19" s="5">
+        <v>330</v>
+      </c>
+      <c r="I19" s="5">
+        <v>490</v>
+      </c>
+      <c r="J19" s="5">
+        <v>613</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="5">
+        <v>115</v>
+      </c>
+      <c r="C20" s="5">
+        <v>115</v>
+      </c>
+      <c r="D20" s="5">
+        <v>110</v>
+      </c>
+      <c r="E20" s="5">
+        <v>105</v>
+      </c>
+      <c r="F20" s="5">
+        <v>125</v>
+      </c>
+      <c r="G20" s="5">
+        <v>120</v>
+      </c>
+      <c r="H20" s="5">
+        <v>128</v>
+      </c>
+      <c r="I20" s="5">
+        <v>150</v>
+      </c>
+      <c r="J20" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="5">
+        <v>86.3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>96.3</v>
+      </c>
+      <c r="D21" s="5">
+        <v>106.3</v>
+      </c>
+      <c r="E21" s="5">
+        <v>112</v>
+      </c>
+      <c r="F21" s="5">
+        <v>125</v>
+      </c>
+      <c r="G21" s="5">
+        <v>130</v>
+      </c>
+      <c r="H21" s="5">
+        <v>140</v>
+      </c>
+      <c r="I21" s="5">
+        <v>151</v>
+      </c>
+      <c r="J21" s="5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="5">
+        <v>167</v>
+      </c>
+      <c r="C22" s="5">
+        <v>217.5</v>
+      </c>
+      <c r="D22" s="5">
+        <v>224</v>
+      </c>
+      <c r="E22" s="5">
+        <v>245</v>
+      </c>
+      <c r="F22" s="5">
+        <v>285</v>
+      </c>
+      <c r="G22" s="5">
+        <v>335</v>
+      </c>
+      <c r="H22" s="5">
+        <v>365</v>
+      </c>
+      <c r="I22" s="5">
+        <v>443</v>
+      </c>
+      <c r="J22" s="5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="5">
+        <v>165</v>
+      </c>
+      <c r="C23" s="5">
+        <v>190</v>
+      </c>
+      <c r="D23" s="5">
+        <v>240</v>
+      </c>
+      <c r="E23" s="5">
+        <v>315</v>
+      </c>
+      <c r="F23" s="5">
+        <v>360</v>
+      </c>
+      <c r="G23" s="5">
+        <v>470</v>
+      </c>
+      <c r="H23" s="5">
+        <v>480</v>
+      </c>
+      <c r="I23" s="5">
+        <v>600</v>
+      </c>
+      <c r="J23" s="5">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="5">
+        <v>392</v>
+      </c>
+      <c r="C24" s="5">
+        <v>408</v>
+      </c>
+      <c r="D24" s="5">
+        <v>400</v>
+      </c>
+      <c r="E24" s="5">
+        <v>416</v>
+      </c>
+      <c r="F24" s="5">
+        <v>452</v>
+      </c>
+      <c r="G24" s="5">
+        <v>470</v>
+      </c>
+      <c r="H24" s="5">
+        <v>550</v>
+      </c>
+      <c r="I24" s="5">
+        <v>570</v>
+      </c>
+      <c r="J24" s="5">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="5">
+        <v>90</v>
+      </c>
+      <c r="C25" s="5">
+        <v>54</v>
+      </c>
+      <c r="D25" s="5">
+        <v>47</v>
+      </c>
+      <c r="E25" s="5">
+        <v>28</v>
+      </c>
+      <c r="F25" s="5">
+        <v>32</v>
+      </c>
+      <c r="G25" s="5">
+        <v>80</v>
+      </c>
+      <c r="H25" s="5">
+        <v>76</v>
+      </c>
+      <c r="I25" s="5">
+        <v>80</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE822FA-D385-463F-9B31-A4D7F1721917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84AE750-A53A-404D-AB24-B6766DA20CE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="204">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAME10_parameter_value[FRAME10_parameter_name[K(2)]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(FRAME2_parameter_value[FRAME2_parameter_name[B]]-Ass_B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME19.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,18 +135,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME1'][apn['FRAME1']['B']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['B']]-Ass_C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME19.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,22 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['CC']]/2]+apv['FRAME19'][apn['FRAME19']['AH'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-((apv['FRAME1'][apn['FRAME1']['E']]-apv['FRAME1'][apn['FRAME1']['DD']])-apv['FRAME19'][apn['FRAME19']['D']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['B']]-Ass_C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME9.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,58 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(apv['FRAME22'][apn['FRAME22']['D']]-Ass_A)/2+apv['FRAME1'][apn['FRAME1']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME22'][apn['FRAME22']['D']]+apv['FRAME1'][apn['FRAME1']['CC']]/2+apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME35'][apn['FRAME35']['K']]-apv['FRAME35'][apn['FRAME35']['L']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME22'][apn['FRAME22']['D']]-Ass_A)/2+apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME10'][apn['FRAME10']['B']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['B']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME1'][apn['FRAME1']['E']]-apv['FRAME1'][apn['FRAME1']['DD']])-apv['FRAME22'][apn['FRAME22']['A(1)']]-apv['FRAME22'][apn['FRAME22']['A(2)']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME22'][apn['FRAME22']['O']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME22'][apn['FRAME22']['D']]+apv['FRAME1'][apn['FRAME1']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['B']]-apv['FRAME33'][apn['FRAME33']['B']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME33'][apn['FRAME33']['K']]+apv['FRAME1'][apn['FRAME1']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['B']]-apv['FRAME34'][apn['FRAME34']['B']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-((apv['FRAME2'][apn['FRAME2']['E']]-apv['FRAME2'][apn['FRAME2']['DD']])-apv['FRAME7'][apn['FRAME7']['A']]-apv['FRAME7'][apn['FRAME7']['Y']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,18 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['B']]-Ass_B-apv['FRAME8'][apn['FRAME8']['B']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['F']]-(apv['FRAME30'][apn['FRAME30']['M']]/2))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,82 +195,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['F']]-Ass_F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['CC']]/2+apv['FRAME3'][apn['FRAME3']['B']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME4.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['F']]-Ass_G)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME31.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']]-apv['FRAME4'][apn['FRAME4']['b']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4'][apn['FRAME4']['B']]/2-apv['FRAME4'][apn['FRAME4']['b']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME4'][apn['FRAME4']['C']]-Ass_H)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME27.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME27'][apn['FRAME27']['A']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['F']]-apv['FRAME27'][apn['FRAME27']['B']]-apv['FRAME30'][apn['FRAME30']['M']]-apv['FRAME27'][apn['FRAME27']['J']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['CC']]/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME27_1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME27_1'][apn['FRAME27_1']['A']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['F']]-apv['FRAME27_1'][apn['FRAME27_1']['B']]-apv['FRAME30'][apn['FRAME30']['M']]-apv['FRAME27_1'][apn['FRAME27_1']['J']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME27_1'][apn['FRAME27_1']['I']]+apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME24.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,26 +223,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME30'][apn['FRAME30']['A']]-apv['FRAME24'][apn['FRAME24']['B']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME24'][apn['FRAME24']['A']]+apv['FRAME30'][apn['FRAME30']['M']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME30'][apn['FRAME30']['E']]-(apv['FRAME24'][apn['FRAME24']['I']]-apv['FRAME2'][apn['FRAME2']['CC']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME24_1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(apv['FRAME24'][apn['FRAME24']['I']]-apv['FRAME2'][apn['FRAME2']['CC']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME11.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,22 +235,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME3'][apn['FRAME3']['B']]/2+apv['FRAME11'][apn['FRAME11']['A']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME3'][apn['FRAME3']['O']]+Ass_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME3'][apn['FRAME3']['A']]-apv['FRAME3'][apn['FRAME3']['E']]-apv['FRAME11'][apn['FRAME11']['A']]/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_J</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,18 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(Ass_J-apv['FRAME36'][apn['FRAME36']['A']]/2)+(apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME4'][apn['FRAME4']['K']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4'][apn['FRAME4']['B']]-apv['FRAME36'][apn['FRAME36']['D']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME5.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -455,17 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME2'][apn['FRAME2']['bbbbb']]-Ass_K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2'][apn['FRAME2']['CC']])/2</t>
-  </si>
-  <si>
-    <t>apv['FRAME2'][apn['FRAME2']['CC']])/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME32.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,26 +271,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME5'][apn['FRAME5']['A']]+Ass_L+apv['FRAME32'][apn['FRAME32']['C']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME2'][apn['FRAME2']['bbbbb']]-Ass_K-apv['FRAME32'][apn['FRAME32']['A']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-(Ass_L)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME3'][apn['FRAME3']['A']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME4'][apn['FRAME4']['A']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -510,25 +291,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME18'][apn['FRAME18']['A']]+Ass_N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['CC']])/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME26.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME26'][apn['FRAME26']['B']]</t>
-  </si>
-  <si>
-    <t>apv['FRAME26'][apn['FRAME26']['B']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME18'][apn['FRAME18']['A']]-(Ass_O+apv['FRAME26'][apn['FRAME26']['I']]))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME25.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,18 +315,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(Ass_J-apv['FRAME25'][apn['FRAME25']['B']]/2)+(apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ass_P+apv['FRAME4'][apn['FRAME4']['B']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME6.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,50 +327,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME4'][apn['FRAME4']['B']]/2-apv['FRAME6'][apn['FRAME6']['f']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME6.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME6'][apn['FRAME6']['i']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4'][apn['FRAME4']['B']]/2+apv['FRAME6'][apn['FRAME6']['f']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME29.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME4'][apn['FRAME4']['B']]/2-apv['FRAME6'][apn['FRAME6']['e']]+apv['FRAME29'][apn['FRAME29']['A']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME29'][apn['FRAME29']['B']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_Q-(apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']])-apv['FRAME6'][apn['FRAME6']['E']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(Ass_Q+(apv['FRAME4'][apn['FRAME4']['A']]-apv['FRAME4'][apn['FRAME4']['a']])-apv['FRAME29'][apn['FRAME29']['A']]/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME29.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME4'][apn['FRAME4']['B']]/2+apv['FRAME6'][apn['FRAME6']['e']]+apv['FRAME29'][apn['FRAME29']['A']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,22 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME1'][apn['FRAME1']['bbbbb']]-Ass_M-apv['FRAME18'][apn['FRAME18']['F']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME1'][apn['FRAME1']['bbbbb']]-Ass_R-apv['FRAME20'][apn['FRAME20']['H']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME20'][apn['FRAME20']['A']]+Ass_N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME20'][apn['FRAME20']['B']]+apv['FRAME1'][apn['FRAME1']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME26.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -653,18 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME20'][apn['FRAME20']['B']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME20'][apn['FRAME20']['A']]-Ass_O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_O+apv['FRAME26'][apn['FRAME26']['I']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME14.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -673,70 +367,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME2'][apn['FRAME2']['F']]-apv['FRAME2'][apn['FRAME2']['G']]-apv['FRAME14'][apn['FRAME14']['B']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME14'][apn['FRAME14']['A']]+apv['FRAME2'][apn['FRAME2']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]-Ass_S-apv['FRAME14'][apn['FRAME14']['g3']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME17.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME1'][apn['FRAME1']['A']]-apv['FRAME30'][apn['FRAME30']['A']]-Ass_S-apv['FRAME17'][apn['FRAME17']['g3']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['CC']]/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME15.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME1'][apn['FRAME1']['F']]-apv['FRAME1'][apn['FRAME1']['G']]-apv['FRAME17'][apn['FRAME17']['B']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME1'][apn['FRAME1']['F']]-apv['FRAME1'][apn['FRAME1']['G']]-Ass_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME3'][apn['FRAME3']['B']]/2-Ass_U+apv['FRAME1'][apn['FRAME1']['CC']]/2-apv['FRAME15'][apn['FRAME15']['B']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME15.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]-Ass_S-apv['FRAME17'][apn['FRAME17']['g3']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2'][apn['FRAME2']['F']]-apv['FRAME2'][apn['FRAME2']['G']]-Ass_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME3'][apn['FRAME3']['B']]/2-Ass_U+apv['FRAME1'][apn['FRAME1']['CC']]/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME13.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,21 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]-(apv['FRAME17'][apn['FRAME17']['g3']]-apv['FRAME17'][apn['FRAME17']['g2']])-apv['FRAME13'][apn['FRAME13']['k']]-apv['FRAME13'][apn['FRAME13']['j']]-Ass_V-Ass_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2'][apn['FRAME2']['F']]-apv['FRAME2'][apn['FRAME2']['G']]</t>
-  </si>
-  <si>
-    <t>-(apv['FRAME2'][apn['FRAME2']['A']]-apv['FRAME30'][apn['FRAME30']['A']]-(apv['FRAME17'][apn['FRAME17']['g3']]-apv['FRAME17'][apn['FRAME17']['g2']])-apv['FRAME13'][apn['FRAME13']['k']]-apv['FRAME13'][apn['FRAME13']['j']]-Ass_V-Ass_S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-apv['FRAME1'][apn['FRAME1']['CC']]/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME16.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -772,26 +407,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME1'][apn['FRAME1']['CC']]/2+apv['FRAME13'][apn['FRAME13']['E']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME21.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME2'][apn['FRAME2']['F']]-apv['FRAME2'][apn['FRAME2']['G']]-Ass_T-apv['FRAME21'][apn['FRAME21']['D']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME21.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(apv['FRAME3'][apn['FRAME3']['B']]/2-Ass_U+apv['FRAME1'][apn['FRAME1']['CC']]/2-apv['FRAME21'][apn['FRAME21']['C']])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRAME38.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -812,11 +435,407 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME19'][apn['FRAME19']['A']]-Ass_W-apv['FRAME38'][apn['FRAME38']['A']]-apv['FRAME3'][apn['FRAME3']['C']]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME19'][apn['FRAME19']['AH']]+apv['FRAME38'][apn['FRAME38']['B']])</t>
+    <t>FRAME12.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']["B"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME22']['D']-Ass_A)/2+(apv['FRAME1']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME22']['D']+(apv['FRAME1']['CC']/2)+(apv['FRAME2']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME35']['K']-apv['FRAME35']['L']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME22']['D']-Ass_A)/2+apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME10']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME22']['D']-Ass_A)/2+apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv["FRAME10"]["K(2)"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME1']['E']-apv['FRAME1']['DD'])-apv['FRAME22']['A(1)']-apv['FRAME22']['A(2)']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME22']['O']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME22']['D']+apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['B']-apv['FRAME33']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME33']['K']+apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['B']-apv['FRAME34']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-((apv['FRAME2']['E']-apv['FRAME2']['DD'])-apv['FRAME7']['A']-apv['FRAME7']['Y'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv["FRAME2"]["B"]-Ass_B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-((apv['FRAME1']['E']-apv['FRAME1']['DD'])-apv['FRAME19']['D'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['B']-Ass_C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC']/2+apv['FRAME19']['AH'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['B']-Ass_C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['B']-Ass_B-apv['FRAME8']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['A']-apv['FRAME30']['A']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['F']-(apv['FRAME30']['M']/2))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME3']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['F']-Ass_F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC']/2+apv['FRAME3']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME4']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['F']-Ass_G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['A']-apv['FRAME4']['a']-apv['FRAME4']['b']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME4']['C']-Ass_H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2-apv['FRAME4']['b']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME27']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['F']-apv['FRAME27']['B']-apv['FRAME30']['M']-apv['FRAME27']['J'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME27_1']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['F']-apv['FRAME27_1']['B']-apv['FRAME30']['M']-apv['FRAME27_1']['J'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME27_1']['I']+apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME30']['A']-apv['FRAME24']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME24']['A']+apv['FRAME30']['M']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME30']['E']-(apv['FRAME24']['I']-apv['FRAME2']['CC'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME24']['I']-apv['FRAME2']['CC'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['A']-apv['FRAME3']['E']-apv['FRAME11']['A']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME3']['O']+Ass_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME3']['B']/2+apv['FRAME11']['A']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Ass_J-apv['FRAME36']['A']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME4']['K'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']-apv['FRAME36']['D']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME2']['bbbbb']-Ass_K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME5']['A']+Ass_L+apv['FRAME32']['C']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['CC'])/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME2']['bbbbb']-Ass_K-apv['FRAME32']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['CC'])/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME1']['bbbbb']-Ass_M-apv['FRAME18']['F'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME18']['A']+Ass_N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC'])/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME26']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME18']['A']-(Ass_O+apv['FRAME26']['I']))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_J-apv['FRAME25']['B']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_P+apv['FRAME4']['B']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_Q-(apv['FRAME4']['A']-apv['FRAME4']['a'])-apv['FRAME6']['E']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2-apv['FRAME6']['f']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME6']['i']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2+apv['FRAME6']['f']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_Q+(apv['FRAME4']['A']-apv['FRAME4']['a'])-apv['FRAME29']['A']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME29']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2-apv['FRAME6']['e']+apv['FRAME29']['A']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2+apv['FRAME6']['e']+apv['FRAME29']['A']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME1']['bbbbb']-Ass_R-apv['FRAME20']['H'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME20']['A']+Ass_N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME20']['B']+apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME26']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_O+apv['FRAME26']['I']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME20']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME20']['A']-Ass_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME14']['g3'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-apv['FRAME14']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME14']['A']+apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME17']['g3'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-apv['FRAME17']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-Ass_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2-apv['FRAME15']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME17']['g3'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-Ass_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-(apv['FRAME17']['g3']-apv['FRAME17']['g2'])-apv['FRAME13']['k']-apv['FRAME13']['j']-Ass_V-Ass_S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']['CC']/2+apv['FRAME13']['E']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['A']-apv['FRAME30']['A']-(apv['FRAME17']['g3']-apv['FRAME17']['g2'])-apv['FRAME13']['k']-apv['FRAME13']['j']-Ass_V-Ass_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-Ass_T-apv['FRAME21']['D']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2-apv['FRAME21']['C'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME19']['A']-Ass_W-apv['FRAME38']['A']-apv['FRAME3']['C']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME19']['AH']+apv['FRAME38']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['O'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME19']['AH']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +843,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -844,6 +863,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -911,7 +937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,6 +967,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="D117" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1288,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1302,13 +1331,16 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1323,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -1331,6 +1363,7 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1344,7 +1377,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -1365,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>6</v>
@@ -1385,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>5</v>
@@ -1405,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -1426,7 +1459,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -1446,7 +1479,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -1466,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1486,7 +1519,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -1506,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -1526,7 +1559,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
@@ -1545,8 +1578,8 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
+      <c r="D14" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>6</v>
@@ -1554,6 +1587,7 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1566,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
@@ -1586,7 +1620,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -1606,7 +1640,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>6</v>
@@ -1626,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>5</v>
@@ -1646,7 +1680,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
@@ -1687,7 +1721,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>5</v>
@@ -1707,7 +1741,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
@@ -1747,7 +1781,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>5</v>
@@ -1767,7 +1801,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
@@ -1781,13 +1815,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>6</v>
@@ -1801,13 +1835,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>5</v>
@@ -1821,13 +1855,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
@@ -1841,13 +1875,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>6</v>
@@ -1861,13 +1895,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>5</v>
@@ -1881,13 +1915,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
@@ -1901,13 +1935,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>6</v>
@@ -1921,13 +1955,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>5</v>
@@ -1941,13 +1975,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
@@ -1961,13 +1995,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>6</v>
@@ -1981,13 +2015,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>5</v>
@@ -2001,13 +2035,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>7</v>
@@ -2021,13 +2055,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
@@ -2041,13 +2075,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>5</v>
@@ -2061,13 +2095,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
@@ -2081,13 +2115,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
@@ -2101,13 +2135,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>5</v>
@@ -2121,13 +2155,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
@@ -2141,13 +2175,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
@@ -2161,13 +2195,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>5</v>
@@ -2181,13 +2215,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>7</v>
@@ -2201,13 +2235,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
@@ -2221,13 +2255,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>5</v>
@@ -2241,13 +2275,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
@@ -2261,13 +2295,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
@@ -2281,13 +2315,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>5</v>
@@ -2301,13 +2335,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
@@ -2321,13 +2355,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -2341,13 +2375,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
@@ -2361,13 +2395,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
@@ -2381,13 +2415,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -2401,13 +2435,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>5</v>
@@ -2421,13 +2455,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
@@ -2441,13 +2475,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -2461,13 +2495,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>5</v>
@@ -2481,13 +2515,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
@@ -2501,13 +2535,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
@@ -2521,13 +2555,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>5</v>
@@ -2541,13 +2575,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>7</v>
@@ -2561,13 +2595,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
@@ -2581,13 +2615,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>5</v>
@@ -2601,13 +2635,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>7</v>
@@ -2621,13 +2655,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>6</v>
@@ -2639,13 +2673,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>5</v>
@@ -2659,13 +2693,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>7</v>
@@ -2679,13 +2713,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>6</v>
@@ -2699,13 +2733,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>5</v>
@@ -2719,13 +2753,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
@@ -2739,13 +2773,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>6</v>
@@ -2759,13 +2793,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>5</v>
@@ -2779,13 +2813,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>7</v>
@@ -2799,13 +2833,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>6</v>
@@ -2819,13 +2853,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>5</v>
@@ -2839,13 +2873,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>7</v>
@@ -2859,13 +2893,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>6</v>
@@ -2879,13 +2913,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>5</v>
@@ -2899,13 +2933,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>7</v>
@@ -2919,13 +2953,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>6</v>
@@ -2939,13 +2973,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>5</v>
@@ -2959,13 +2993,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>7</v>
@@ -2979,13 +3013,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>133</v>
+        <v>165</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>6</v>
@@ -2999,13 +3033,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>5</v>
@@ -3019,13 +3053,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>7</v>
@@ -3039,13 +3073,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>6</v>
@@ -3059,13 +3093,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>5</v>
@@ -3079,13 +3113,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>7</v>
@@ -3099,13 +3133,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>6</v>
@@ -3119,13 +3153,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>5</v>
@@ -3139,13 +3173,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>7</v>
@@ -3159,13 +3193,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>6</v>
@@ -3179,13 +3213,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>5</v>
@@ -3199,13 +3233,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>7</v>
@@ -3219,13 +3253,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
@@ -3239,13 +3273,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>5</v>
@@ -3259,13 +3293,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>7</v>
@@ -3279,13 +3313,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>6</v>
@@ -3299,13 +3333,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>5</v>
@@ -3319,13 +3353,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>7</v>
@@ -3339,13 +3373,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>6</v>
@@ -3359,13 +3393,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>5</v>
@@ -3379,13 +3413,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>7</v>
@@ -3399,13 +3433,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>6</v>
@@ -3419,13 +3453,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>5</v>
@@ -3439,13 +3473,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>7</v>
@@ -3459,13 +3493,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>6</v>
@@ -3479,13 +3513,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>5</v>
@@ -3499,13 +3533,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>7</v>
@@ -3519,13 +3553,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>6</v>
@@ -3539,13 +3573,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>5</v>
@@ -3559,13 +3593,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>7</v>
@@ -3579,13 +3613,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>6</v>
@@ -3599,13 +3633,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>5</v>
@@ -3619,13 +3653,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>7</v>
@@ -3639,13 +3673,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>6</v>
@@ -3659,13 +3693,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>5</v>
@@ -3679,13 +3713,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>7</v>
@@ -3699,13 +3733,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>6</v>
@@ -3719,13 +3753,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>5</v>
@@ -3739,13 +3773,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>7</v>
@@ -3759,13 +3793,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>6</v>
@@ -3779,13 +3813,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>5</v>
@@ -3799,13 +3833,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>7</v>
@@ -3819,13 +3853,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>6</v>
@@ -3839,13 +3873,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>5</v>
@@ -3859,13 +3893,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>7</v>
@@ -3879,13 +3913,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>6</v>
@@ -3899,13 +3933,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>5</v>
@@ -3919,13 +3953,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>7</v>
@@ -3939,13 +3973,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>6</v>
@@ -3959,13 +3993,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>5</v>
@@ -3979,13 +4013,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>193</v>
+        <v>98</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>7</v>
@@ -3998,37 +4032,76 @@
       <c r="A137" s="1">
         <v>136</v>
       </c>
+      <c r="B137" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="E137" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="F137" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
+      <c r="B138" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="E138" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="E139" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F139" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D140" s="3"/>
       <c r="E140" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D141" s="3"/>
       <c r="E141" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D142" s="3"/>
       <c r="E142" s="1" t="s">
         <v>7</v>
       </c>
@@ -4177,7 +4250,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5">
         <v>286</v>
@@ -4209,7 +4282,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <v>631</v>
@@ -4241,7 +4314,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5">
         <v>648</v>
@@ -4273,7 +4346,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5">
         <v>59.5</v>
@@ -4305,7 +4378,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5">
         <v>305</v>
@@ -4337,7 +4410,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5">
         <v>628</v>
@@ -4369,7 +4442,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B9" s="5">
         <v>12</v>
@@ -4401,7 +4474,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5">
         <v>10</v>
@@ -4433,7 +4506,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B11" s="5">
         <v>250</v>
@@ -4465,7 +4538,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5">
         <v>818</v>
@@ -4497,7 +4570,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5">
         <v>8</v>
@@ -4529,7 +4602,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B14" s="5">
         <v>200</v>
@@ -4561,7 +4634,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="B15" s="5">
         <v>25</v>
@@ -4593,7 +4666,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -4625,7 +4698,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5">
         <v>98</v>
@@ -4657,7 +4730,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="B18" s="5">
         <v>191.5</v>
@@ -4689,7 +4762,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="B19" s="5">
         <v>180</v>
@@ -4721,7 +4794,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5">
         <v>115</v>
@@ -4753,7 +4826,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="B21" s="5">
         <v>86.3</v>
@@ -4785,7 +4858,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5">
         <v>167</v>
@@ -4817,7 +4890,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="B23" s="5">
         <v>165</v>
@@ -4849,7 +4922,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="B24" s="5">
         <v>392</v>
@@ -4881,7 +4954,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>196</v>
+        <v>101</v>
       </c>
       <c r="B25" s="5">
         <v>90</v>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84AE750-A53A-404D-AB24-B6766DA20CE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF43AD-35AA-4685-BB57-B0B250CC4843}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
-    <sheet name="welding_value" sheetId="2" r:id="rId2"/>
+    <sheet name="Assembly_value" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="209">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,18 +80,775 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FRAME10.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME22.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME33.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME34.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME7.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME19.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME19.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME9.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME8.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Acc_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Ass_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME30.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME31.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME27.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME27_1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME24.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME30.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME24_1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME11.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME36.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME32.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME18.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME26.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME26.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME25.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME29.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME29.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME20.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME26.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME26.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME14.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME17.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME15.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME15.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME16.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME21.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME21.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME38.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME19.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME12.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']["B"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME22']['D']-Ass_A)/2+(apv['FRAME1']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME22']['D']+(apv['FRAME1']['CC']/2)+(apv['FRAME2']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME35']['K']-apv['FRAME35']['L']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME22']['D']-Ass_A)/2+apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME10']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME22']['D']-Ass_A)/2+apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv["FRAME10"]["K(2)"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME1']['E']-apv['FRAME1']['DD'])-apv['FRAME22']['A(1)']-apv['FRAME22']['A(2)']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME22']['O']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME22']['D']+apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['B']-apv['FRAME33']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME33']['K']+apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['B']-apv['FRAME34']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-((apv['FRAME2']['E']-apv['FRAME2']['DD'])-apv['FRAME7']['A']-apv['FRAME7']['Y'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv["FRAME2"]["B"]-Ass_B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-((apv['FRAME1']['E']-apv['FRAME1']['DD'])-apv['FRAME19']['D'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['B']-Ass_C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC']/2+apv['FRAME19']['AH'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['B']-Ass_C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['B']-Ass_B-apv['FRAME8']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['A']-apv['FRAME30']['A']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['F']-(apv['FRAME30']['M']/2))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME3']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['F']-Ass_F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC']/2+apv['FRAME3']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME4']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['F']-Ass_G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['A']-apv['FRAME4']['a']-apv['FRAME4']['b']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME4']['C']-Ass_H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2-apv['FRAME4']['b']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME27']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['F']-apv['FRAME27']['B']-apv['FRAME30']['M']-apv['FRAME27']['J'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME27_1']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['F']-apv['FRAME27_1']['B']-apv['FRAME30']['M']-apv['FRAME27_1']['J'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME27_1']['I']+apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME30']['A']-apv['FRAME24']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME24']['A']+apv['FRAME30']['M']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME30']['E']-(apv['FRAME24']['I']-apv['FRAME2']['CC'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME24']['I']-apv['FRAME2']['CC'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['A']-apv['FRAME3']['E']-apv['FRAME11']['A']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME3']['O']+Ass_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME3']['B']/2+apv['FRAME11']['A']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Ass_J-apv['FRAME36']['A']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME4']['K'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']-apv['FRAME36']['D']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME2']['bbbbb']-Ass_K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME5']['A']+Ass_L+apv['FRAME32']['C']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['CC'])/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME2']['bbbbb']-Ass_K-apv['FRAME32']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['CC'])/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME1']['bbbbb']-Ass_M-apv['FRAME18']['F'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME18']['A']+Ass_N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC'])/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME26']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME18']['A']-(Ass_O+apv['FRAME26']['I']))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_J-apv['FRAME25']['B']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_P+apv['FRAME4']['B']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_Q-(apv['FRAME4']['A']-apv['FRAME4']['a'])-apv['FRAME6']['E']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2-apv['FRAME6']['f']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME6']['i']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2+apv['FRAME6']['f']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_Q+(apv['FRAME4']['A']-apv['FRAME4']['a'])-apv['FRAME29']['A']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME29']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2-apv['FRAME6']['e']+apv['FRAME29']['A']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2+apv['FRAME6']['e']+apv['FRAME29']['A']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME1']['bbbbb']-Ass_R-apv['FRAME20']['H'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME20']['A']+Ass_N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME20']['B']+apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME26']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_O+apv['FRAME26']['I']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME20']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME20']['A']-Ass_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME14']['g3'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-apv['FRAME14']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME14']['A']+apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME17']['g3'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-apv['FRAME17']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-Ass_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2-apv['FRAME15']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME17']['g3'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-Ass_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-(apv['FRAME17']['g3']-apv['FRAME17']['g2'])-apv['FRAME13']['k']-apv['FRAME13']['j']-Ass_V-Ass_S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']['CC']/2+apv['FRAME13']['E']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['A']-apv['FRAME30']['A']-(apv['FRAME17']['g3']-apv['FRAME17']['g2'])-apv['FRAME13']['k']-apv['FRAME13']['j']-Ass_V-Ass_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-Ass_T-apv['FRAME21']['D']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2-apv['FRAME21']['C'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME19']['A']-Ass_W-apv['FRAME38']['A']-apv['FRAME3']['C']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME19']['AH']+apv['FRAME38']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['O'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME19']['AH']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xy plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Ass_A</t>
-  </si>
-  <si>
-    <t>FRAME10.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME22.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME33.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx plane</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -99,743 +856,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAME34.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏移方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME7.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME19.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME19.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME9.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME8.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-Acc_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-Ass_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME30.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME31.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME27.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME27_1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME24.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME30.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME24_1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME11.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME36.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME32.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(Ass_L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME18.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME26.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME26.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME25.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME6.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME29.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME29.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME20.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME26.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME26.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME14.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME17.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME15.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME15.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME13.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME16.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME21.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME21.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME38.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME19.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME12.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME1']["B"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME22']['D']-Ass_A)/2+(apv['FRAME1']['CC']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME22']['D']+(apv['FRAME1']['CC']/2)+(apv['FRAME2']['CC']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME35']['K']-apv['FRAME35']['L']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME22']['D']-Ass_A)/2+apv['FRAME2']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME10']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME22']['D']-Ass_A)/2+apv['FRAME1']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv["FRAME10"]["K(2)"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME1']['E']-apv['FRAME1']['DD'])-apv['FRAME22']['A(1)']-apv['FRAME22']['A(2)']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME22']['O']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME22']['D']+apv['FRAME1']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['B']-apv['FRAME33']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME33']['K']+apv['FRAME1']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['B']-apv['FRAME34']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-((apv['FRAME2']['E']-apv['FRAME2']['DD'])-apv['FRAME7']['A']-apv['FRAME7']['Y'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv["FRAME2"]["B"]-Ass_B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-((apv['FRAME1']['E']-apv['FRAME1']['DD'])-apv['FRAME19']['D'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['B']-Ass_C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['CC']/2+apv['FRAME19']['AH'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['B']-Ass_C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['B']-Ass_B-apv['FRAME8']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['A']-apv['FRAME30']['A']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['F']-(apv['FRAME30']['M']/2))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['A']-apv['FRAME3']['A'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['F']-Ass_F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['CC']/2+apv['FRAME3']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME4']['A'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['F']-Ass_G)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['A']-apv['FRAME4']['a']-apv['FRAME4']['b']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME4']['C']-Ass_H)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']/2-apv['FRAME4']['b']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['A']-apv['FRAME27']['A'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['F']-apv['FRAME27']['B']-apv['FRAME30']['M']-apv['FRAME27']['J'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['CC']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME27_1']['A'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['F']-apv['FRAME27_1']['B']-apv['FRAME30']['M']-apv['FRAME27_1']['J'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME27_1']['I']+apv['FRAME2']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME30']['A']-apv['FRAME24']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME24']['A']+apv['FRAME30']['M']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME30']['E']-(apv['FRAME24']['I']-apv['FRAME2']['CC'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME24']['I']-apv['FRAME2']['CC'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME3']['A']-apv['FRAME3']['E']-apv['FRAME11']['A']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME3']['O']+Ass_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME3']['B']/2+apv['FRAME11']['A']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Ass_J-apv['FRAME36']['A']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME4']['K'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']-apv['FRAME36']['D']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME2']['bbbbb']-Ass_K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME5']['A']+Ass_L+apv['FRAME32']['C']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['CC'])/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME2']['bbbbb']-Ass_K-apv['FRAME32']['A'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['CC'])/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['A']-apv['FRAME1']['bbbbb']-Ass_M-apv['FRAME18']['F'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME18']['A']+Ass_N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['CC'])/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME26']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME18']['A']-(Ass_O+apv['FRAME26']['I']))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(Ass_J-apv['FRAME25']['B']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_P+apv['FRAME4']['B']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_Q-(apv['FRAME4']['A']-apv['FRAME4']['a'])-apv['FRAME6']['E']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']/2-apv['FRAME6']['f']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME6']['i']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']/2+apv['FRAME6']['f']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(Ass_Q+(apv['FRAME4']['A']-apv['FRAME4']['a'])-apv['FRAME29']['A']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME29']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']/2-apv['FRAME6']['e']+apv['FRAME29']['A']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']/2+apv['FRAME6']['e']+apv['FRAME29']['A']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['A']-apv['FRAME1']['bbbbb']-Ass_R-apv['FRAME20']['H'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME20']['A']+Ass_N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME20']['B']+apv['FRAME1']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME26']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_O+apv['FRAME26']['I']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME20']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME20']['A']-Ass_O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME14']['g3'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-apv['FRAME14']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME14']['A']+apv['FRAME2']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME17']['g3'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-apv['FRAME17']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['CC']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-Ass_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2-apv['FRAME15']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME17']['g3'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-Ass_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-(apv['FRAME17']['g3']-apv['FRAME17']['g2'])-apv['FRAME13']['k']-apv['FRAME13']['j']-Ass_V-Ass_S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['F']-apv['FRAME2']['G']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-apv['FRAME1']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME1']['CC']/2+apv['FRAME13']['E']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['A']-apv['FRAME30']['A']-(apv['FRAME17']['g3']-apv['FRAME17']['g2'])-apv['FRAME13']['k']-apv['FRAME13']['j']-Ass_V-Ass_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-Ass_T-apv['FRAME21']['D']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2-apv['FRAME21']['C'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME19']['A']-Ass_W-apv['FRAME38']['A']-apv['FRAME3']['C']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME19']['AH']+apv['FRAME38']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME3']['O'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME19']['AH']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1287,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D117" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1317,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1331,10 +1352,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1355,10 +1376,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1377,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -1395,13 +1416,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1418,10 +1439,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1438,10 +1459,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1459,10 +1480,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1479,10 +1500,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1499,7 +1520,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1519,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1539,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -1559,10 +1580,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1573,16 +1594,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1594,13 +1615,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
@@ -1614,13 +1635,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -1634,16 +1655,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1654,16 +1675,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1674,16 +1695,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1695,16 +1716,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1715,16 +1736,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1735,16 +1756,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1755,16 +1776,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1775,16 +1796,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1795,16 +1816,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1815,16 +1836,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1835,16 +1856,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1855,16 +1876,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1875,16 +1896,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1895,16 +1916,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -1915,16 +1936,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -1935,16 +1956,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1955,13 +1976,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D33" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>5</v>
@@ -1975,16 +1996,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -1995,13 +2016,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>6</v>
@@ -2015,13 +2036,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>5</v>
@@ -2035,13 +2056,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>7</v>
@@ -2055,13 +2076,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>6</v>
@@ -2075,13 +2096,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>5</v>
@@ -2095,13 +2116,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
@@ -2115,13 +2136,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
@@ -2135,13 +2156,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>5</v>
@@ -2155,13 +2176,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
@@ -2175,13 +2196,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
@@ -2195,13 +2216,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>5</v>
@@ -2215,13 +2236,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>7</v>
@@ -2235,13 +2256,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>6</v>
@@ -2255,13 +2276,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>5</v>
@@ -2275,13 +2296,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
@@ -2295,13 +2316,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>6</v>
@@ -2315,13 +2336,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>5</v>
@@ -2335,13 +2356,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
@@ -2355,13 +2376,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>6</v>
@@ -2375,13 +2396,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
@@ -2395,13 +2416,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
@@ -2415,13 +2436,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>6</v>
@@ -2435,13 +2456,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>5</v>
@@ -2455,13 +2476,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
@@ -2475,13 +2496,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -2495,13 +2516,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>5</v>
@@ -2515,13 +2536,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>7</v>
@@ -2535,13 +2556,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>6</v>
@@ -2555,13 +2576,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>5</v>
@@ -2575,13 +2596,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>7</v>
@@ -2595,13 +2616,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>6</v>
@@ -2615,13 +2636,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>5</v>
@@ -2635,13 +2656,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>7</v>
@@ -2655,13 +2676,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="D68" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>6</v>
@@ -2673,13 +2694,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>5</v>
@@ -2693,13 +2714,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>7</v>
@@ -2713,13 +2734,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>6</v>
@@ -2733,13 +2754,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>5</v>
@@ -2753,13 +2774,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>7</v>
@@ -2773,13 +2794,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>6</v>
@@ -2793,13 +2814,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>5</v>
@@ -2813,13 +2834,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>7</v>
@@ -2833,13 +2854,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D77" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>6</v>
@@ -2853,13 +2874,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>5</v>
@@ -2873,13 +2894,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>7</v>
@@ -2893,13 +2914,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>6</v>
@@ -2913,13 +2934,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>5</v>
@@ -2933,13 +2954,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>7</v>
@@ -2953,13 +2974,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>6</v>
@@ -2973,13 +2994,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>5</v>
@@ -2993,13 +3014,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>7</v>
@@ -3013,13 +3034,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D86" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>6</v>
@@ -3033,13 +3054,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D87" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>5</v>
@@ -3053,13 +3074,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D88" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>7</v>
@@ -3073,13 +3094,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>6</v>
@@ -3093,13 +3114,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>5</v>
@@ -3113,13 +3134,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>7</v>
@@ -3133,13 +3154,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>6</v>
@@ -3153,13 +3174,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>5</v>
@@ -3173,13 +3194,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>7</v>
@@ -3193,13 +3214,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>6</v>
@@ -3213,13 +3234,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>5</v>
@@ -3233,13 +3254,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>7</v>
@@ -3253,13 +3274,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
@@ -3273,13 +3294,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>5</v>
@@ -3293,13 +3314,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>7</v>
@@ -3313,13 +3334,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D101" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>6</v>
@@ -3333,13 +3354,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D102" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>5</v>
@@ -3353,13 +3374,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D103" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>7</v>
@@ -3373,13 +3394,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>6</v>
@@ -3393,13 +3414,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>5</v>
@@ -3413,13 +3434,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>7</v>
@@ -3433,13 +3454,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>6</v>
@@ -3453,13 +3474,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>5</v>
@@ -3473,13 +3494,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>7</v>
@@ -3493,13 +3514,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>6</v>
@@ -3513,13 +3534,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>5</v>
@@ -3533,13 +3554,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>7</v>
@@ -3553,13 +3574,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>6</v>
@@ -3573,13 +3594,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>5</v>
@@ -3593,13 +3614,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>7</v>
@@ -3613,13 +3634,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>6</v>
@@ -3633,13 +3654,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>5</v>
@@ -3653,13 +3674,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>7</v>
@@ -3673,13 +3694,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>6</v>
@@ -3693,13 +3714,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>5</v>
@@ -3713,13 +3734,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>7</v>
@@ -3733,13 +3754,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D122" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>6</v>
@@ -3753,13 +3774,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D123" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>5</v>
@@ -3773,13 +3794,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D124" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>7</v>
@@ -3793,13 +3814,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D125" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>6</v>
@@ -3813,13 +3834,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D126" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>5</v>
@@ -3833,13 +3854,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D127" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>7</v>
@@ -3853,13 +3874,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>6</v>
@@ -3873,13 +3894,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>5</v>
@@ -3893,13 +3914,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>7</v>
@@ -3913,13 +3934,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>6</v>
@@ -3933,13 +3954,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>5</v>
@@ -3953,13 +3974,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>7</v>
@@ -3973,13 +3994,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D134" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>6</v>
@@ -3993,13 +4014,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D135" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>5</v>
@@ -4013,13 +4034,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D136" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>7</v>
@@ -4033,13 +4054,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>6</v>
@@ -4053,13 +4074,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D138" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>5</v>
@@ -4073,13 +4094,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D139" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>7</v>
@@ -4181,7 +4202,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4218,7 +4239,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="B2" s="5">
         <v>464</v>
@@ -4250,7 +4271,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5">
         <v>286</v>
@@ -4282,7 +4303,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5">
         <v>631</v>
@@ -4314,7 +4335,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5">
         <v>648</v>
@@ -4346,7 +4367,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5">
         <v>59.5</v>
@@ -4378,7 +4399,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5">
         <v>305</v>
@@ -4410,7 +4431,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5">
         <v>628</v>
@@ -4442,7 +4463,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5">
         <v>12</v>
@@ -4474,7 +4495,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5">
         <v>10</v>
@@ -4506,7 +4527,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="5">
         <v>250</v>
@@ -4538,7 +4559,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5">
         <v>818</v>
@@ -4570,7 +4591,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5">
         <v>8</v>
@@ -4602,7 +4623,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5">
         <v>200</v>
@@ -4634,7 +4655,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="5">
         <v>25</v>
@@ -4666,7 +4687,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -4698,7 +4719,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="5">
         <v>98</v>
@@ -4730,7 +4751,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="5">
         <v>191.5</v>
@@ -4762,7 +4783,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5">
         <v>180</v>
@@ -4794,7 +4815,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5">
         <v>115</v>
@@ -4826,7 +4847,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="5">
         <v>86.3</v>
@@ -4858,7 +4879,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="5">
         <v>167</v>
@@ -4890,7 +4911,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5">
         <v>165</v>
@@ -4922,7 +4943,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="5">
         <v>392</v>
@@ -4954,7 +4975,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="5">
         <v>90</v>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EF43AD-35AA-4685-BB57-B0B250CC4843}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AFF57C-076A-4352-90BE-1F409DA55E03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="216">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,11 +244,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FRAME5.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME32.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME18.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME26.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME26.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME25.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FRAME4.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAME5.1</t>
+    <t>Ass_P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME6.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME29.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME29.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME20.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,27 +344,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ass_K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME32.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(Ass_L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME18.1</t>
+    <t>FRAME26.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME26.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME14.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME17.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME15.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME15.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME16.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -284,15 +400,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ass_N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME26.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_O</t>
+    <t>FRAME21.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME21.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME38.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME19.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME12.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME3.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,103 +440,387 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAME26.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME25.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME6.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME29.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME29.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME20.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME26.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME26.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME14.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME17.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME15.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME15.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME13.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME16.1</t>
+    <t>apv['FRAME1']["B"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME22']['D']-Ass_A)/2+(apv['FRAME1']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME35']['K']-apv['FRAME35']['L']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME22']['D']-Ass_A)/2+apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME10']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME22']['D']-Ass_A)/2+apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv["FRAME10"]["K(2)"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME22']['O']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME22']['D']+apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['B']-apv['FRAME33']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['B']-apv['FRAME34']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-((apv['FRAME2']['E']-apv['FRAME2']['DD'])-apv['FRAME7']['A']-apv['FRAME7']['Y'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv["FRAME2"]["B"]-Ass_B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['B']-Ass_C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC']/2+apv['FRAME19']['AH'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['B']-Ass_C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['B']-Ass_B-apv['FRAME8']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['A']-apv['FRAME30']['A']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['F']-(apv['FRAME30']['M']/2))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME3']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['F']-Ass_F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC']/2+apv['FRAME3']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME4']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['F']-Ass_G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['A']-apv['FRAME4']['a']-apv['FRAME4']['b']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME4']['C']-Ass_H)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2-apv['FRAME4']['b']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME27']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['F']-apv['FRAME27']['B']-apv['FRAME30']['M']-apv['FRAME27']['J'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME27_1']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['F']-apv['FRAME27_1']['B']-apv['FRAME30']['M']-apv['FRAME27_1']['J'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME27_1']['I']+apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME30']['A']-apv['FRAME24']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME24']['A']+apv['FRAME30']['M']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME30']['E']-(apv['FRAME24']['I']-apv['FRAME2']['CC'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME24']['I']-apv['FRAME2']['CC'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['A']-apv['FRAME3']['E']-apv['FRAME11']['A']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME3']['O']+Ass_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME3']['B']/2+apv['FRAME11']['A']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME4']['K'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']-apv['FRAME36']['D']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME2']['bbbbb']-Ass_K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME5']['A']+Ass_L+apv['FRAME32']['C']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['CC'])/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME2']['bbbbb']-Ass_K-apv['FRAME32']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME1']['bbbbb']-Ass_M-apv['FRAME18']['F'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME18']['A']+Ass_N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC'])/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME26']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME18']['A']-(Ass_O+apv['FRAME26']['I']))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_J-apv['FRAME25']['B']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_P+apv['FRAME4']['B']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_Q-(apv['FRAME4']['A']-apv['FRAME4']['a'])-apv['FRAME6']['E']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2-apv['FRAME6']['f']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME6']['i']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2+apv['FRAME6']['f']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_Q+(apv['FRAME4']['A']-apv['FRAME4']['a'])-apv['FRAME29']['A']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME29']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2-apv['FRAME6']['e']+apv['FRAME29']['A']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME4']['B']/2+apv['FRAME6']['e']+apv['FRAME29']['A']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME1']['bbbbb']-Ass_R-apv['FRAME20']['H'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME20']['A']+Ass_N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME20']['B']+apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME26']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_O+apv['FRAME26']['I']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME20']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME20']['A']-Ass_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME14']['g3'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-apv['FRAME14']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME14']['A']+apv['FRAME2']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME17']['g3'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-apv['FRAME17']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-Ass_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2-apv['FRAME15']['B']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME17']['g3'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-Ass_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-(apv['FRAME17']['g3']-apv['FRAME17']['g2'])-apv['FRAME13']['k']-apv['FRAME13']['j']-Ass_V-Ass_S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-apv['FRAME1']['CC']/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']['CC']/2+apv['FRAME13']['E']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['A']-apv['FRAME30']['A']-(apv['FRAME17']['g3']-apv['FRAME17']['g2'])-apv['FRAME13']['k']-apv['FRAME13']['j']-Ass_V-Ass_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-Ass_T-apv['FRAME21']['D']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2-apv['FRAME21']['C'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME19']['A']-Ass_W-apv['FRAME38']['A']-apv['FRAME3']['C']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME19']['AH']+apv['FRAME38']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME3']['O'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME19']['AH']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xy plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx plane</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -404,435 +828,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAME21.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME21.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME38.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME19.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME12.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRAME3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME1']["B"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME22']['D']-Ass_A)/2+(apv['FRAME1']['CC']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME22']['D']+(apv['FRAME1']['CC']/2)+(apv['FRAME2']['CC']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME35']['K']-apv['FRAME35']['L']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME22']['D']-Ass_A)/2+apv['FRAME2']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME10']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME22']['D']-Ass_A)/2+apv['FRAME1']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv["FRAME10"]["K(2)"]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME1']['E']-apv['FRAME1']['DD'])-apv['FRAME22']['A(1)']-apv['FRAME22']['A(2)']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME22']['O']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME22']['D']+apv['FRAME1']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['B']-apv['FRAME33']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME33']['K']+apv['FRAME1']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['B']-apv['FRAME34']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-((apv['FRAME2']['E']-apv['FRAME2']['DD'])-apv['FRAME7']['A']-apv['FRAME7']['Y'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv["FRAME2"]["B"]-Ass_B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-((apv['FRAME1']['E']-apv['FRAME1']['DD'])-apv['FRAME19']['D'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['B']-Ass_C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['CC']/2+apv['FRAME19']['AH'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['B']-Ass_C)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['B']-Ass_B-apv['FRAME8']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['A']-apv['FRAME30']['A']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['F']-(apv['FRAME30']['M']/2))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['A']-apv['FRAME3']['A'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['F']-Ass_F)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['CC']/2+apv['FRAME3']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME4']['A'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['F']-Ass_G)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['A']-apv['FRAME4']['a']-apv['FRAME4']['b']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME4']['C']-Ass_H)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']/2-apv['FRAME4']['b']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['A']-apv['FRAME27']['A'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['F']-apv['FRAME27']['B']-apv['FRAME30']['M']-apv['FRAME27']['J'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['CC']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME27_1']['A'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['F']-apv['FRAME27_1']['B']-apv['FRAME30']['M']-apv['FRAME27_1']['J'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME27_1']['I']+apv['FRAME2']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME30']['A']-apv['FRAME24']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME24']['A']+apv['FRAME30']['M']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME30']['E']-(apv['FRAME24']['I']-apv['FRAME2']['CC'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(apv['FRAME24']['I']-apv['FRAME2']['CC'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME3']['A']-apv['FRAME3']['E']-apv['FRAME11']['A']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME3']['O']+Ass_I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME3']['B']/2+apv['FRAME11']['A']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Ass_J-apv['FRAME36']['A']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME4']['K'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']-apv['FRAME36']['D']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME2']['bbbbb']-Ass_K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME5']['A']+Ass_L+apv['FRAME32']['C']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['CC'])/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME2']['bbbbb']-Ass_K-apv['FRAME32']['A'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['CC'])/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['A']-apv['FRAME1']['bbbbb']-Ass_M-apv['FRAME18']['F'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME18']['A']+Ass_N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['CC'])/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME26']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME18']['A']-(Ass_O+apv['FRAME26']['I']))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(Ass_J-apv['FRAME25']['B']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_P+apv['FRAME4']['B']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_Q-(apv['FRAME4']['A']-apv['FRAME4']['a'])-apv['FRAME6']['E']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']/2-apv['FRAME6']['f']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME6']['i']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']/2+apv['FRAME6']['f']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(Ass_Q+(apv['FRAME4']['A']-apv['FRAME4']['a'])-apv['FRAME29']['A']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME29']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']/2-apv['FRAME6']['e']+apv['FRAME29']['A']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME4']['B']/2+apv['FRAME6']['e']+apv['FRAME29']['A']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['A']-apv['FRAME1']['bbbbb']-Ass_R-apv['FRAME20']['H'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME20']['A']+Ass_N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME20']['B']+apv['FRAME1']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME26']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ass_O+apv['FRAME26']['I']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME20']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME20']['A']-Ass_O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME14']['g3'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-apv['FRAME14']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME14']['A']+apv['FRAME2']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME1']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME17']['g3'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-apv['FRAME17']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['CC']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-Ass_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2-apv['FRAME15']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-Ass_S-apv['FRAME17']['g3'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-Ass_T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME2']['A']-apv['FRAME30']['A']-(apv['FRAME17']['g3']-apv['FRAME17']['g2'])-apv['FRAME13']['k']-apv['FRAME13']['j']-Ass_V-Ass_S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['F']-apv['FRAME2']['G']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-apv['FRAME1']['CC']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME1']['CC']/2+apv['FRAME13']['E']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['A']-apv['FRAME30']['A']-(apv['FRAME17']['g3']-apv['FRAME17']['g2'])-apv['FRAME13']['k']-apv['FRAME13']['j']-Ass_V-Ass_S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-Ass_T-apv['FRAME21']['D']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME3']['B']/2-Ass_U+apv['FRAME1']['CC']/2-apv['FRAME21']['C'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME19']['A']-Ass_W-apv['FRAME38']['A']-apv['FRAME3']['C']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME19']['AH']+apv['FRAME38']['B'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-(apv['FRAME3']['O'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>apv['FRAME19']['AH']</t>
+    <t>-((apv['FRAME1']['E']-apv['FRAME1']['DD'])-apv['FRAME22']['A(1)']-apv['FRAME22']['A(2)'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME33']['K']+apv['FRAME1']['CC']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME22']['D']+(apv['FRAME1']['CC']/2)+(apv['FRAME2']['CC']/2))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-((apv['FRAME1']['E']-apv['FRAME19']['D'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx plane</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -844,7 +860,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ass_A</t>
+    <t>yz plane</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -852,11 +868,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAME1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
+    <t>xy plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xy plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zx plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yz plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-((Ass_J-apv['FRAME36']['A']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a']))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1308,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1355,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1376,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1398,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
@@ -1416,13 +1444,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1442,7 +1470,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1459,10 +1487,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1480,10 +1508,10 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1500,10 +1528,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1520,7 +1548,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
@@ -1543,7 +1571,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1560,7 +1588,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -1580,10 +1608,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1600,10 +1628,10 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1621,7 +1649,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
@@ -1641,7 +1669,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
@@ -1661,10 +1689,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1681,10 +1709,10 @@
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1698,13 +1726,13 @@
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1722,10 +1750,10 @@
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1742,10 +1770,10 @@
         <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1762,10 +1790,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1785,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1802,10 +1830,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1822,10 +1850,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1842,10 +1870,10 @@
         <v>12</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1862,10 +1890,10 @@
         <v>12</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1885,7 +1913,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1902,10 +1930,10 @@
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1922,10 +1950,10 @@
         <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -1942,10 +1970,10 @@
         <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -1962,10 +1990,10 @@
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -1982,7 +2010,7 @@
         <v>29</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>5</v>
@@ -2002,10 +2030,10 @@
         <v>29</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2019,7 +2047,7 @@
         <v>30</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>31</v>
@@ -2062,10 +2090,10 @@
         <v>29</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2085,7 +2113,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2102,10 +2130,10 @@
         <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2142,7 +2170,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>6</v>
@@ -2162,10 +2190,10 @@
         <v>12</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2182,10 +2210,10 @@
         <v>12</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2202,7 +2230,7 @@
         <v>10</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>6</v>
@@ -2222,10 +2250,10 @@
         <v>10</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -2242,10 +2270,10 @@
         <v>10</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -2262,10 +2290,10 @@
         <v>12</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2282,10 +2310,10 @@
         <v>12</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -2302,10 +2330,10 @@
         <v>12</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -2322,10 +2350,10 @@
         <v>42</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -2342,10 +2370,10 @@
         <v>42</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -2362,7 +2390,7 @@
         <v>42</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
@@ -2382,10 +2410,10 @@
         <v>10</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -2402,10 +2430,10 @@
         <v>10</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -2422,10 +2450,10 @@
         <v>10</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2442,10 +2470,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -2462,10 +2490,10 @@
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -2482,10 +2510,10 @@
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -2499,13 +2527,13 @@
         <v>47</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -2522,10 +2550,10 @@
         <v>48</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -2542,10 +2570,10 @@
         <v>48</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>7</v>
+        <v>210</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -2559,13 +2587,13 @@
         <v>49</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -2582,7 +2610,7 @@
         <v>48</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>5</v>
@@ -2602,10 +2630,10 @@
         <v>48</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -2619,13 +2647,13 @@
         <v>50</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -2642,10 +2670,10 @@
         <v>51</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -2662,10 +2690,10 @@
         <v>51</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -2679,15 +2707,17 @@
         <v>54</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="8"/>
+        <v>212</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
@@ -2700,10 +2730,10 @@
         <v>42</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -2720,10 +2750,10 @@
         <v>42</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -2734,16 +2764,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -2754,16 +2784,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D72" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -2774,16 +2804,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -2794,16 +2824,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -2814,16 +2844,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -2834,16 +2864,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -2854,16 +2884,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -2874,16 +2904,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -2894,16 +2924,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -2914,16 +2944,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -2934,13 +2964,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>5</v>
@@ -2954,16 +2984,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F82" s="1">
         <v>1</v>
@@ -2974,16 +3004,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -2994,16 +3024,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -3014,16 +3044,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F85" s="1">
         <v>1</v>
@@ -3034,16 +3064,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -3054,16 +3084,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D87" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -3074,16 +3104,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D88" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -3094,16 +3124,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -3114,16 +3144,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -3134,16 +3164,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
@@ -3154,16 +3184,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -3174,16 +3204,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F93" s="1">
         <v>1</v>
@@ -3194,13 +3224,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>7</v>
@@ -3214,16 +3244,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -3234,16 +3264,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -3254,16 +3284,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -3274,13 +3304,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
@@ -3294,16 +3324,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -3314,16 +3344,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -3334,13 +3364,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>6</v>
@@ -3354,16 +3384,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D102" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -3374,13 +3404,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D103" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>7</v>
@@ -3394,16 +3424,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -3414,16 +3444,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -3434,16 +3464,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -3454,16 +3484,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -3474,16 +3504,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -3494,16 +3524,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -3514,16 +3544,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -3534,16 +3564,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -3554,16 +3584,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -3574,16 +3604,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -3594,13 +3624,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>5</v>
@@ -3614,16 +3644,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -3634,16 +3664,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -3654,16 +3684,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F117" s="1">
         <v>1</v>
@@ -3674,16 +3704,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F118" s="1">
         <v>1</v>
@@ -3694,16 +3724,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -3714,16 +3744,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F120" s="1">
         <v>1</v>
@@ -3734,16 +3764,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F121" s="1">
         <v>1</v>
@@ -3754,16 +3784,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -3774,16 +3804,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D123" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F123" s="1">
         <v>1</v>
@@ -3794,16 +3824,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D124" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F124" s="1">
         <v>1</v>
@@ -3814,16 +3844,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -3834,16 +3864,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D126" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F126" s="1">
         <v>1</v>
@@ -3854,16 +3884,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D127" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F127" s="1">
         <v>1</v>
@@ -3874,13 +3904,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>6</v>
@@ -3894,16 +3924,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
@@ -3914,16 +3944,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
@@ -3934,13 +3964,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>6</v>
@@ -3954,16 +3984,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -3974,16 +4004,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -3994,16 +4024,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
@@ -4014,13 +4044,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D135" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>5</v>
@@ -4034,16 +4064,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D136" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F136" s="1">
         <v>1</v>
@@ -4054,16 +4084,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="E137" s="1" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -4074,16 +4104,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D138" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>5</v>
+        <v>214</v>
       </c>
       <c r="F138" s="1">
         <v>1</v>
@@ -4094,16 +4124,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D139" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
@@ -4239,7 +4269,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B2" s="5">
         <v>464</v>
@@ -4559,7 +4589,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5">
         <v>818</v>
@@ -4591,7 +4621,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5">
         <v>8</v>
@@ -4623,7 +4653,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5">
         <v>200</v>
@@ -4655,7 +4685,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="5">
         <v>25</v>
@@ -4687,7 +4717,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5">
         <v>10</v>
@@ -4719,7 +4749,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="5">
         <v>98</v>
@@ -4751,7 +4781,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5">
         <v>191.5</v>
@@ -4783,7 +4813,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5">
         <v>180</v>
@@ -4815,7 +4845,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="5">
         <v>115</v>
@@ -4847,7 +4877,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="5">
         <v>86.3</v>
@@ -4879,7 +4909,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="5">
         <v>167</v>
@@ -4911,7 +4941,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="5">
         <v>165</v>
@@ -4943,7 +4973,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="5">
         <v>392</v>
@@ -4975,7 +5005,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5">
         <v>90</v>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AFF57C-076A-4352-90BE-1F409DA55E03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF99EF-9C84-4F3A-9630-E8257520EB22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -544,10 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME4']['A']-apv['FRAME4']['a']-apv['FRAME4']['b']/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-(apv['FRAME4']['C']-Ass_H)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -664,10 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME4']['B']/2-apv['FRAME6']['f']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apv['FRAME6']['i']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -885,6 +877,14 @@
   </si>
   <si>
     <t>-((Ass_J-apv['FRAME36']['A']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a']))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME4']['A']-apv['FRAME4']['a']-apv['FRAME4']['b']/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME4']['B']/2-apv['FRAME6']['f'])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1407,7 +1407,7 @@
         <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1444,13 +1444,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1487,10 +1487,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1611,7 +1611,7 @@
         <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1631,7 +1631,7 @@
         <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1712,7 +1712,7 @@
         <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>113</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>114</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1790,10 +1790,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>115</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>120</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -1990,10 +1990,10 @@
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>116</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>122</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>124</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>126</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>127</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>128</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>129</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>116</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -2350,10 +2350,10 @@
         <v>42</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>42</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>42</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
@@ -2410,10 +2410,10 @@
         <v>10</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>10</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>10</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2470,10 +2470,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>12</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>37</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>48</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -2570,10 +2570,10 @@
         <v>48</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -2590,10 +2590,10 @@
         <v>37</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>48</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>5</v>
@@ -2630,10 +2630,10 @@
         <v>48</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>38</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -2670,10 +2670,10 @@
         <v>51</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>51</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         <v>42</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F68" s="8">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>42</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -2750,10 +2750,10 @@
         <v>42</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>12</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>56</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -2810,10 +2810,10 @@
         <v>56</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -2830,10 +2830,10 @@
         <v>12</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>60</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         <v>56</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -2890,10 +2890,10 @@
         <v>10</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -2910,10 +2910,10 @@
         <v>63</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>63</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>62</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>67</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F82" s="1">
         <v>1</v>
@@ -3010,10 +3010,10 @@
         <v>62</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -3030,10 +3030,10 @@
         <v>62</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -3053,7 +3053,7 @@
         <v>67</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F85" s="1">
         <v>1</v>
@@ -3070,10 +3070,10 @@
         <v>42</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -3090,10 +3090,10 @@
         <v>70</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -3110,10 +3110,10 @@
         <v>70</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -3130,10 +3130,10 @@
         <v>42</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>20</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -3170,10 +3170,10 @@
         <v>70</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
@@ -3190,10 +3190,10 @@
         <v>70</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>70</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F93" s="1">
         <v>1</v>
@@ -3230,7 +3230,7 @@
         <v>70</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>7</v>
@@ -3250,10 +3250,10 @@
         <v>42</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -3270,10 +3270,10 @@
         <v>70</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>70</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>70</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
@@ -3330,10 +3330,10 @@
         <v>70</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>70</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -3370,7 +3370,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>6</v>
@@ -3390,10 +3390,10 @@
         <v>79</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>79</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>7</v>
@@ -3430,10 +3430,10 @@
         <v>78</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -3450,10 +3450,10 @@
         <v>78</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>78</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>78</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>78</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -3530,10 +3530,10 @@
         <v>78</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>12</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -3570,10 +3570,10 @@
         <v>79</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -3590,10 +3590,10 @@
         <v>79</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -3610,10 +3610,10 @@
         <v>10</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>63</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>5</v>
@@ -3650,10 +3650,10 @@
         <v>63</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -3670,10 +3670,10 @@
         <v>10</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -3690,10 +3690,10 @@
         <v>63</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F117" s="1">
         <v>1</v>
@@ -3710,10 +3710,10 @@
         <v>63</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F118" s="1">
         <v>1</v>
@@ -3730,10 +3730,10 @@
         <v>12</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F120" s="1">
         <v>1</v>
@@ -3770,10 +3770,10 @@
         <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F121" s="1">
         <v>1</v>
@@ -3790,10 +3790,10 @@
         <v>12</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -3810,10 +3810,10 @@
         <v>90</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F123" s="1">
         <v>1</v>
@@ -3830,10 +3830,10 @@
         <v>90</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F124" s="1">
         <v>1</v>
@@ -3850,10 +3850,10 @@
         <v>10</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>93</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F126" s="1">
         <v>1</v>
@@ -3890,10 +3890,10 @@
         <v>93</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F127" s="1">
         <v>1</v>
@@ -3910,7 +3910,7 @@
         <v>10</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>6</v>
@@ -3930,10 +3930,10 @@
         <v>93</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
@@ -3950,10 +3950,10 @@
         <v>93</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
@@ -3970,7 +3970,7 @@
         <v>12</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>6</v>
@@ -3990,10 +3990,10 @@
         <v>90</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -4010,10 +4010,10 @@
         <v>90</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>28</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>97</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F136" s="1">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>103</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -4110,10 +4110,10 @@
         <v>102</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F138" s="1">
         <v>1</v>
@@ -4130,10 +4130,10 @@
         <v>102</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
@@ -4231,7 +4231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B2" s="5">
         <v>464</v>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF99EF-9C84-4F3A-9630-E8257520EB22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0697F9BF-68D3-4C17-ACA7-03513DF2979D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="243">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,10 +648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-(Ass_J-apv['FRAME25']['B']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ass_P+apv['FRAME4']['B']/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,10 +712,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-apv['FRAME14']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apv['FRAME14']['A']+apv['FRAME2']['CC']/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -728,10 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-apv['FRAME17']['B']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-(apv['FRAME2']['CC']/2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,10 +772,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>apv['FRAME19']['A']-Ass_W-apv['FRAME38']['A']-apv['FRAME3']['C']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-(apv['FRAME19']['AH']+apv['FRAME38']['B'])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -885,6 +869,130 @@
   </si>
   <si>
     <t>-(apv['FRAME4']['B']/2-apv['FRAME6']['f'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME38.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME19.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(Ass_X+apv["FRAME38"]["C"])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME38']['B'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME19']['A']-Ass_W-apv['FRAME38']['A']-apv['FRAME3']['C'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME37.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv["FRAME2"]["CC"]/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv["FRAME2"]["A"]-apv["FRAME2"]["ffff"]-apv["FRAME37"]["A"]/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv["FRAME2"]["F"]-apv["FRAME2"]["eeee"]-apv["FRAME37"]["A"]/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME28.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME30.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv["FRAME30"]["M"]/2+apv["FRAME28"]["A"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv["FRAME27"]["I"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-apv['FRAME2']['FF']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME1']['F']-apv['FRAME1']['G']-apv['FRAME17']['B']-apv['FRAME2']['FF']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apv['FRAME2']['F']-apv['FRAME2']['G']-apv['FRAME14']['B']-apv['FRAME2']['FF']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Ass_O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-((Ass_J-apv['FRAME25']['B']/2)+(apv['FRAME4']['A']-apv['FRAME4']['a']))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME23.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME23.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME23.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME23.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['B']-apv['FRAME23']['B'])-zeta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME1']['CC']/2+apv['FRAME23']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv['FRAME2']['CC']/2+apv['FRAME23']['A'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv["FRAME1"]["E"]-apv["FRAME1"]["FF"]-apv["FRAME23"]["I"])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-(apv["FRAME23"]["B"]/2+assmebly_par['Ass_Y'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv['FRAME2']['B']-apv['FRAME23']['B'])+zeta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(apv["FRAME23"]["B"]/2+assmebly_par['Ass_Y'])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,7 +1094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,6 +1126,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1336,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView topLeftCell="B142" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1383,7 +1494,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1407,7 +1518,7 @@
         <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1444,13 +1555,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1470,7 +1581,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1487,10 +1598,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -1511,7 +1622,7 @@
         <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1531,7 +1642,7 @@
         <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1571,7 +1682,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1611,7 +1722,7 @@
         <v>110</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1631,7 +1742,7 @@
         <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1689,10 +1800,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1712,7 +1823,7 @@
         <v>112</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1732,7 +1843,7 @@
         <v>113</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1750,10 +1861,10 @@
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1773,7 +1884,7 @@
         <v>114</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1790,10 +1901,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1813,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1833,7 +1944,7 @@
         <v>115</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -1853,7 +1964,7 @@
         <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1873,7 +1984,7 @@
         <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -1893,7 +2004,7 @@
         <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -1913,7 +2024,7 @@
         <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1930,10 +2041,10 @@
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -1953,7 +2064,7 @@
         <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -1973,7 +2084,7 @@
         <v>120</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -1990,10 +2101,10 @@
         <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2033,7 +2144,7 @@
         <v>116</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2093,7 +2204,7 @@
         <v>116</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2113,7 +2224,7 @@
         <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2133,7 +2244,7 @@
         <v>122</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2193,7 +2304,7 @@
         <v>124</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2213,7 +2324,7 @@
         <v>116</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -2253,7 +2364,7 @@
         <v>126</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -2273,7 +2384,7 @@
         <v>127</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -2293,7 +2404,7 @@
         <v>128</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2313,7 +2424,7 @@
         <v>129</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -2333,7 +2444,7 @@
         <v>116</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -2350,10 +2461,10 @@
         <v>42</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -2373,7 +2484,7 @@
         <v>130</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -2413,7 +2524,7 @@
         <v>132</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -2433,7 +2544,7 @@
         <v>133</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -2453,7 +2564,7 @@
         <v>134</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -2473,7 +2584,7 @@
         <v>135</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -2493,7 +2604,7 @@
         <v>136</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -2513,7 +2624,7 @@
         <v>137</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -2533,7 +2644,7 @@
         <v>138</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -2553,7 +2664,7 @@
         <v>139</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -2573,7 +2684,7 @@
         <v>140</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -2593,7 +2704,7 @@
         <v>138</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -2633,7 +2744,7 @@
         <v>141</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -2653,7 +2764,7 @@
         <v>142</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -2673,7 +2784,7 @@
         <v>143</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -2693,7 +2804,7 @@
         <v>144</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -2710,10 +2821,10 @@
         <v>42</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F68" s="8">
         <v>0</v>
@@ -2733,7 +2844,7 @@
         <v>145</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -2753,7 +2864,7 @@
         <v>146</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -2773,7 +2884,7 @@
         <v>147</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -2793,7 +2904,7 @@
         <v>148</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
@@ -2813,7 +2924,7 @@
         <v>149</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -2833,7 +2944,7 @@
         <v>150</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -2853,7 +2964,7 @@
         <v>60</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -2873,7 +2984,7 @@
         <v>149</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
@@ -2893,7 +3004,7 @@
         <v>151</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
@@ -2913,7 +3024,7 @@
         <v>152</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
@@ -2933,7 +3044,7 @@
         <v>153</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
@@ -2953,7 +3064,7 @@
         <v>154</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
@@ -2970,7 +3081,7 @@
         <v>62</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>5</v>
@@ -2993,7 +3104,7 @@
         <v>67</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F82" s="1">
         <v>1</v>
@@ -3013,7 +3124,7 @@
         <v>154</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
@@ -3033,7 +3144,7 @@
         <v>155</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F84" s="1">
         <v>1</v>
@@ -3053,7 +3164,7 @@
         <v>67</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F85" s="1">
         <v>1</v>
@@ -3070,10 +3181,10 @@
         <v>42</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
@@ -3093,7 +3204,7 @@
         <v>145</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -3110,10 +3221,10 @@
         <v>70</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -3130,10 +3241,10 @@
         <v>42</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -3153,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F90" s="1">
         <v>1</v>
@@ -3170,10 +3281,10 @@
         <v>70</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F91" s="1">
         <v>1</v>
@@ -3190,10 +3301,10 @@
         <v>70</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -3210,10 +3321,10 @@
         <v>70</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F93" s="1">
         <v>1</v>
@@ -3230,7 +3341,7 @@
         <v>70</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>7</v>
@@ -3250,10 +3361,10 @@
         <v>42</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -3270,10 +3381,10 @@
         <v>70</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -3290,10 +3401,10 @@
         <v>70</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
@@ -3310,7 +3421,7 @@
         <v>70</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>6</v>
@@ -3330,10 +3441,10 @@
         <v>70</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -3350,10 +3461,10 @@
         <v>70</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -3370,7 +3481,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>6</v>
@@ -3390,10 +3501,10 @@
         <v>79</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
@@ -3410,7 +3521,7 @@
         <v>79</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>7</v>
@@ -3433,7 +3544,7 @@
         <v>154</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
@@ -3450,10 +3561,10 @@
         <v>78</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -3470,10 +3581,10 @@
         <v>78</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -3490,10 +3601,10 @@
         <v>78</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -3510,10 +3621,10 @@
         <v>78</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
@@ -3530,10 +3641,10 @@
         <v>78</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
@@ -3550,10 +3661,10 @@
         <v>12</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
@@ -3570,10 +3681,10 @@
         <v>79</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F111" s="1">
         <v>1</v>
@@ -3590,10 +3701,10 @@
         <v>79</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
@@ -3610,10 +3721,10 @@
         <v>10</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
@@ -3630,7 +3741,7 @@
         <v>63</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>5</v>
@@ -3650,10 +3761,10 @@
         <v>63</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
@@ -3670,10 +3781,10 @@
         <v>10</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -3690,10 +3801,10 @@
         <v>63</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F117" s="1">
         <v>1</v>
@@ -3710,10 +3821,10 @@
         <v>63</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F118" s="1">
         <v>1</v>
@@ -3730,10 +3841,10 @@
         <v>12</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
@@ -3750,10 +3861,10 @@
         <v>12</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F120" s="1">
         <v>1</v>
@@ -3770,10 +3881,10 @@
         <v>12</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F121" s="1">
         <v>1</v>
@@ -3790,10 +3901,10 @@
         <v>12</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
@@ -3810,10 +3921,10 @@
         <v>90</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F123" s="1">
         <v>1</v>
@@ -3830,10 +3941,10 @@
         <v>90</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F124" s="1">
         <v>1</v>
@@ -3850,10 +3961,10 @@
         <v>10</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -3870,10 +3981,10 @@
         <v>93</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F126" s="1">
         <v>1</v>
@@ -3890,10 +4001,10 @@
         <v>93</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F127" s="1">
         <v>1</v>
@@ -3910,7 +4021,7 @@
         <v>10</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>6</v>
@@ -3930,10 +4041,10 @@
         <v>93</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
@@ -3950,10 +4061,10 @@
         <v>93</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
@@ -3970,7 +4081,7 @@
         <v>12</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>6</v>
@@ -3990,10 +4101,10 @@
         <v>90</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -4010,10 +4121,10 @@
         <v>90</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
@@ -4030,10 +4141,10 @@
         <v>28</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
@@ -4070,10 +4181,10 @@
         <v>97</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F136" s="1">
         <v>1</v>
@@ -4093,7 +4204,7 @@
         <v>103</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
@@ -4110,10 +4221,10 @@
         <v>102</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F138" s="1">
         <v>1</v>
@@ -4130,92 +4241,624 @@
         <v>102</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D140" s="3"/>
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="E140" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F140" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D141" s="3"/>
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="E141" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F141" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D142" s="3"/>
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="E142" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F142" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="E143" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F143" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="E144" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="E145" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
       <c r="E146" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="E147" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="E148" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="E149" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>235</v>
+      </c>
       <c r="E150" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="E151" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>238</v>
+      </c>
       <c r="E152" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="E153" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>236</v>
+      </c>
       <c r="E154" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" s="1"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164" s="1"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166" s="1"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="11"/>
+      <c r="E169" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="11"/>
+      <c r="E171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="11"/>
+      <c r="E172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="E175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="E176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" s="1"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="E177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F177" s="1"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="E178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178" s="1"/>
     </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1048576" s="1"/>
@@ -4229,10 +4872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4269,7 +4912,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B2" s="5">
         <v>464</v>
@@ -5033,6 +5676,38 @@
       </c>
       <c r="J25" s="5">
         <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="5">
+        <v>236</v>
+      </c>
+      <c r="C26" s="5">
+        <v>240</v>
+      </c>
+      <c r="D26" s="5">
+        <v>280</v>
+      </c>
+      <c r="E26" s="5">
+        <v>280</v>
+      </c>
+      <c r="F26" s="5">
+        <v>365</v>
+      </c>
+      <c r="G26" s="5">
+        <v>445</v>
+      </c>
+      <c r="H26" s="5">
+        <v>485</v>
+      </c>
+      <c r="I26" s="5">
+        <v>530</v>
+      </c>
+      <c r="J26" s="5">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0697F9BF-68D3-4C17-ACA7-03513DF2979D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E5D2B6-27D8-422B-A0A9-39F1B2C6AECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="245">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -993,6 +993,14 @@
   </si>
   <si>
     <t>(apv["FRAME23"]["B"]/2+assmebly_par['Ass_Y'])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_AA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4872,10 +4880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5710,6 +5718,70 @@
         <v>650</v>
       </c>
     </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B27" s="5">
+        <v>15</v>
+      </c>
+      <c r="C27" s="5">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5">
+        <v>15</v>
+      </c>
+      <c r="E27" s="5">
+        <v>15</v>
+      </c>
+      <c r="F27" s="5">
+        <v>15</v>
+      </c>
+      <c r="G27" s="5">
+        <v>15</v>
+      </c>
+      <c r="H27" s="5">
+        <v>10</v>
+      </c>
+      <c r="I27" s="5">
+        <v>10</v>
+      </c>
+      <c r="J27" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" s="5">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5">
+        <v>50</v>
+      </c>
+      <c r="D28" s="5">
+        <v>50</v>
+      </c>
+      <c r="E28" s="5">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5">
+        <v>100</v>
+      </c>
+      <c r="G28" s="5">
+        <v>100</v>
+      </c>
+      <c r="H28" s="5">
+        <v>100</v>
+      </c>
+      <c r="I28" s="5">
+        <v>100</v>
+      </c>
+      <c r="J28" s="5">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E5D2B6-27D8-422B-A0A9-39F1B2C6AECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830ECF8-AF89-4A45-A141-A8EA63804EB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -4880,13 +4880,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
@@ -5243,7 +5246,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="5">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C12" s="5">
         <v>950</v>
@@ -5780,6 +5783,11 @@
       </c>
       <c r="J28" s="5">
         <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>2941253214095</v>
       </c>
     </row>
   </sheetData>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D830ECF8-AF89-4A45-A141-A8EA63804EB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC55988-5ED7-471E-90D8-9506D7A0C8FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="249">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1001,6 +1001,22 @@
   </si>
   <si>
     <t>Ass_AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME42.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME42.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME41.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME41.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1455,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="B142" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView topLeftCell="B148" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4682,8 +4698,12 @@
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="B161" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D161" s="3"/>
       <c r="E161" s="1" t="s">
         <v>6</v>
@@ -4694,8 +4714,12 @@
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+      <c r="B162" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D162" s="3"/>
       <c r="E162" s="1" t="s">
         <v>5</v>
@@ -4706,8 +4730,12 @@
       <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="B163" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D163" s="3"/>
       <c r="E163" s="1" t="s">
         <v>7</v>
@@ -4718,8 +4746,12 @@
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+      <c r="B164" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="1" t="s">
         <v>6</v>
@@ -4730,8 +4762,12 @@
       <c r="A165" s="1">
         <v>164</v>
       </c>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="B165" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D165" s="3"/>
       <c r="E165" s="1" t="s">
         <v>5</v>
@@ -4742,8 +4778,12 @@
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="B166" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D166" s="3"/>
       <c r="E166" s="1" t="s">
         <v>7</v>
@@ -4754,8 +4794,12 @@
       <c r="A167" s="1">
         <v>166</v>
       </c>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="B167" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D167" s="3"/>
       <c r="E167" s="1" t="s">
         <v>6</v>
@@ -4764,8 +4808,12 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="B168" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="1" t="s">
         <v>5</v>
@@ -4774,8 +4822,12 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
+      <c r="B169" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D169" s="11"/>
       <c r="E169" s="1" t="s">
         <v>7</v>
@@ -4784,8 +4836,12 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+      <c r="B170" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D170" s="11"/>
       <c r="E170" s="1" t="s">
         <v>6</v>
@@ -4794,8 +4850,12 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+      <c r="B171" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D171" s="11"/>
       <c r="E171" s="1" t="s">
         <v>5</v>
@@ -4804,8 +4864,12 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
+      <c r="B172" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D172" s="11"/>
       <c r="E172" s="1" t="s">
         <v>7</v>
@@ -4883,11 +4947,12 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4929,7 +4994,7 @@
         <v>464</v>
       </c>
       <c r="C2" s="5">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="D2" s="5">
         <v>570</v>
@@ -4996,7 +5061,7 @@
         <v>655</v>
       </c>
       <c r="D4" s="5">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E4" s="5">
         <v>748</v>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC55988-5ED7-471E-90D8-9506D7A0C8FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B9D488-7180-413C-B1A9-D76767771AFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="269">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,10 +916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FRAME30.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>apv["FRAME30"]["M"]/2+apv["FRAME28"]["A"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1017,6 +1013,90 @@
   </si>
   <si>
     <t>FRAME41.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME50.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_AE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_AF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME49.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME48.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME48.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME8.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME23.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME47.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME22.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME7.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME43.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME45.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME45.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME13.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1471,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="B148" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3105,7 +3185,7 @@
         <v>62</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>5</v>
@@ -3205,7 +3285,7 @@
         <v>42</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>206</v>
@@ -3705,7 +3785,7 @@
         <v>79</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>208</v>
@@ -3765,7 +3845,7 @@
         <v>63</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>5</v>
@@ -3945,7 +4025,7 @@
         <v>90</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>208</v>
@@ -4399,13 +4479,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D146" s="1">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>6</v>
@@ -4419,13 +4499,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>224</v>
+        <v>10</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>5</v>
@@ -4439,19 +4519,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>225</v>
+        <v>10</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F148" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4465,7 +4545,7 @@
         <v>10</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>6</v>
@@ -4485,7 +4565,7 @@
         <v>10</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>5</v>
@@ -4505,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>7</v>
@@ -4522,10 +4602,10 @@
         <v>232</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>6</v>
@@ -4542,7 +4622,7 @@
         <v>232</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>240</v>
@@ -4551,7 +4631,7 @@
         <v>5</v>
       </c>
       <c r="F153" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4562,7 +4642,7 @@
         <v>232</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>236</v>
@@ -4571,7 +4651,7 @@
         <v>7</v>
       </c>
       <c r="F154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4585,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>6</v>
@@ -4625,7 +4705,7 @@
         <v>12</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>7</v>
@@ -4636,16 +4716,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>238</v>
+        <v>37</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>6</v>
@@ -4656,36 +4736,36 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>242</v>
+        <v>37</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F159" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>237</v>
+        <v>37</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>7</v>
@@ -4696,10 +4776,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>10</v>
@@ -4712,10 +4792,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>10</v>
@@ -4728,10 +4808,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>10</v>
@@ -4744,10 +4824,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>12</v>
@@ -4760,10 +4840,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>12</v>
@@ -4776,10 +4856,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>12</v>
@@ -4792,10 +4872,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>10</v>
@@ -4807,9 +4887,11 @@
       <c r="F167" s="1"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1">
+        <v>168</v>
+      </c>
       <c r="B168" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>10</v>
@@ -4821,9 +4903,11 @@
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1">
+        <v>169</v>
+      </c>
       <c r="B169" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>10</v>
@@ -4835,9 +4919,11 @@
       <c r="F169" s="1"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1">
+        <v>170</v>
+      </c>
       <c r="B170" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>12</v>
@@ -4849,9 +4935,11 @@
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1">
+        <v>171</v>
+      </c>
       <c r="B171" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>12</v>
@@ -4863,9 +4951,11 @@
       <c r="F171" s="1"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1">
+        <v>172</v>
+      </c>
       <c r="B172" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>12</v>
@@ -4877,9 +4967,15 @@
       <c r="F172" s="1"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
+      <c r="A173" s="1">
+        <v>173</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="D173" s="11"/>
       <c r="E173" s="1" t="s">
         <v>6</v>
@@ -4887,9 +4983,15 @@
       <c r="F173" s="1"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="A174" s="1">
+        <v>174</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="D174" s="11"/>
       <c r="E174" s="1" t="s">
         <v>5</v>
@@ -4897,40 +4999,479 @@
       <c r="F174" s="1"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="A175" s="1">
+        <v>175</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E175" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F175" s="1"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+      <c r="A176" s="1">
+        <v>176</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E176" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+      <c r="A177" s="1">
+        <v>177</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E177" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+      <c r="A178" s="1">
+        <v>178</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="E178" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F178" s="1"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>179</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>180</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>181</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>182</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>183</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>184</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>185</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>186</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>187</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187" s="1"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>188</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" s="1"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>189</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F189" s="1"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>190</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>191</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>192</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>193</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>194</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>195</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>196</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>197</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>198</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>199</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E200" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E201" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E202" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E203" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E204" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E205" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E206" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E207" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E208" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E209" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E210" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E211" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E212" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E213" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E214" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E215" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E216" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E217" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E218" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E219" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E220" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E221" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E222" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1048576" s="1"/>
@@ -4944,10 +5485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5134,7 +5675,7 @@
         <v>22.5</v>
       </c>
       <c r="G6" s="5">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="H6" s="5">
         <v>27.5</v>
@@ -5756,7 +6297,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="5">
         <v>236</v>
@@ -5788,7 +6329,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B27" s="5">
         <v>15</v>
@@ -5820,7 +6361,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" s="5">
         <v>50</v>
@@ -5850,9 +6391,196 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L33">
-        <v>2941253214095</v>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>110</v>
+      </c>
+      <c r="G29" s="5">
+        <v>145</v>
+      </c>
+      <c r="H29" s="5">
+        <v>210</v>
+      </c>
+      <c r="I29" s="5">
+        <v>270</v>
+      </c>
+      <c r="J29" s="5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>200</v>
+      </c>
+      <c r="G30" s="5">
+        <v>195</v>
+      </c>
+      <c r="H30" s="5">
+        <v>310</v>
+      </c>
+      <c r="I30" s="5">
+        <v>290</v>
+      </c>
+      <c r="J30" s="5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>135</v>
+      </c>
+      <c r="G31" s="5">
+        <v>159</v>
+      </c>
+      <c r="H31" s="5">
+        <v>219</v>
+      </c>
+      <c r="I31" s="5">
+        <v>279</v>
+      </c>
+      <c r="J31" s="5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>280</v>
+      </c>
+      <c r="G32" s="5">
+        <v>259</v>
+      </c>
+      <c r="H32" s="5">
+        <v>364</v>
+      </c>
+      <c r="I32" s="5">
+        <v>329</v>
+      </c>
+      <c r="J32" s="5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>179</v>
+      </c>
+      <c r="G33" s="5">
+        <v>222</v>
+      </c>
+      <c r="H33" s="5">
+        <v>222</v>
+      </c>
+      <c r="I33" s="5">
+        <v>275</v>
+      </c>
+      <c r="J33" s="5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>160</v>
+      </c>
+      <c r="F34" s="5">
+        <v>180</v>
+      </c>
+      <c r="G34" s="5">
+        <v>240</v>
+      </c>
+      <c r="H34" s="5">
+        <v>240</v>
+      </c>
+      <c r="I34" s="5">
+        <v>300</v>
+      </c>
+      <c r="J34" s="5">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B9D488-7180-413C-B1A9-D76767771AFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECC955D-C7C6-4DA7-9A35-6F0A445D5624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="278">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1097,6 +1097,42 @@
   </si>
   <si>
     <t>FRAME13.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME43.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME29.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME29.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME54.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME30.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME52.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME52.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME22.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1551,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5359,118 +5395,460 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>200</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="E200" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>201</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="E201" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>202</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="E202" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>203</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="E203" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>204</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="E204" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>205</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="E205" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>206</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="E206" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>207</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="E207" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>208</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="E208" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>209</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="E209" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>210</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="E210" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>211</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="E211" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>212</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="E212" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>213</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="E213" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>214</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="E214" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>215</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="E215" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>216</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="E216" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>217</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="E217" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>218</v>
+      </c>
       <c r="E218" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>219</v>
+      </c>
       <c r="E219" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>220</v>
+      </c>
       <c r="E220" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>221</v>
+      </c>
       <c r="E221" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>222</v>
+      </c>
       <c r="E222" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>255</v>
       </c>
     </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.3">
@@ -5485,10 +5863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5684,7 +6062,7 @@
         <v>30</v>
       </c>
       <c r="J6" s="5">
-        <v>32.5</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6164,7 +6542,7 @@
         <v>151</v>
       </c>
       <c r="J21" s="5">
-        <v>161</v>
+        <v>160.30000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -6582,6 +6960,18 @@
       <c r="J34" s="5">
         <v>375</v>
       </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECC955D-C7C6-4DA7-9A35-6F0A445D5624}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D17380D-BA6E-48CA-808F-65B9A0375502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="282">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1133,6 +1133,22 @@
   </si>
   <si>
     <t>FRAME22.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME53.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME11.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_AJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME53_1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1587,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -5650,6 +5666,12 @@
       <c r="A218" s="1">
         <v>218</v>
       </c>
+      <c r="B218" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="E218" s="1" t="s">
         <v>6</v>
       </c>
@@ -5658,6 +5680,12 @@
       <c r="A219" s="1">
         <v>219</v>
       </c>
+      <c r="B219" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="E219" s="1" t="s">
         <v>5</v>
       </c>
@@ -5666,6 +5694,12 @@
       <c r="A220" s="1">
         <v>220</v>
       </c>
+      <c r="B220" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="E220" s="1" t="s">
         <v>7</v>
       </c>
@@ -5674,6 +5708,12 @@
       <c r="A221" s="1">
         <v>221</v>
       </c>
+      <c r="B221" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="E221" s="1" t="s">
         <v>6</v>
       </c>
@@ -5682,6 +5722,12 @@
       <c r="A222" s="1">
         <v>222</v>
       </c>
+      <c r="B222" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="E222" s="1" t="s">
         <v>5</v>
       </c>
@@ -5690,165 +5736,270 @@
       <c r="A223" s="1">
         <v>223</v>
       </c>
+      <c r="B223" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E224" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E225" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E226" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E227" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E228" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>229</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E229" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E230" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E231" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E232" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E233" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>234</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E234" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E235" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>236</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E236" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E237" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>238</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E238" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>239</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E239" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E240" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E241" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>242</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E242" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>243</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E243" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>244</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E244" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E245" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>246</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E246" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>247</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E247" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E248" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>249</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E249" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E250" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>251</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E251" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>252</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E252" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>253</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E253" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E254" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>255</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="1048576" spans="3:3" x14ac:dyDescent="0.3">
@@ -5865,8 +6016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -6190,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -6962,16 +7113,36 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="A35" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D17380D-BA6E-48CA-808F-65B9A0375502}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4F42EE-EBFB-460D-99D9-B1CBD00F7539}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
     <sheet name="Assembly_value" sheetId="2" r:id="rId2"/>
+    <sheet name="STP_Assembly_value" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="320">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1149,6 +1150,139 @@
   </si>
   <si>
     <t>FRAME53_1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crankshaft.1</t>
+  </si>
+  <si>
+    <t>FRAME30.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME30.2</t>
+  </si>
+  <si>
+    <t>FRAME30.3</t>
+  </si>
+  <si>
+    <t>S_i.CON_ROD_CAP_list[i]+'.1'</t>
+  </si>
+  <si>
+    <t>S_i.CON_ROD_BASE_list[i]+'.1'</t>
+  </si>
+  <si>
+    <t>S_i.CON_ROD_list[i]</t>
+  </si>
+  <si>
+    <t>C_R_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.PANEL_list[i]+'.1'</t>
+  </si>
+  <si>
+    <t>S_i.POINTER_list[i]+'.1'</t>
+  </si>
+  <si>
+    <t>S_i.COVER_list[i]+'.1'</t>
+  </si>
+  <si>
+    <t>FRAME1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.slide_gib_list_left+'.1'</t>
+  </si>
+  <si>
+    <t>S_i.PLUG_list+'.1'</t>
+  </si>
+  <si>
+    <t>S_i.slide_gib_list_right+'.1'</t>
+  </si>
+  <si>
+    <t>SGL_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGL_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGR_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'OGASKL060_OIL_LEVEL_GAUGE.1'</t>
+  </si>
+  <si>
+    <t>OLG_F_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLG_F_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLG_F_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.OIL_LEVEL_GAUGE_list_CON_ROD+'.1'</t>
+  </si>
+  <si>
+    <t>S_i.CON_ROD_list[i]+'.1'</t>
+  </si>
+  <si>
+    <t>PLG_C_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLG_C_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLG_C_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBP_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'FRAME2.1'</t>
+  </si>
+  <si>
+    <t>EB_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBP_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EB_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.ELECTRIC_BOX_list_normal[i]+'.1'</t>
+  </si>
+  <si>
+    <t>'EWR60S01_ELECTRIC_BOX_PLATE.1'</t>
+  </si>
+  <si>
+    <t>'EWR60S01_ELECTRIC_BOX_PLATE.2'</t>
+  </si>
+  <si>
+    <t>P_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P_ZX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1156,7 +1290,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1603,11 +1737,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="D222" sqref="D222"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="B269" sqref="B269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1616,7 +1750,7 @@
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +1770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1660,7 +1794,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1682,7 +1816,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1703,7 +1837,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1723,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1743,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1764,7 +1898,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1784,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1804,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1824,7 +1958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1844,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1864,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1884,7 +2018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1905,7 +2039,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1925,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1945,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1965,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1985,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2006,7 +2140,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2026,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2046,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2066,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2086,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2106,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2126,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2146,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2166,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2186,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2206,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2226,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2246,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2266,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2286,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2306,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2326,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2346,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2366,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2386,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2406,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2426,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2446,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2466,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2486,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2506,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2526,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2546,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2566,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2586,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2606,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2626,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2646,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2666,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2686,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2706,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2726,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2746,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2766,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2786,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2806,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2826,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2846,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2866,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2886,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2906,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2926,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2946,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2966,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2986,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3006,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3026,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3046,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3066,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3086,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3106,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3126,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3146,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3166,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3186,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3206,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3226,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3246,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3266,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3286,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3306,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3326,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3346,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3366,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3386,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3406,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3426,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3446,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3466,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3486,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3506,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3526,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3546,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3566,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3586,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3606,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3626,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3646,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3666,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3686,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3706,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3726,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3746,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3766,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3786,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3806,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3826,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3846,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3866,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3886,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3906,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3926,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3946,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3966,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3986,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -4006,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4026,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -4046,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4066,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -4086,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4106,7 +4240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -4126,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4146,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -4166,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4186,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4206,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4226,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4246,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4266,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4286,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -4306,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -4326,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4346,7 +4480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -4366,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4386,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4406,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4426,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4446,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4466,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4486,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4506,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4526,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4546,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4566,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4586,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4606,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4626,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4646,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4666,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4686,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4706,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4726,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4746,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4766,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -4786,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -4806,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -4826,7 +4960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -4842,7 +4976,7 @@
       </c>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -4858,7 +4992,7 @@
       </c>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -4874,7 +5008,7 @@
       </c>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -4890,7 +5024,7 @@
       </c>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -4906,7 +5040,7 @@
       </c>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -4922,7 +5056,7 @@
       </c>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -4938,7 +5072,7 @@
       </c>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -4954,7 +5088,7 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -4970,7 +5104,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -4986,7 +5120,7 @@
       </c>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -5002,7 +5136,7 @@
       </c>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -5018,7 +5152,7 @@
       </c>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -5034,7 +5168,7 @@
       </c>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -5050,7 +5184,7 @@
       </c>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -5065,7 +5199,7 @@
       </c>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -5080,7 +5214,7 @@
       </c>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -5095,7 +5229,7 @@
       </c>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -5110,7 +5244,7 @@
       </c>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -5124,7 +5258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -5138,7 +5272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -5152,7 +5286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -5166,7 +5300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -5180,7 +5314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -5194,7 +5328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -5208,7 +5342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -5222,7 +5356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -5238,7 +5372,7 @@
       </c>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -5254,7 +5388,7 @@
       </c>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -5270,7 +5404,7 @@
       </c>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -5284,7 +5418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -5298,7 +5432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -5312,7 +5446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -5326,7 +5460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -5340,7 +5474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -5354,7 +5488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -5368,7 +5502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -5382,7 +5516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -5396,7 +5530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -5410,7 +5544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -5424,7 +5558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -5438,7 +5572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -5452,7 +5586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -5466,7 +5600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -5480,7 +5614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -5494,7 +5628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -5508,7 +5642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -5522,7 +5656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -5536,7 +5670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -5550,7 +5684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -5564,7 +5698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -5578,7 +5712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -5592,7 +5726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -5606,7 +5740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -5620,7 +5754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -5634,7 +5768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -5648,7 +5782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5">
       <c r="A217" s="1">
         <v>217</v>
       </c>
@@ -5662,7 +5796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -5676,7 +5810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -5690,7 +5824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -5704,7 +5838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5">
       <c r="A221" s="1">
         <v>221</v>
       </c>
@@ -5718,7 +5852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5">
       <c r="A222" s="1">
         <v>222</v>
       </c>
@@ -5732,7 +5866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5">
       <c r="A223" s="1">
         <v>223</v>
       </c>
@@ -5746,263 +5880,2177 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5">
       <c r="A224" s="1">
         <v>224</v>
       </c>
+      <c r="B224" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="E224" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5">
       <c r="A225" s="1">
         <v>225</v>
       </c>
+      <c r="B225" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="E225" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5">
       <c r="A226" s="1">
         <v>226</v>
       </c>
+      <c r="B226" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="E226" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5">
       <c r="A227" s="1">
         <v>227</v>
       </c>
+      <c r="B227" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E227" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5">
       <c r="A228" s="1">
         <v>228</v>
       </c>
+      <c r="B228" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E228" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5">
       <c r="A229" s="1">
         <v>229</v>
       </c>
+      <c r="B229" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E229" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5">
       <c r="A230" s="1">
         <v>230</v>
       </c>
+      <c r="B230" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E230" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5">
       <c r="A231" s="1">
         <v>231</v>
       </c>
+      <c r="B231" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E231" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5">
       <c r="A232" s="1">
         <v>232</v>
       </c>
+      <c r="B232" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E232" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>233</v>
       </c>
+      <c r="B233" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="E233" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5">
       <c r="A234" s="1">
         <v>234</v>
       </c>
+      <c r="B234" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="E234" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
         <v>235</v>
       </c>
+      <c r="B235" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="E235" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5">
       <c r="A236" s="1">
         <v>236</v>
       </c>
+      <c r="B236" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E236" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
         <v>237</v>
       </c>
+      <c r="B237" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E237" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5">
       <c r="A238" s="1">
         <v>238</v>
       </c>
+      <c r="B238" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="E238" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5">
       <c r="A239" s="1">
         <v>239</v>
       </c>
+      <c r="B239" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E239" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
         <v>240</v>
       </c>
+      <c r="B240" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E240" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5">
       <c r="A241" s="1">
         <v>241</v>
       </c>
+      <c r="B241" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="E241" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5">
       <c r="A242" s="1">
         <v>242</v>
       </c>
+      <c r="B242" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="E242" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5">
       <c r="A243" s="1">
         <v>243</v>
       </c>
+      <c r="B243" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="E243" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5">
       <c r="A244" s="1">
         <v>244</v>
       </c>
+      <c r="B244" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="E244" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5">
       <c r="A245" s="1">
         <v>245</v>
       </c>
+      <c r="B245" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E245" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5">
       <c r="A246" s="1">
         <v>246</v>
       </c>
+      <c r="B246" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E246" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5">
       <c r="A247" s="1">
         <v>247</v>
       </c>
+      <c r="B247" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="E247" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5">
       <c r="A248" s="1">
         <v>248</v>
       </c>
+      <c r="B248" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="E248" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5">
       <c r="A249" s="1">
         <v>249</v>
       </c>
+      <c r="B249" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="E249" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5">
       <c r="A250" s="1">
         <v>250</v>
       </c>
+      <c r="B250" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="E250" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5">
       <c r="A251" s="1">
         <v>251</v>
       </c>
+      <c r="B251" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E251" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5">
       <c r="A252" s="1">
         <v>252</v>
       </c>
+      <c r="B252" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E252" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5">
       <c r="A253" s="1">
         <v>253</v>
       </c>
+      <c r="B253" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="E253" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5">
       <c r="A254" s="1">
         <v>254</v>
       </c>
+      <c r="B254" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="E254" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5">
       <c r="A255" s="1">
         <v>255</v>
       </c>
+      <c r="B255" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="E255" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="1048576" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>256</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>257</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>258</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>259</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>260</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>261</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>262</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>263</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>264</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1">
+        <v>265</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1">
+        <v>266</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1">
+        <v>267</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1">
+        <v>268</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1">
+        <v>269</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="E269" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1">
+        <v>270</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="E270" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1">
+        <v>271</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="E271" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1">
+        <v>272</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="E272" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1">
+        <v>273</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="E273" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1">
+        <v>274</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="E274" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1">
+        <v>275</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="E275" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1">
+        <v>276</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="E276" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1">
+        <v>277</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="E277" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1">
+        <v>278</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="E278" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1">
+        <v>279</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="E279" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1">
+        <v>280</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="E280" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1">
+        <v>281</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="E281" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1">
+        <v>282</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="E282" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1">
+        <v>283</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="E283" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1">
+        <v>284</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="E284" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1">
+        <v>285</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="E285" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1">
+        <v>286</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="E286" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1">
+        <v>287</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="E287" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1">
+        <v>288</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="E288" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1">
+        <v>289</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="E289" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1">
+        <v>290</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="E290" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1">
+        <v>291</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="E291" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1">
+        <v>292</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="E292" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1">
+        <v>293</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="E293" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1">
+        <v>294</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="E294" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1">
+        <v>295</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="E295" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1">
+        <v>296</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="E296" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1">
+        <v>297</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="E297" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1">
+        <v>298</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="E298" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1">
+        <v>299</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="E299" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1">
+        <v>300</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="E300" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1">
+        <v>301</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="E301" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1">
+        <v>302</v>
+      </c>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="E302" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1">
+        <v>303</v>
+      </c>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="E303" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1">
+        <v>304</v>
+      </c>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="E304" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1">
+        <v>305</v>
+      </c>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="E305" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1">
+        <v>306</v>
+      </c>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="E306" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1">
+        <v>307</v>
+      </c>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="E307" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1">
+        <v>308</v>
+      </c>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="E308" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1">
+        <v>309</v>
+      </c>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="E309" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1">
+        <v>310</v>
+      </c>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="E310" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1">
+        <v>311</v>
+      </c>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="E311" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1">
+        <v>312</v>
+      </c>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="E312" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1">
+        <v>313</v>
+      </c>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="E313" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1">
+        <v>314</v>
+      </c>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="E314" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1">
+        <v>315</v>
+      </c>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="E315" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1">
+        <v>316</v>
+      </c>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="E316" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1">
+        <v>317</v>
+      </c>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="E317" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1">
+        <v>318</v>
+      </c>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="E318" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1">
+        <v>319</v>
+      </c>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="E319" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1">
+        <v>320</v>
+      </c>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="E320" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1">
+        <v>321</v>
+      </c>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="E321" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1">
+        <v>322</v>
+      </c>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="E322" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1">
+        <v>323</v>
+      </c>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="E323" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1">
+        <v>324</v>
+      </c>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="E324" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1">
+        <v>325</v>
+      </c>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="E325" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1">
+        <v>326</v>
+      </c>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="E326" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1">
+        <v>327</v>
+      </c>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="E327" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1">
+        <v>328</v>
+      </c>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="E328" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1">
+        <v>329</v>
+      </c>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="E329" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1">
+        <v>330</v>
+      </c>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="E330" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1">
+        <v>331</v>
+      </c>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="E331" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1">
+        <v>332</v>
+      </c>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="E332" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1">
+        <v>333</v>
+      </c>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="E333" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1">
+        <v>334</v>
+      </c>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="E334" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1">
+        <v>335</v>
+      </c>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="E335" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1">
+        <v>336</v>
+      </c>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="E336" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1">
+        <v>337</v>
+      </c>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="E337" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1">
+        <v>338</v>
+      </c>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="E338" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1">
+        <v>339</v>
+      </c>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="E339" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1">
+        <v>340</v>
+      </c>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="E340" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1">
+        <v>341</v>
+      </c>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="E341" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1">
+        <v>342</v>
+      </c>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="E342" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1">
+        <v>343</v>
+      </c>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="E343" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1">
+        <v>344</v>
+      </c>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="E344" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1">
+        <v>345</v>
+      </c>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="E345" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1">
+        <v>346</v>
+      </c>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="E346" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1">
+        <v>347</v>
+      </c>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="E347" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1">
+        <v>348</v>
+      </c>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="E348" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1">
+        <v>349</v>
+      </c>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="E349" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1">
+        <v>350</v>
+      </c>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="E350" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1">
+        <v>351</v>
+      </c>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="E351" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1">
+        <v>352</v>
+      </c>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="E352" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1">
+        <v>353</v>
+      </c>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="E353" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1">
+        <v>354</v>
+      </c>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="E354" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1">
+        <v>355</v>
+      </c>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="E355" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1">
+        <v>356</v>
+      </c>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="E356" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1">
+        <v>357</v>
+      </c>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="E357" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1">
+        <v>358</v>
+      </c>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="E358" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="1">
+        <v>359</v>
+      </c>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="E359" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1">
+        <v>360</v>
+      </c>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="E360" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="1">
+        <v>361</v>
+      </c>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="E361" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="1">
+        <v>362</v>
+      </c>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="E362" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1">
+        <v>363</v>
+      </c>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="E363" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1">
+        <v>364</v>
+      </c>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="E364" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1">
+        <v>365</v>
+      </c>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="E365" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1">
+        <v>366</v>
+      </c>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="E366" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1">
+        <v>367</v>
+      </c>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="E367" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1">
+        <v>368</v>
+      </c>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="E368" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1">
+        <v>369</v>
+      </c>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="E369" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1">
+        <v>370</v>
+      </c>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="E370" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="1">
+        <v>371</v>
+      </c>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="E371" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="1">
+        <v>372</v>
+      </c>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="E372" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1">
+        <v>373</v>
+      </c>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="E373" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="1">
+        <v>374</v>
+      </c>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="E374" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="1">
+        <v>375</v>
+      </c>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="E375" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="1">
+        <v>376</v>
+      </c>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="E376" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="1">
+        <v>377</v>
+      </c>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="E377" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="1">
+        <v>378</v>
+      </c>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="E378" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="1">
+        <v>379</v>
+      </c>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="E379" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1">
+        <v>380</v>
+      </c>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="E380" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="1">
+        <v>381</v>
+      </c>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="E381" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="1">
+        <v>382</v>
+      </c>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="E382" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="1">
+        <v>383</v>
+      </c>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="E383" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="1">
+        <v>384</v>
+      </c>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="E384" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1">
+        <v>385</v>
+      </c>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="E385" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="1">
+        <v>386</v>
+      </c>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="E386" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="1">
+        <v>387</v>
+      </c>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="E387" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="1">
+        <v>388</v>
+      </c>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="E388" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="1">
+        <v>389</v>
+      </c>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="E389" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="1">
+        <v>390</v>
+      </c>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="E390" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="1">
+        <v>391</v>
+      </c>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="E391" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="1">
+        <v>392</v>
+      </c>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="E392" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="1">
+        <v>393</v>
+      </c>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="E393" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="1">
+        <v>394</v>
+      </c>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="E394" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="1">
+        <v>395</v>
+      </c>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="E395" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="1">
+        <v>396</v>
+      </c>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="E396" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="1">
+        <v>397</v>
+      </c>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="E397" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="1">
+        <v>398</v>
+      </c>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="E398" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="1">
+        <v>399</v>
+      </c>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="E399" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="1">
+        <v>400</v>
+      </c>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="E400" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="1">
+        <v>401</v>
+      </c>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="E401" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="1">
+        <v>402</v>
+      </c>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="E402" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="1">
+        <v>403</v>
+      </c>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="E403" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="1">
+        <v>404</v>
+      </c>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="E404" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="1">
+        <v>405</v>
+      </c>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="E405" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="1">
+        <v>406</v>
+      </c>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="E406" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="1">
+        <v>407</v>
+      </c>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="E407" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="1">
+        <v>408</v>
+      </c>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="E408" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="1">
+        <v>409</v>
+      </c>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="E409" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="1">
+        <v>410</v>
+      </c>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="E410" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="1">
+        <v>411</v>
+      </c>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="E411" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="1">
+        <v>412</v>
+      </c>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="E412" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="1">
+        <v>413</v>
+      </c>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="E413" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="1">
+        <v>414</v>
+      </c>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="E414" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="1">
+        <v>415</v>
+      </c>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="E415" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="1">
+        <v>416</v>
+      </c>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="E416" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="1">
+        <v>417</v>
+      </c>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="E417" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="1">
+        <v>418</v>
+      </c>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="E418" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="1">
+        <v>419</v>
+      </c>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="E419" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="1">
+        <v>420</v>
+      </c>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="E420" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="1">
+        <v>421</v>
+      </c>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+      <c r="E421" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="1">
+        <v>422</v>
+      </c>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+      <c r="E422" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1048576" spans="3:3">
       <c r="C1048576" s="1"/>
     </row>
   </sheetData>
@@ -6016,17 +8064,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="4"/>
       <c r="B1" s="5">
         <v>25</v>
@@ -6056,7 +8104,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>192</v>
       </c>
@@ -6088,7 +8136,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -6120,7 +8168,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -6152,7 +8200,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -6184,7 +8232,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -6216,7 +8264,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -6248,7 +8296,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -6280,7 +8328,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -6312,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -6344,7 +8392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -6376,7 +8424,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -6408,7 +8456,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
@@ -6440,7 +8488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -6472,7 +8520,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -6504,7 +8552,7 @@
         <v>228.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -6536,7 +8584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -6568,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -6600,7 +8648,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
@@ -6632,7 +8680,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -6664,7 +8712,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -6696,7 +8744,7 @@
         <v>160.30000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>87</v>
       </c>
@@ -6728,7 +8776,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
         <v>91</v>
       </c>
@@ -6760,7 +8808,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
@@ -6792,7 +8840,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="5" t="s">
         <v>99</v>
       </c>
@@ -6824,7 +8872,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="5" t="s">
         <v>238</v>
       </c>
@@ -6856,7 +8904,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="5" t="s">
         <v>242</v>
       </c>
@@ -6888,7 +8936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="5" t="s">
         <v>243</v>
       </c>
@@ -6920,7 +8968,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="5" t="s">
         <v>250</v>
       </c>
@@ -6952,7 +9000,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="5" t="s">
         <v>251</v>
       </c>
@@ -6984,7 +9032,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="5" t="s">
         <v>252</v>
       </c>
@@ -7016,7 +9064,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="5" t="s">
         <v>253</v>
       </c>
@@ -7048,7 +9096,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="5" t="s">
         <v>254</v>
       </c>
@@ -7080,7 +9128,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
         <v>263</v>
       </c>
@@ -7112,7 +9160,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="5" t="s">
         <v>280</v>
       </c>
@@ -7149,4 +9197,798 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5">
+        <v>35</v>
+      </c>
+      <c r="D1" s="5">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5">
+        <v>60</v>
+      </c>
+      <c r="F1" s="5">
+        <v>80</v>
+      </c>
+      <c r="G1" s="5">
+        <v>110</v>
+      </c>
+      <c r="H1" s="5">
+        <v>160</v>
+      </c>
+      <c r="I1" s="5">
+        <v>200</v>
+      </c>
+      <c r="J1" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>160</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>250</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>120</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>22.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>145</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>805</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>90</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>106</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>72</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>37.5</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>100</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4F42EE-EBFB-460D-99D9-B1CBD00F7539}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A4869-DB77-4400-A566-A980A9627041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="348">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1284,6 +1284,111 @@
   <si>
     <t>P_ZX</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.PANEL_BOX_BRACKET_list_normal[i] + '.1'</t>
+  </si>
+  <si>
+    <t>PBB_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBB_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PBB_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.PANEL_BOX_list_normal[i] + '.1'</t>
+  </si>
+  <si>
+    <t>CP_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.CONTROL_PANEL_list_normal[i] + '.1'</t>
+  </si>
+  <si>
+    <t>EGPSSGD1000IS_MOUNT_FILTER</t>
+  </si>
+  <si>
+    <t>FRAME1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NP_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.NAME_PLATE_list_normal[i]+'.1'</t>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TN_XY </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN_2_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NP_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NP_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.TRADEMARK_NAMEPLATE_list_normal[i]+'.1'</t>
+  </si>
+  <si>
+    <t>S_i.TRADEMARK_NAMEPLATE_list_normal[i]+'.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GF_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GF_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME30.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.GUARD_FLYWHEEL_list_normal[i]+'.1'</t>
   </si>
 </sst>
 </file>
@@ -1737,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B269" sqref="B269"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="D288" sqref="D288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6514,8 +6619,12 @@
       <c r="A269" s="1">
         <v>269</v>
       </c>
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
+      <c r="B269" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="E269" s="1" t="s">
         <v>5</v>
       </c>
@@ -6524,8 +6633,12 @@
       <c r="A270" s="1">
         <v>270</v>
       </c>
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
+      <c r="B270" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="E270" s="1" t="s">
         <v>6</v>
       </c>
@@ -6534,8 +6647,12 @@
       <c r="A271" s="1">
         <v>271</v>
       </c>
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
+      <c r="B271" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="E271" s="1" t="s">
         <v>5</v>
       </c>
@@ -6544,8 +6661,12 @@
       <c r="A272" s="1">
         <v>272</v>
       </c>
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
+      <c r="B272" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="E272" s="1" t="s">
         <v>6</v>
       </c>
@@ -6554,8 +6675,12 @@
       <c r="A273" s="1">
         <v>273</v>
       </c>
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
+      <c r="B273" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="E273" s="1" t="s">
         <v>5</v>
       </c>
@@ -6564,8 +6689,12 @@
       <c r="A274" s="1">
         <v>274</v>
       </c>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
+      <c r="B274" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="E274" s="1" t="s">
         <v>6</v>
       </c>
@@ -6574,8 +6703,12 @@
       <c r="A275" s="1">
         <v>275</v>
       </c>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
+      <c r="B275" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="E275" s="1" t="s">
         <v>5</v>
       </c>
@@ -6584,8 +6717,12 @@
       <c r="A276" s="1">
         <v>276</v>
       </c>
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
+      <c r="B276" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="E276" s="1" t="s">
         <v>6</v>
       </c>
@@ -6594,8 +6731,12 @@
       <c r="A277" s="1">
         <v>277</v>
       </c>
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
+      <c r="B277" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="E277" s="1" t="s">
         <v>5</v>
       </c>
@@ -6604,8 +6745,12 @@
       <c r="A278" s="1">
         <v>278</v>
       </c>
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
+      <c r="B278" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="E278" s="1" t="s">
         <v>6</v>
       </c>
@@ -6614,8 +6759,12 @@
       <c r="A279" s="1">
         <v>279</v>
       </c>
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
+      <c r="B279" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="E279" s="1" t="s">
         <v>5</v>
       </c>
@@ -6624,8 +6773,12 @@
       <c r="A280" s="1">
         <v>280</v>
       </c>
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
+      <c r="B280" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="E280" s="1" t="s">
         <v>6</v>
       </c>
@@ -6634,8 +6787,12 @@
       <c r="A281" s="1">
         <v>281</v>
       </c>
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
+      <c r="B281" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="E281" s="1" t="s">
         <v>5</v>
       </c>
@@ -6644,8 +6801,12 @@
       <c r="A282" s="1">
         <v>282</v>
       </c>
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
+      <c r="B282" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="E282" s="1" t="s">
         <v>6</v>
       </c>
@@ -6654,8 +6815,12 @@
       <c r="A283" s="1">
         <v>283</v>
       </c>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
+      <c r="B283" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="E283" s="1" t="s">
         <v>5</v>
       </c>
@@ -6664,8 +6829,12 @@
       <c r="A284" s="1">
         <v>284</v>
       </c>
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+      <c r="B284" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="E284" s="1" t="s">
         <v>6</v>
       </c>
@@ -6674,8 +6843,12 @@
       <c r="A285" s="1">
         <v>285</v>
       </c>
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
+      <c r="B285" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="E285" s="1" t="s">
         <v>5</v>
       </c>
@@ -6684,8 +6857,12 @@
       <c r="A286" s="1">
         <v>286</v>
       </c>
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
+      <c r="B286" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="E286" s="1" t="s">
         <v>6</v>
       </c>
@@ -6694,8 +6871,12 @@
       <c r="A287" s="1">
         <v>287</v>
       </c>
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
+      <c r="B287" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="E287" s="1" t="s">
         <v>5</v>
       </c>
@@ -6704,8 +6885,12 @@
       <c r="A288" s="1">
         <v>288</v>
       </c>
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
+      <c r="B288" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="E288" s="1" t="s">
         <v>6</v>
       </c>
@@ -6714,8 +6899,12 @@
       <c r="A289" s="1">
         <v>289</v>
       </c>
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
+      <c r="B289" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="E289" s="1" t="s">
         <v>5</v>
       </c>
@@ -6724,8 +6913,12 @@
       <c r="A290" s="1">
         <v>290</v>
       </c>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
+      <c r="B290" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="E290" s="1" t="s">
         <v>6</v>
       </c>
@@ -6734,8 +6927,12 @@
       <c r="A291" s="1">
         <v>291</v>
       </c>
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
+      <c r="B291" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="E291" s="1" t="s">
         <v>5</v>
       </c>
@@ -6744,8 +6941,12 @@
       <c r="A292" s="1">
         <v>292</v>
       </c>
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
+      <c r="B292" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="E292" s="1" t="s">
         <v>6</v>
       </c>
@@ -8050,7 +8251,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1048576" spans="3:3">
+    <row r="1048576" spans="2:3">
+      <c r="B1048576" s="1"/>
       <c r="C1048576" s="1"/>
     </row>
   </sheetData>
@@ -9203,8 +9405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -9739,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="5">
-        <v>1000</v>
+        <v>1034</v>
       </c>
       <c r="H17" s="5">
         <v>0</v>
@@ -9784,211 +9986,553 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>182</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>297</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>241</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>485</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>15</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>4</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>137</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B28" s="5">
+        <v>162</v>
+      </c>
+      <c r="C28" s="5">
+        <v>194</v>
+      </c>
+      <c r="D28" s="5">
+        <v>197</v>
+      </c>
+      <c r="E28" s="5">
+        <v>225</v>
+      </c>
+      <c r="F28" s="5">
+        <v>233</v>
+      </c>
+      <c r="G28" s="5">
+        <v>260</v>
+      </c>
+      <c r="H28" s="5">
+        <v>330</v>
+      </c>
+      <c r="I28" s="5">
+        <v>380</v>
+      </c>
+      <c r="J28" s="5">
+        <v>415</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B29" s="5">
+        <v>345</v>
+      </c>
+      <c r="C29" s="5">
+        <v>365</v>
+      </c>
+      <c r="D29" s="5">
+        <v>417</v>
+      </c>
+      <c r="E29" s="5">
+        <v>440</v>
+      </c>
+      <c r="F29" s="5">
+        <v>530</v>
+      </c>
+      <c r="G29" s="5">
+        <v>560</v>
+      </c>
+      <c r="H29" s="5">
+        <v>660</v>
+      </c>
+      <c r="I29" s="5">
+        <v>722</v>
+      </c>
+      <c r="J29" s="5">
+        <v>779</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>404.98</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" s="5">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5">
+        <v>50</v>
+      </c>
+      <c r="D31" s="5">
+        <v>50</v>
+      </c>
+      <c r="E31" s="5">
+        <v>55</v>
+      </c>
+      <c r="F31" s="5">
+        <v>60</v>
+      </c>
+      <c r="G31" s="5">
+        <f>80+98.1</f>
+        <v>178.1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>110</v>
+      </c>
+      <c r="I31" s="5">
+        <v>141</v>
+      </c>
+      <c r="J31" s="5">
+        <v>180</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>734</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
+      <c r="A33" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="A34" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1570</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="A35" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>20</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A4869-DB77-4400-A566-A980A9627041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E865934C-F743-494E-BCA1-19E057113293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="353">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1349,10 +1349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">TN_XY </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TN_YZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1389,6 +1385,30 @@
   </si>
   <si>
     <t>S_i.GUARD_FLYWHEEL_list_normal[i]+'.1'</t>
+  </si>
+  <si>
+    <t>TN_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALL_SCREW.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OGASKL060_OIL_LEVEL_GAUGE.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1440,7 +1460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1483,13 +1503,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1525,6 +1556,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1842,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="D288" sqref="D288"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6788,7 +6822,7 @@
         <v>281</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>333</v>
@@ -6802,7 +6836,7 @@
         <v>282</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>333</v>
@@ -6816,7 +6850,7 @@
         <v>283</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>333</v>
@@ -6830,7 +6864,7 @@
         <v>284</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>336</v>
@@ -6844,7 +6878,7 @@
         <v>285</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>336</v>
@@ -6858,7 +6892,7 @@
         <v>286</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>336</v>
@@ -6914,10 +6948,10 @@
         <v>290</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>6</v>
@@ -6928,10 +6962,10 @@
         <v>291</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>5</v>
@@ -6942,10 +6976,10 @@
         <v>292</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>6</v>
@@ -6955,8 +6989,12 @@
       <c r="A293" s="1">
         <v>293</v>
       </c>
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
+      <c r="B293" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E293" s="1" t="s">
         <v>5</v>
       </c>
@@ -6965,8 +7003,12 @@
       <c r="A294" s="1">
         <v>294</v>
       </c>
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
+      <c r="B294" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E294" s="1" t="s">
         <v>6</v>
       </c>
@@ -6975,8 +7017,12 @@
       <c r="A295" s="1">
         <v>295</v>
       </c>
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
+      <c r="B295" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="E295" s="1" t="s">
         <v>5</v>
       </c>
@@ -8264,10 +8310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -9394,6 +9440,38 @@
         <v>80</v>
       </c>
     </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>700</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9403,15 +9481,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="4"/>
       <c r="B1" s="5">
         <v>25</v>
@@ -9441,7 +9519,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
         <v>289</v>
       </c>
@@ -9470,10 +9548,10 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
         <v>318</v>
       </c>
@@ -9505,7 +9583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>317</v>
       </c>
@@ -9534,10 +9612,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>319</v>
       </c>
@@ -9566,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>298</v>
       </c>
@@ -9598,10 +9676,14 @@
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>24.4</v>
+      </c>
+      <c r="K6">
+        <f>22.5+1.9</f>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>297</v>
       </c>
@@ -9630,10 +9712,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>299</v>
       </c>
@@ -9662,10 +9744,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>301</v>
       </c>
@@ -9694,10 +9776,10 @@
         <v>0</v>
       </c>
       <c r="J9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>302</v>
       </c>
@@ -9726,10 +9808,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>303</v>
       </c>
@@ -9758,10 +9840,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>306</v>
       </c>
@@ -9790,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>307</v>
       </c>
@@ -9822,10 +9904,10 @@
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
         <v>308</v>
       </c>
@@ -9854,10 +9936,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="5" t="s">
         <v>309</v>
       </c>
@@ -9886,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="5" t="s">
         <v>312</v>
       </c>
@@ -9918,10 +10000,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
         <v>311</v>
       </c>
@@ -9950,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="5" t="s">
         <v>313</v>
       </c>
@@ -9982,10 +10064,10 @@
         <v>0</v>
       </c>
       <c r="J18" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="5" t="s">
         <v>324</v>
       </c>
@@ -10014,10 +10096,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
         <v>325</v>
       </c>
@@ -10046,10 +10128,10 @@
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="5" t="s">
         <v>326</v>
       </c>
@@ -10078,10 +10160,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="5" t="s">
         <v>320</v>
       </c>
@@ -10110,10 +10192,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="5" t="s">
         <v>321</v>
       </c>
@@ -10142,10 +10224,10 @@
         <v>0</v>
       </c>
       <c r="J23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
         <v>322</v>
       </c>
@@ -10174,10 +10256,10 @@
         <v>0</v>
       </c>
       <c r="J24" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="5" t="s">
         <v>328</v>
       </c>
@@ -10206,10 +10288,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
         <v>329</v>
       </c>
@@ -10238,10 +10320,10 @@
         <v>0</v>
       </c>
       <c r="J26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="5" t="s">
         <v>330</v>
       </c>
@@ -10270,12 +10352,12 @@
         <v>0</v>
       </c>
       <c r="J27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B28" s="5">
         <v>162</v>
@@ -10302,12 +10384,12 @@
         <v>380</v>
       </c>
       <c r="J28" s="5">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B29" s="5">
         <v>345</v>
@@ -10337,41 +10419,41 @@
         <v>779</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>405</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5">
-        <v>404.98</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="B31" s="5">
         <v>29</v>
@@ -10389,7 +10471,6 @@
         <v>60</v>
       </c>
       <c r="G31" s="5">
-        <f>80+98.1</f>
         <v>178.1</v>
       </c>
       <c r="H31" s="5">
@@ -10399,12 +10480,12 @@
         <v>141</v>
       </c>
       <c r="J31" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>297.39999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -10431,8 +10512,9 @@
         <v>0</v>
       </c>
       <c r="J32" s="5">
-        <v>0</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="5" t="s">
@@ -10463,12 +10545,12 @@
         <v>0</v>
       </c>
       <c r="J33" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B34" s="5">
         <v>0</v>
@@ -10495,12 +10577,12 @@
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <v>0</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B35" s="5">
         <v>0</v>
@@ -10527,7 +10609,71 @@
         <v>0</v>
       </c>
       <c r="J35" s="5">
-        <v>0</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>12</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>15</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E865934C-F743-494E-BCA1-19E057113293}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9824A4C7-DEC7-40ED-A2E9-C179DE8E6161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="357">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1408,6 +1408,20 @@
   </si>
   <si>
     <t>C_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.PORTABLE_STAND_list[stamping_press_type]+'.1'</t>
+  </si>
+  <si>
+    <t>'FRAME22.1'</t>
+  </si>
+  <si>
+    <t>PS_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS_ZX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,7 +1429,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1876,11 +1890,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="D293" sqref="D293"/>
+    <sheetView topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
@@ -1889,7 +1903,7 @@
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1909,7 +1923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1933,7 +1947,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1955,7 +1969,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1976,7 +1990,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1996,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2016,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2037,7 +2051,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2057,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2077,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2097,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2117,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2137,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2157,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2178,7 +2192,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2198,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2218,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2238,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2258,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2279,7 +2293,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2299,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2319,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2339,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2359,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2379,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2399,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2419,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2439,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2459,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2479,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2499,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2519,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2539,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2559,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2579,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2599,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2619,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2639,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2659,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2679,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2699,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2719,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2739,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2759,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2779,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2799,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2819,7 +2833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2839,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2859,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2879,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2899,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2919,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2939,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2959,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2979,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2999,7 +3013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3019,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3039,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3059,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3079,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3099,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3119,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3139,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3159,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3179,7 +3193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3199,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3219,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3239,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3259,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3279,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3299,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3319,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3339,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3359,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3379,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3399,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3419,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3439,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3459,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3479,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3499,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3519,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3539,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3559,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3579,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3599,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3619,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3639,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3659,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3679,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3699,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3719,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3739,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3759,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3779,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3799,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3819,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3839,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3859,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3879,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3899,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3919,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3939,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3959,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3979,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3999,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -4019,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -4039,7 +4053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -4059,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -4079,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -4099,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -4119,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -4139,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -4159,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -4179,7 +4193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -4199,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -4219,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -4239,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -4259,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -4279,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -4299,7 +4313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -4319,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4339,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -4359,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4379,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -4399,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4419,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -4439,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4459,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4479,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4499,7 +4513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4519,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4539,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4559,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -4579,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -4599,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4619,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -4639,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4659,7 +4673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4679,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4699,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4719,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4739,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4759,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4779,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4799,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4819,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4839,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4859,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4879,7 +4893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4899,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4919,7 +4933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4939,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4959,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4979,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4999,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -5019,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -5039,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -5059,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -5079,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -5099,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -5115,7 +5129,7 @@
       </c>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -5131,7 +5145,7 @@
       </c>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -5147,7 +5161,7 @@
       </c>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -5163,7 +5177,7 @@
       </c>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -5179,7 +5193,7 @@
       </c>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -5195,7 +5209,7 @@
       </c>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -5211,7 +5225,7 @@
       </c>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -5227,7 +5241,7 @@
       </c>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -5243,7 +5257,7 @@
       </c>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -5259,7 +5273,7 @@
       </c>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -5275,7 +5289,7 @@
       </c>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -5291,7 +5305,7 @@
       </c>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -5307,7 +5321,7 @@
       </c>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -5323,7 +5337,7 @@
       </c>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -5338,7 +5352,7 @@
       </c>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -5353,7 +5367,7 @@
       </c>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -5368,7 +5382,7 @@
       </c>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -5383,7 +5397,7 @@
       </c>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -5397,7 +5411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -5411,7 +5425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -5425,7 +5439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -5439,7 +5453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -5453,7 +5467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -5467,7 +5481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -5481,7 +5495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -5495,7 +5509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -5511,7 +5525,7 @@
       </c>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -5527,7 +5541,7 @@
       </c>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -5543,7 +5557,7 @@
       </c>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -5557,7 +5571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -5571,7 +5585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -5585,7 +5599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -5599,7 +5613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -5613,7 +5627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -5627,7 +5641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -5641,7 +5655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -5655,7 +5669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -5669,7 +5683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -5683,7 +5697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -5697,7 +5711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -5711,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -5725,7 +5739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -5739,7 +5753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -5753,7 +5767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -5767,7 +5781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -5781,7 +5795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -5795,7 +5809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -5809,7 +5823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -5823,7 +5837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -5837,7 +5851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -5851,7 +5865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -5865,7 +5879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -5879,7 +5893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -5893,7 +5907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -5907,7 +5921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -5921,7 +5935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>217</v>
       </c>
@@ -5935,7 +5949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -5949,7 +5963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -5963,7 +5977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -5977,7 +5991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>221</v>
       </c>
@@ -5991,7 +6005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>222</v>
       </c>
@@ -6005,7 +6019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>223</v>
       </c>
@@ -6019,7 +6033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>224</v>
       </c>
@@ -6033,7 +6047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -6047,7 +6061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>226</v>
       </c>
@@ -6061,7 +6075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>227</v>
       </c>
@@ -6075,7 +6089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>228</v>
       </c>
@@ -6089,7 +6103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>229</v>
       </c>
@@ -6103,7 +6117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>230</v>
       </c>
@@ -6117,7 +6131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>231</v>
       </c>
@@ -6131,7 +6145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>232</v>
       </c>
@@ -6145,7 +6159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>233</v>
       </c>
@@ -6159,7 +6173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>234</v>
       </c>
@@ -6173,7 +6187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>235</v>
       </c>
@@ -6187,7 +6201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>236</v>
       </c>
@@ -6201,7 +6215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>237</v>
       </c>
@@ -6215,7 +6229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>238</v>
       </c>
@@ -6229,7 +6243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>239</v>
       </c>
@@ -6243,7 +6257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>240</v>
       </c>
@@ -6257,7 +6271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>241</v>
       </c>
@@ -6271,7 +6285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>242</v>
       </c>
@@ -6285,7 +6299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>243</v>
       </c>
@@ -6299,7 +6313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>244</v>
       </c>
@@ -6313,7 +6327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>245</v>
       </c>
@@ -6327,7 +6341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>246</v>
       </c>
@@ -6341,7 +6355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>247</v>
       </c>
@@ -6355,7 +6369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>248</v>
       </c>
@@ -6369,7 +6383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>249</v>
       </c>
@@ -6383,7 +6397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>250</v>
       </c>
@@ -6397,7 +6411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>251</v>
       </c>
@@ -6411,7 +6425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>252</v>
       </c>
@@ -6425,7 +6439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>253</v>
       </c>
@@ -6439,7 +6453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>254</v>
       </c>
@@ -6453,7 +6467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>255</v>
       </c>
@@ -6467,7 +6481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>256</v>
       </c>
@@ -6481,7 +6495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>257</v>
       </c>
@@ -6495,7 +6509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>258</v>
       </c>
@@ -6509,7 +6523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>259</v>
       </c>
@@ -6523,7 +6537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>260</v>
       </c>
@@ -6537,7 +6551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>261</v>
       </c>
@@ -6551,7 +6565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>262</v>
       </c>
@@ -6565,7 +6579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>263</v>
       </c>
@@ -6579,7 +6593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>264</v>
       </c>
@@ -6593,7 +6607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>265</v>
       </c>
@@ -6607,7 +6621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>266</v>
       </c>
@@ -6621,7 +6635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>267</v>
       </c>
@@ -6635,7 +6649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>268</v>
       </c>
@@ -6649,7 +6663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>269</v>
       </c>
@@ -6663,7 +6677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>270</v>
       </c>
@@ -6677,7 +6691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>271</v>
       </c>
@@ -6691,7 +6705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>272</v>
       </c>
@@ -6705,7 +6719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>273</v>
       </c>
@@ -6719,7 +6733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>274</v>
       </c>
@@ -6733,7 +6747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>275</v>
       </c>
@@ -6747,7 +6761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>276</v>
       </c>
@@ -6761,7 +6775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>277</v>
       </c>
@@ -6775,7 +6789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>278</v>
       </c>
@@ -6789,7 +6803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>279</v>
       </c>
@@ -6803,7 +6817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>280</v>
       </c>
@@ -6817,7 +6831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>281</v>
       </c>
@@ -6831,7 +6845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>282</v>
       </c>
@@ -6845,7 +6859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>283</v>
       </c>
@@ -6859,7 +6873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>284</v>
       </c>
@@ -6873,7 +6887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>285</v>
       </c>
@@ -6887,7 +6901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>286</v>
       </c>
@@ -6901,7 +6915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>287</v>
       </c>
@@ -6915,7 +6929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>288</v>
       </c>
@@ -6929,7 +6943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>289</v>
       </c>
@@ -6943,7 +6957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>290</v>
       </c>
@@ -6957,7 +6971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>291</v>
       </c>
@@ -6971,7 +6985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>292</v>
       </c>
@@ -6985,7 +6999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>293</v>
       </c>
@@ -6999,7 +7013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>294</v>
       </c>
@@ -7013,7 +7027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>295</v>
       </c>
@@ -7027,37 +7041,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>296</v>
       </c>
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
+      <c r="B296" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="E296" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>297</v>
       </c>
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
+      <c r="B297" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="E297" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>298</v>
       </c>
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
+      <c r="B298" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="E298" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>299</v>
       </c>
@@ -7067,7 +7093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>300</v>
       </c>
@@ -7077,7 +7103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>301</v>
       </c>
@@ -7087,7 +7113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>302</v>
       </c>
@@ -7097,7 +7123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>303</v>
       </c>
@@ -7107,7 +7133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>304</v>
       </c>
@@ -7117,7 +7143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>305</v>
       </c>
@@ -7127,7 +7153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>306</v>
       </c>
@@ -7137,7 +7163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>307</v>
       </c>
@@ -7147,7 +7173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>308</v>
       </c>
@@ -7157,7 +7183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>309</v>
       </c>
@@ -7167,7 +7193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>310</v>
       </c>
@@ -7177,7 +7203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>311</v>
       </c>
@@ -7187,7 +7213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>312</v>
       </c>
@@ -7197,7 +7223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>313</v>
       </c>
@@ -7207,7 +7233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>314</v>
       </c>
@@ -7217,7 +7243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>315</v>
       </c>
@@ -7227,7 +7253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>316</v>
       </c>
@@ -7237,7 +7263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>317</v>
       </c>
@@ -7247,7 +7273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>318</v>
       </c>
@@ -7257,7 +7283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>319</v>
       </c>
@@ -7267,7 +7293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>320</v>
       </c>
@@ -7277,7 +7303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>321</v>
       </c>
@@ -7287,7 +7313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>322</v>
       </c>
@@ -7297,7 +7323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>323</v>
       </c>
@@ -7307,7 +7333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>324</v>
       </c>
@@ -7317,7 +7343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>325</v>
       </c>
@@ -7327,7 +7353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>326</v>
       </c>
@@ -7337,7 +7363,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>327</v>
       </c>
@@ -7347,7 +7373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>328</v>
       </c>
@@ -7357,7 +7383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>329</v>
       </c>
@@ -7367,7 +7393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>330</v>
       </c>
@@ -7377,7 +7403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>331</v>
       </c>
@@ -7387,7 +7413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>332</v>
       </c>
@@ -7397,7 +7423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>333</v>
       </c>
@@ -7407,7 +7433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>334</v>
       </c>
@@ -7417,7 +7443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>335</v>
       </c>
@@ -7427,7 +7453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>336</v>
       </c>
@@ -7437,7 +7463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>337</v>
       </c>
@@ -7447,7 +7473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>338</v>
       </c>
@@ -7457,7 +7483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>339</v>
       </c>
@@ -7467,7 +7493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>340</v>
       </c>
@@ -7477,7 +7503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>341</v>
       </c>
@@ -7487,7 +7513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>342</v>
       </c>
@@ -7497,7 +7523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>343</v>
       </c>
@@ -7507,7 +7533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>344</v>
       </c>
@@ -7517,7 +7543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>345</v>
       </c>
@@ -7527,7 +7553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>346</v>
       </c>
@@ -7537,7 +7563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>347</v>
       </c>
@@ -7547,7 +7573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>348</v>
       </c>
@@ -7557,7 +7583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>349</v>
       </c>
@@ -7567,7 +7593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>350</v>
       </c>
@@ -7577,7 +7603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>351</v>
       </c>
@@ -7587,7 +7613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>352</v>
       </c>
@@ -7597,7 +7623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>353</v>
       </c>
@@ -7607,7 +7633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>354</v>
       </c>
@@ -7617,7 +7643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>355</v>
       </c>
@@ -7627,7 +7653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>356</v>
       </c>
@@ -7637,7 +7663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>357</v>
       </c>
@@ -7647,7 +7673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>358</v>
       </c>
@@ -7657,7 +7683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>359</v>
       </c>
@@ -7667,7 +7693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>360</v>
       </c>
@@ -7677,7 +7703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>361</v>
       </c>
@@ -7687,7 +7713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>362</v>
       </c>
@@ -7697,7 +7723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>363</v>
       </c>
@@ -7707,7 +7733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>364</v>
       </c>
@@ -7717,7 +7743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>365</v>
       </c>
@@ -7727,7 +7753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>366</v>
       </c>
@@ -7737,7 +7763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>367</v>
       </c>
@@ -7747,7 +7773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>368</v>
       </c>
@@ -7757,7 +7783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>369</v>
       </c>
@@ -7767,7 +7793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>370</v>
       </c>
@@ -7777,7 +7803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>371</v>
       </c>
@@ -7787,7 +7813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>372</v>
       </c>
@@ -7797,7 +7823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>373</v>
       </c>
@@ -7807,7 +7833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>374</v>
       </c>
@@ -7817,7 +7843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>375</v>
       </c>
@@ -7827,7 +7853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>376</v>
       </c>
@@ -7837,7 +7863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>377</v>
       </c>
@@ -7847,7 +7873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>378</v>
       </c>
@@ -7857,7 +7883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>379</v>
       </c>
@@ -7867,7 +7893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>380</v>
       </c>
@@ -7877,7 +7903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>381</v>
       </c>
@@ -7887,7 +7913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>382</v>
       </c>
@@ -7897,7 +7923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>383</v>
       </c>
@@ -7907,7 +7933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>384</v>
       </c>
@@ -7917,7 +7943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>385</v>
       </c>
@@ -7927,7 +7953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>386</v>
       </c>
@@ -7937,7 +7963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>387</v>
       </c>
@@ -7947,7 +7973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>388</v>
       </c>
@@ -7957,7 +7983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>389</v>
       </c>
@@ -7967,7 +7993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>390</v>
       </c>
@@ -7977,7 +8003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>391</v>
       </c>
@@ -7987,7 +8013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>392</v>
       </c>
@@ -7997,7 +8023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>393</v>
       </c>
@@ -8007,7 +8033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>394</v>
       </c>
@@ -8017,7 +8043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>395</v>
       </c>
@@ -8027,7 +8053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>396</v>
       </c>
@@ -8037,7 +8063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>397</v>
       </c>
@@ -8047,7 +8073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>398</v>
       </c>
@@ -8057,7 +8083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>399</v>
       </c>
@@ -8067,7 +8093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>400</v>
       </c>
@@ -8077,7 +8103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>401</v>
       </c>
@@ -8087,7 +8113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>402</v>
       </c>
@@ -8097,7 +8123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>403</v>
       </c>
@@ -8107,7 +8133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>404</v>
       </c>
@@ -8117,7 +8143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>405</v>
       </c>
@@ -8127,7 +8153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>406</v>
       </c>
@@ -8137,7 +8163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>407</v>
       </c>
@@ -8147,7 +8173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>408</v>
       </c>
@@ -8157,7 +8183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>409</v>
       </c>
@@ -8167,7 +8193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>410</v>
       </c>
@@ -8177,7 +8203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>411</v>
       </c>
@@ -8187,7 +8213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>412</v>
       </c>
@@ -8197,7 +8223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>413</v>
       </c>
@@ -8207,7 +8233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>414</v>
       </c>
@@ -8217,7 +8243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>415</v>
       </c>
@@ -8227,7 +8253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>416</v>
       </c>
@@ -8237,7 +8263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>417</v>
       </c>
@@ -8247,7 +8273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>418</v>
       </c>
@@ -8257,7 +8283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>419</v>
       </c>
@@ -8267,7 +8293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>420</v>
       </c>
@@ -8277,7 +8303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>421</v>
       </c>
@@ -8287,7 +8313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>422</v>
       </c>
@@ -8297,7 +8323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1048576" spans="2:3">
+    <row r="1048576" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1048576" s="1"/>
       <c r="C1048576" s="1"/>
     </row>
@@ -8312,17 +8338,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5">
         <v>25</v>
@@ -8352,7 +8378,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>192</v>
       </c>
@@ -8384,7 +8410,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -8416,7 +8442,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -8448,7 +8474,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -8480,7 +8506,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -8512,7 +8538,7 @@
         <v>137.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -8544,7 +8570,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -8576,7 +8602,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -8608,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>52</v>
       </c>
@@ -8640,7 +8666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -8672,7 +8698,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -8704,7 +8730,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
@@ -8736,7 +8762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>61</v>
       </c>
@@ -8768,7 +8794,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>64</v>
       </c>
@@ -8800,7 +8826,7 @@
         <v>228.5</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
@@ -8832,7 +8858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>71</v>
       </c>
@@ -8864,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>73</v>
       </c>
@@ -8896,7 +8922,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
@@ -8928,7 +8954,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>83</v>
       </c>
@@ -8960,7 +8986,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -8992,7 +9018,7 @@
         <v>160.30000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>87</v>
       </c>
@@ -9024,7 +9050,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>91</v>
       </c>
@@ -9056,7 +9082,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
@@ -9088,7 +9114,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>99</v>
       </c>
@@ -9120,7 +9146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>238</v>
       </c>
@@ -9152,7 +9178,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>242</v>
       </c>
@@ -9184,7 +9210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>243</v>
       </c>
@@ -9216,7 +9242,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>250</v>
       </c>
@@ -9248,7 +9274,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>251</v>
       </c>
@@ -9280,7 +9306,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>252</v>
       </c>
@@ -9312,7 +9338,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>253</v>
       </c>
@@ -9344,7 +9370,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>254</v>
       </c>
@@ -9376,7 +9402,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>263</v>
       </c>
@@ -9408,7 +9434,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>280</v>
       </c>
@@ -9440,7 +9466,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>350</v>
       </c>
@@ -9481,15 +9507,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5">
         <v>25</v>
@@ -9519,7 +9545,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>289</v>
       </c>
@@ -9551,7 +9577,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>318</v>
       </c>
@@ -9583,7 +9609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>317</v>
       </c>
@@ -9615,7 +9641,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>319</v>
       </c>
@@ -9647,7 +9673,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>298</v>
       </c>
@@ -9683,7 +9709,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>297</v>
       </c>
@@ -9715,7 +9741,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>299</v>
       </c>
@@ -9747,7 +9773,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>301</v>
       </c>
@@ -9779,7 +9805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>302</v>
       </c>
@@ -9811,7 +9837,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>303</v>
       </c>
@@ -9843,7 +9869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>306</v>
       </c>
@@ -9875,7 +9901,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>307</v>
       </c>
@@ -9907,7 +9933,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>308</v>
       </c>
@@ -9939,7 +9965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>309</v>
       </c>
@@ -9971,7 +9997,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>312</v>
       </c>
@@ -10003,7 +10029,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>311</v>
       </c>
@@ -10035,7 +10061,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>313</v>
       </c>
@@ -10067,7 +10093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>324</v>
       </c>
@@ -10096,10 +10122,14 @@
         <v>0</v>
       </c>
       <c r="J19" s="5">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>102</v>
+      </c>
+      <c r="K19">
+        <f>182-74</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>325</v>
       </c>
@@ -10128,10 +10158,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>1527</v>
+      </c>
+      <c r="K20">
+        <f>297+1230</f>
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>326</v>
       </c>
@@ -10160,10 +10194,14 @@
         <v>0</v>
       </c>
       <c r="J21" s="5">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>316</v>
+      </c>
+      <c r="K21">
+        <f>241+80</f>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>320</v>
       </c>
@@ -10195,7 +10233,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>321</v>
       </c>
@@ -10227,7 +10265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>322</v>
       </c>
@@ -10259,7 +10297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>328</v>
       </c>
@@ -10291,7 +10329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>329</v>
       </c>
@@ -10323,7 +10361,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>330</v>
       </c>
@@ -10355,7 +10393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>347</v>
       </c>
@@ -10387,7 +10425,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>337</v>
       </c>
@@ -10419,7 +10457,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>338</v>
       </c>
@@ -10451,7 +10489,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>339</v>
       </c>
@@ -10483,7 +10521,7 @@
         <v>297.39999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>340</v>
       </c>
@@ -10516,7 +10554,7 @@
       </c>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>334</v>
       </c>
@@ -10548,7 +10586,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>343</v>
       </c>
@@ -10568,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <v>1570</v>
+        <v>1877</v>
       </c>
       <c r="H34" s="5">
         <v>0</v>
@@ -10577,10 +10615,14 @@
         <v>0</v>
       </c>
       <c r="J34" s="5">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>1907</v>
+      </c>
+      <c r="L34">
+        <f>1570+337</f>
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>344</v>
       </c>
@@ -10600,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="5">
-        <v>20</v>
+        <v>920</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -10609,10 +10651,10 @@
         <v>0</v>
       </c>
       <c r="J35" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>351</v>
       </c>
@@ -10644,7 +10686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>352</v>
       </c>
@@ -10674,6 +10716,70 @@
       </c>
       <c r="J37" s="5">
         <v>22.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9824A4C7-DEC7-40ED-A2E9-C179DE8E6161}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84857F-35E1-4DB4-A225-E6946D9C8845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="365">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1422,6 +1422,34 @@
   </si>
   <si>
     <t>PS_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OB_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OB_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.OPERATION_BOX_list_normal[stamping_press_type] + '.1'</t>
+  </si>
+  <si>
+    <t>S_i.PORTABLE_STAND_list[stamping_press_type] + '.1'</t>
+  </si>
+  <si>
+    <t>S_i.BEARING_HOUSING_list[stamping_press_type] + '.1'</t>
+  </si>
+  <si>
+    <t>FRAME30.1</t>
+  </si>
+  <si>
+    <t>BH_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PANEL_YZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1890,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="D298" sqref="D298"/>
+    <sheetView topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="D306" sqref="D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7087,8 +7115,12 @@
       <c r="A299" s="1">
         <v>299</v>
       </c>
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
+      <c r="B299" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="E299" s="1" t="s">
         <v>5</v>
       </c>
@@ -7097,8 +7129,12 @@
       <c r="A300" s="1">
         <v>300</v>
       </c>
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
+      <c r="B300" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="E300" s="1" t="s">
         <v>6</v>
       </c>
@@ -7107,8 +7143,12 @@
       <c r="A301" s="1">
         <v>301</v>
       </c>
-      <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
+      <c r="B301" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="E301" s="1" t="s">
         <v>5</v>
       </c>
@@ -7117,8 +7157,12 @@
       <c r="A302" s="1">
         <v>302</v>
       </c>
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
+      <c r="B302" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="E302" s="1" t="s">
         <v>6</v>
       </c>
@@ -7127,8 +7171,12 @@
       <c r="A303" s="1">
         <v>303</v>
       </c>
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
+      <c r="B303" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="E303" s="1" t="s">
         <v>5</v>
       </c>
@@ -7137,8 +7185,12 @@
       <c r="A304" s="1">
         <v>304</v>
       </c>
-      <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
+      <c r="B304" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="E304" s="1" t="s">
         <v>6</v>
       </c>
@@ -9507,10 +9559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10651,7 +10703,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="5">
-        <v>920</v>
+        <v>1267.5</v>
+      </c>
+      <c r="L35">
+        <f>920+337.5</f>
+        <v>1257.5</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -10782,9 +10838,145 @@
         <v>65</v>
       </c>
     </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>150.5</v>
+      </c>
+      <c r="L40">
+        <f>178-27.5</f>
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5">
+        <v>595.20000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0</v>
+      </c>
+      <c r="J42" s="5">
+        <v>78.5</v>
+      </c>
+      <c r="L42">
+        <f>49+29.5</f>
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0</v>
+      </c>
+      <c r="J43" s="5">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84857F-35E1-4DB4-A225-E6946D9C8845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D37B40-8269-4533-8E93-D3B91183E5B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="392">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1450,6 +1450,107 @@
   </si>
   <si>
     <t>PANEL_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_AL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate.1</t>
+  </si>
+  <si>
+    <t>FRAME22.1</t>
+  </si>
+  <si>
+    <t>S_i.SLIDE_list_normal[stamping_press_type] + '.1'</t>
+  </si>
+  <si>
+    <t>Ass_AM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.BALANCER_list[stamping_press_type] + '.1'</t>
+  </si>
+  <si>
+    <t>'FRAME1.1'</t>
+  </si>
+  <si>
+    <t>B2_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.BALANCER_list[stamping_press_type] + '.2'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ass_AN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.OIL_LEVEL_GAUGE_list_SLIDE[stamping_press_type] + '.1'</t>
+  </si>
+  <si>
+    <t>OLS_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLS_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLS_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.OIL_LEVEL_GAUGE_list_SLIDE[stamping_press_type] + '.2'</t>
+  </si>
+  <si>
+    <t>OLS2_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLS2_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLS2_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_ZX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1457,7 +1558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1484,6 +1585,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -1562,7 +1670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1601,6 +1709,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1918,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="D306" sqref="D306"/>
+    <sheetView topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="D320" sqref="D320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7199,8 +7310,12 @@
       <c r="A305" s="1">
         <v>305</v>
       </c>
-      <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
+      <c r="B305" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="E305" s="1" t="s">
         <v>5</v>
       </c>
@@ -7209,8 +7324,12 @@
       <c r="A306" s="1">
         <v>306</v>
       </c>
-      <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
+      <c r="B306" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="E306" s="1" t="s">
         <v>6</v>
       </c>
@@ -7219,8 +7338,12 @@
       <c r="A307" s="1">
         <v>307</v>
       </c>
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
+      <c r="B307" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="E307" s="1" t="s">
         <v>5</v>
       </c>
@@ -7229,8 +7352,12 @@
       <c r="A308" s="1">
         <v>308</v>
       </c>
-      <c r="B308" s="1"/>
-      <c r="C308" s="1"/>
+      <c r="B308" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="E308" s="1" t="s">
         <v>6</v>
       </c>
@@ -7239,8 +7366,12 @@
       <c r="A309" s="1">
         <v>309</v>
       </c>
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
+      <c r="B309" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="E309" s="1" t="s">
         <v>5</v>
       </c>
@@ -7249,8 +7380,12 @@
       <c r="A310" s="1">
         <v>310</v>
       </c>
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
+      <c r="B310" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="E310" s="1" t="s">
         <v>6</v>
       </c>
@@ -7259,8 +7394,12 @@
       <c r="A311" s="1">
         <v>311</v>
       </c>
-      <c r="B311" s="1"/>
-      <c r="C311" s="1"/>
+      <c r="B311" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="E311" s="1" t="s">
         <v>5</v>
       </c>
@@ -7269,8 +7408,12 @@
       <c r="A312" s="1">
         <v>312</v>
       </c>
-      <c r="B312" s="1"/>
-      <c r="C312" s="1"/>
+      <c r="B312" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="E312" s="1" t="s">
         <v>6</v>
       </c>
@@ -7279,8 +7422,12 @@
       <c r="A313" s="1">
         <v>313</v>
       </c>
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
+      <c r="B313" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="E313" s="1" t="s">
         <v>5</v>
       </c>
@@ -7289,8 +7436,12 @@
       <c r="A314" s="1">
         <v>314</v>
       </c>
-      <c r="B314" s="1"/>
-      <c r="C314" s="1"/>
+      <c r="B314" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="E314" s="1" t="s">
         <v>6</v>
       </c>
@@ -7299,8 +7450,12 @@
       <c r="A315" s="1">
         <v>315</v>
       </c>
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
+      <c r="B315" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="E315" s="1" t="s">
         <v>5</v>
       </c>
@@ -7309,8 +7464,13 @@
       <c r="A316" s="1">
         <v>316</v>
       </c>
-      <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
+      <c r="B316" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D316" s="13"/>
       <c r="E316" s="1" t="s">
         <v>6</v>
       </c>
@@ -7319,8 +7479,12 @@
       <c r="A317" s="1">
         <v>317</v>
       </c>
-      <c r="B317" s="1"/>
-      <c r="C317" s="1"/>
+      <c r="B317" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="E317" s="1" t="s">
         <v>5</v>
       </c>
@@ -7329,8 +7493,12 @@
       <c r="A318" s="1">
         <v>318</v>
       </c>
-      <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
+      <c r="B318" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="E318" s="1" t="s">
         <v>6</v>
       </c>
@@ -7339,8 +7507,12 @@
       <c r="A319" s="1">
         <v>319</v>
       </c>
-      <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
+      <c r="B319" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="E319" s="1" t="s">
         <v>5</v>
       </c>
@@ -7349,8 +7521,12 @@
       <c r="A320" s="1">
         <v>320</v>
       </c>
-      <c r="B320" s="1"/>
-      <c r="C320" s="1"/>
+      <c r="B320" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="E320" s="1" t="s">
         <v>6</v>
       </c>
@@ -7359,8 +7535,12 @@
       <c r="A321" s="1">
         <v>321</v>
       </c>
-      <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
+      <c r="B321" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="E321" s="1" t="s">
         <v>5</v>
       </c>
@@ -7369,8 +7549,12 @@
       <c r="A322" s="1">
         <v>322</v>
       </c>
-      <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
+      <c r="B322" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="E322" s="1" t="s">
         <v>6</v>
       </c>
@@ -8382,16 +8566,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -8866,7 +9050,7 @@
         <v>161</v>
       </c>
       <c r="G15" s="5">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H15" s="5">
         <v>221</v>
@@ -9506,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H35" s="5">
         <v>0</v>
@@ -9550,19 +9734,118 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B37" s="5">
+        <v>143</v>
+      </c>
+      <c r="C37" s="5">
+        <v>145</v>
+      </c>
+      <c r="D37" s="5">
+        <v>165</v>
+      </c>
+      <c r="E37" s="5">
+        <v>165</v>
+      </c>
+      <c r="F37" s="5">
+        <v>220</v>
+      </c>
+      <c r="G37" s="5">
+        <v>260</v>
+      </c>
+      <c r="H37" s="5">
+        <v>280</v>
+      </c>
+      <c r="I37" s="5">
+        <v>304</v>
+      </c>
+      <c r="J37" s="5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>180</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>106.5</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10658,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <v>1877</v>
+        <v>1570</v>
       </c>
       <c r="H34" s="5">
         <v>0</v>
@@ -10794,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H38" s="5">
         <v>0</v>
@@ -10826,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="5">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H39" s="5">
         <v>0</v>
@@ -10858,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="5">
-        <v>0</v>
+        <v>151.21199999999999</v>
       </c>
       <c r="H40" s="5">
         <v>0</v>
@@ -10894,7 +11177,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="5">
-        <v>0</v>
+        <v>512.70000000000005</v>
       </c>
       <c r="H41" s="5">
         <v>0</v>
@@ -10926,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="5">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="H42" s="5">
         <v>0</v>
@@ -10962,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="5">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
@@ -10972,6 +11255,526 @@
       </c>
       <c r="J43" s="5">
         <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>39</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <v>54</v>
+      </c>
+      <c r="L44">
+        <f>72-33</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>70</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>105</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5">
+        <v>159.5</v>
+      </c>
+      <c r="L46">
+        <f>145+14.5</f>
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
+        <v>690</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0</v>
+      </c>
+      <c r="J47" s="5">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
+        <v>497</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
+        <v>304</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5">
+        <v>353</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0</v>
+      </c>
+      <c r="J52" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5">
+        <v>181</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0</v>
+      </c>
+      <c r="J53" s="5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <v>67</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <v>40</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
+      <c r="G57" s="5">
+        <v>148</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0</v>
+      </c>
+      <c r="G58" s="5">
+        <v>113</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5">
+        <v>550.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <v>320</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D37B40-8269-4533-8E93-D3B91183E5B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C08E06-3403-4D08-BFB8-83522119909B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="404">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1552,6 +1552,46 @@
   <si>
     <t>M_ZX</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.MOTOR_BRACKET_HP_list[stamping_press_type]+'.1'</t>
+  </si>
+  <si>
+    <t>'FRAME20.1'</t>
+  </si>
+  <si>
+    <t>S_i.MOTOR_list[stamping_press_type]+'.1'</t>
+  </si>
+  <si>
+    <t>EW_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EW_YZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EF_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'MZW8702_WIRE_CASING.1'</t>
+  </si>
+  <si>
+    <t>S_i.ELECTRIC_BOX_list_normal[stamping_press_type] + '.1'</t>
+  </si>
+  <si>
+    <t>'43N6603_WIRE_CASING.1.1'</t>
+  </si>
+  <si>
+    <t>EE_ZX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'43N6604_WIRE_CASING.1'</t>
+  </si>
+  <si>
+    <t>'FRAME_WIRE_CASING.1'</t>
   </si>
 </sst>
 </file>
@@ -2029,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="D320" sqref="D320"/>
+    <sheetView topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="D338" sqref="D338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -7563,8 +7603,12 @@
       <c r="A323" s="1">
         <v>323</v>
       </c>
-      <c r="B323" s="1"/>
-      <c r="C323" s="1"/>
+      <c r="B323" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="E323" s="1" t="s">
         <v>5</v>
       </c>
@@ -7573,8 +7617,12 @@
       <c r="A324" s="1">
         <v>324</v>
       </c>
-      <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
+      <c r="B324" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="E324" s="1" t="s">
         <v>6</v>
       </c>
@@ -7583,8 +7631,12 @@
       <c r="A325" s="1">
         <v>325</v>
       </c>
-      <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
+      <c r="B325" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="E325" s="1" t="s">
         <v>5</v>
       </c>
@@ -7593,8 +7645,12 @@
       <c r="A326" s="1">
         <v>326</v>
       </c>
-      <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
+      <c r="B326" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="E326" s="1" t="s">
         <v>6</v>
       </c>
@@ -7603,8 +7659,12 @@
       <c r="A327" s="1">
         <v>327</v>
       </c>
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
+      <c r="B327" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="E327" s="1" t="s">
         <v>5</v>
       </c>
@@ -7613,8 +7673,12 @@
       <c r="A328" s="1">
         <v>328</v>
       </c>
-      <c r="B328" s="1"/>
-      <c r="C328" s="1"/>
+      <c r="B328" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="E328" s="1" t="s">
         <v>6</v>
       </c>
@@ -7623,8 +7687,12 @@
       <c r="A329" s="1">
         <v>329</v>
       </c>
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
+      <c r="B329" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="E329" s="1" t="s">
         <v>5</v>
       </c>
@@ -7633,8 +7701,12 @@
       <c r="A330" s="1">
         <v>330</v>
       </c>
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
+      <c r="B330" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="E330" s="1" t="s">
         <v>6</v>
       </c>
@@ -7643,8 +7715,12 @@
       <c r="A331" s="1">
         <v>331</v>
       </c>
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
+      <c r="B331" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="E331" s="1" t="s">
         <v>5</v>
       </c>
@@ -7653,8 +7729,12 @@
       <c r="A332" s="1">
         <v>332</v>
       </c>
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
+      <c r="B332" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="E332" s="1" t="s">
         <v>6</v>
       </c>
@@ -7663,8 +7743,12 @@
       <c r="A333" s="1">
         <v>333</v>
       </c>
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
+      <c r="B333" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="E333" s="1" t="s">
         <v>5</v>
       </c>
@@ -7673,8 +7757,12 @@
       <c r="A334" s="1">
         <v>334</v>
       </c>
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
+      <c r="B334" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="E334" s="1" t="s">
         <v>6</v>
       </c>
@@ -7683,8 +7771,12 @@
       <c r="A335" s="1">
         <v>335</v>
       </c>
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
+      <c r="B335" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="E335" s="1" t="s">
         <v>5</v>
       </c>
@@ -7693,8 +7785,12 @@
       <c r="A336" s="1">
         <v>336</v>
       </c>
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
+      <c r="B336" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="E336" s="1" t="s">
         <v>6</v>
       </c>
@@ -7703,8 +7799,12 @@
       <c r="A337" s="1">
         <v>337</v>
       </c>
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
+      <c r="B337" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="E337" s="1" t="s">
         <v>5</v>
       </c>
@@ -7713,8 +7813,12 @@
       <c r="A338" s="1">
         <v>338</v>
       </c>
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
+      <c r="B338" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="E338" s="1" t="s">
         <v>6</v>
       </c>
@@ -7723,8 +7827,12 @@
       <c r="A339" s="1">
         <v>339</v>
       </c>
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
+      <c r="B339" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="E339" s="1" t="s">
         <v>5</v>
       </c>
@@ -7733,8 +7841,12 @@
       <c r="A340" s="1">
         <v>340</v>
       </c>
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
+      <c r="B340" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="E340" s="1" t="s">
         <v>6</v>
       </c>
@@ -8574,8 +8686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -9050,7 +9162,7 @@
         <v>161</v>
       </c>
       <c r="G15" s="5">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H15" s="5">
         <v>221</v>
@@ -9842,10 +9954,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -11013,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H36" s="5">
         <v>0</v>
@@ -11775,6 +11887,134 @@
       </c>
       <c r="J59" s="5">
         <v>480</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
+      <c r="G60" s="5">
+        <v>900</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>300</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B62" s="5">
+        <v>0</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B63" s="5">
+        <v>0</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0</v>
+      </c>
+      <c r="G63" s="5">
+        <v>42.5</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C08E06-3403-4D08-BFB8-83522119909B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F456F67-486B-4694-AD6E-68D23C7D0402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -9956,8 +9956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="Q55" sqref="Q55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="5">
-        <v>0</v>
+        <v>900</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -11950,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="5">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -11982,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="5">
-        <v>0</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="5">
-        <v>0</v>
+        <v>42.5</v>
       </c>
     </row>
   </sheetData>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F456F67-486B-4694-AD6E-68D23C7D0402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89752F97-3A2F-481F-A277-6222573B173E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="412">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1592,6 +1592,38 @@
   </si>
   <si>
     <t>'FRAME_WIRE_CASING.1'</t>
+  </si>
+  <si>
+    <t>防震腳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME10.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME10.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME35.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME35.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG_E_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG_U_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG_S_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2069,8 +2101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="D338" sqref="D338"/>
+    <sheetView topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="D335" sqref="D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -6671,7 +6703,7 @@
         <v>293</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -6685,7 +6717,7 @@
         <v>305</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -6699,7 +6731,7 @@
         <v>305</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -6713,7 +6745,7 @@
         <v>305</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -6755,7 +6787,7 @@
         <v>310</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -6769,7 +6801,7 @@
         <v>315</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -6783,7 +6815,7 @@
         <v>315</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -6797,7 +6829,7 @@
         <v>315</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -6839,7 +6871,7 @@
         <v>315</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -6853,7 +6885,7 @@
         <v>314</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -6867,7 +6899,7 @@
         <v>314</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -6881,7 +6913,7 @@
         <v>314</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -6923,7 +6955,7 @@
         <v>323</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -6937,7 +6969,7 @@
         <v>327</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -6951,7 +6983,7 @@
         <v>327</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -6965,7 +6997,7 @@
         <v>327</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -7007,7 +7039,7 @@
         <v>333</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -7021,7 +7053,7 @@
         <v>333</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -7035,7 +7067,7 @@
         <v>333</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -7049,7 +7081,7 @@
         <v>333</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -7091,7 +7123,7 @@
         <v>336</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -7105,7 +7137,7 @@
         <v>333</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -7119,7 +7151,7 @@
         <v>333</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -7133,7 +7165,7 @@
         <v>333</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -7175,7 +7207,7 @@
         <v>345</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -7189,7 +7221,7 @@
         <v>349</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -7203,7 +7235,7 @@
         <v>349</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -7217,7 +7249,7 @@
         <v>349</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -7259,7 +7291,7 @@
         <v>354</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -7273,7 +7305,7 @@
         <v>360</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -7287,7 +7319,7 @@
         <v>360</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -7301,7 +7333,7 @@
         <v>360</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -7343,7 +7375,7 @@
         <v>362</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -7357,7 +7389,7 @@
         <v>367</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -7371,7 +7403,7 @@
         <v>367</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -7385,7 +7417,7 @@
         <v>367</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -7427,7 +7459,7 @@
         <v>366</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -7441,7 +7473,7 @@
         <v>374</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -7455,7 +7487,7 @@
         <v>374</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -7469,7 +7501,7 @@
         <v>374</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -7512,7 +7544,7 @@
       </c>
       <c r="D316" s="13"/>
       <c r="E316" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -7526,7 +7558,7 @@
         <v>368</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -7540,7 +7572,7 @@
         <v>368</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -7554,7 +7586,7 @@
         <v>368</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -7596,7 +7628,7 @@
         <v>368</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -7610,7 +7642,7 @@
         <v>393</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -7624,7 +7656,7 @@
         <v>393</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -7638,7 +7670,7 @@
         <v>393</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -7680,7 +7712,7 @@
         <v>392</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -7694,7 +7726,7 @@
         <v>399</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -7708,7 +7740,7 @@
         <v>399</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -7722,7 +7754,7 @@
         <v>399</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -7764,7 +7796,7 @@
         <v>310</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -7778,7 +7810,7 @@
         <v>400</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -7792,7 +7824,7 @@
         <v>400</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -7806,7 +7838,7 @@
         <v>400</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -7848,45 +7880,61 @@
         <v>310</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>341</v>
       </c>
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
+      <c r="B341" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="E341" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>342</v>
       </c>
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
+      <c r="B342" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="E342" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>343</v>
       </c>
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
+      <c r="B343" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="E343" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>344</v>
       </c>
-      <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
+      <c r="B344" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="E344" s="1" t="s">
         <v>6</v>
       </c>
@@ -7895,8 +7943,12 @@
       <c r="A345" s="1">
         <v>345</v>
       </c>
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
+      <c r="B345" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="E345" s="1" t="s">
         <v>5</v>
       </c>
@@ -7905,48 +7957,68 @@
       <c r="A346" s="1">
         <v>346</v>
       </c>
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
+      <c r="B346" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="E346" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>347</v>
       </c>
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
+      <c r="B347" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="E347" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>348</v>
       </c>
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
+      <c r="B348" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="E348" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>349</v>
       </c>
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
+      <c r="B349" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="E349" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>350</v>
       </c>
-      <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
+      <c r="B350" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="E350" s="1" t="s">
         <v>6</v>
       </c>
@@ -7955,8 +8027,12 @@
       <c r="A351" s="1">
         <v>351</v>
       </c>
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
+      <c r="B351" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="E351" s="1" t="s">
         <v>5</v>
       </c>
@@ -7965,10 +8041,14 @@
       <c r="A352" s="1">
         <v>352</v>
       </c>
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
+      <c r="B352" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="E352" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -7978,7 +8058,7 @@
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="E353" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -7988,7 +8068,7 @@
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="E354" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -7998,7 +8078,7 @@
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="E355" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -8028,7 +8108,7 @@
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="E358" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -8038,7 +8118,7 @@
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="E359" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -8048,7 +8128,7 @@
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="E360" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -8058,7 +8138,7 @@
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="E361" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -8088,7 +8168,7 @@
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="E364" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -8098,7 +8178,7 @@
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="E365" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -8108,7 +8188,7 @@
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="E366" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -8118,7 +8198,7 @@
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="E367" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -8148,7 +8228,7 @@
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="E370" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -8158,7 +8238,7 @@
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="E371" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -8168,7 +8248,7 @@
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="E372" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -8178,7 +8258,7 @@
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="E373" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -8208,7 +8288,7 @@
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="E376" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -8218,7 +8298,7 @@
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="E377" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -8228,7 +8308,7 @@
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="E378" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -8238,7 +8318,7 @@
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="E379" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -8268,7 +8348,7 @@
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="E382" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -8278,7 +8358,7 @@
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="E383" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -8288,7 +8368,7 @@
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="E384" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
@@ -8298,7 +8378,7 @@
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="E385" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -8328,7 +8408,7 @@
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="E388" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
@@ -8338,7 +8418,7 @@
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="E389" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
@@ -8348,7 +8428,7 @@
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="E390" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
@@ -8358,7 +8438,7 @@
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="E391" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -8388,7 +8468,7 @@
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="E394" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
@@ -8398,7 +8478,7 @@
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="E395" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -8408,7 +8488,7 @@
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="E396" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -8418,7 +8498,7 @@
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="E397" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
@@ -8448,7 +8528,7 @@
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="E400" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -8458,7 +8538,7 @@
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="E401" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -8468,7 +8548,7 @@
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="E402" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -8478,7 +8558,7 @@
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="E403" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -8508,7 +8588,7 @@
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="E406" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
@@ -8518,7 +8598,7 @@
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="E407" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
@@ -8528,7 +8608,7 @@
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="E408" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
@@ -8538,7 +8618,7 @@
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="E409" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -8568,7 +8648,7 @@
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="E412" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -8578,7 +8658,7 @@
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="E413" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
@@ -8588,7 +8668,7 @@
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="E414" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -8598,7 +8678,7 @@
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="E415" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -8628,7 +8708,7 @@
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="E418" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
@@ -8638,7 +8718,7 @@
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="E419" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
@@ -8648,7 +8728,7 @@
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="E420" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -8658,7 +8738,7 @@
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="E421" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -9954,10 +10034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
-  <dimension ref="A1:L63"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="S60" sqref="S60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10021,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>160</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -12015,6 +12095,102 @@
       </c>
       <c r="J63" s="5">
         <v>42.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B64" s="5">
+        <v>0</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <v>79</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
+      <c r="G65" s="5">
+        <v>98.424999999999997</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <v>130.17500000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="5">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
+        <v>55</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89752F97-3A2F-481F-A277-6222573B173E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A405C9-E8C3-4748-9071-C1754C054F54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="414">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1623,6 +1623,13 @@
   </si>
   <si>
     <t>AVG_S_XY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.INVERTER_D_S_list[stamping_press_type] + '.1'</t>
+  </si>
+  <si>
+    <t>FRAME2.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2101,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="D335" sqref="D335"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="D343" sqref="D343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -8055,8 +8062,12 @@
       <c r="A353" s="1">
         <v>353</v>
       </c>
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
+      <c r="B353" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="E353" s="1" t="s">
         <v>6</v>
       </c>
@@ -8065,8 +8076,12 @@
       <c r="A354" s="1">
         <v>354</v>
       </c>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
+      <c r="B354" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="E354" s="1" t="s">
         <v>5</v>
       </c>
@@ -8075,8 +8090,12 @@
       <c r="A355" s="1">
         <v>355</v>
       </c>
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
+      <c r="B355" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="E355" s="1" t="s">
         <v>7</v>
       </c>
@@ -10036,7 +10055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A405C9-E8C3-4748-9071-C1754C054F54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41D109E-DE96-4F34-8B68-B800DD98DE42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -2108,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="D343" sqref="D343"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="D363" sqref="D363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10055,8 +10055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41D109E-DE96-4F34-8B68-B800DD98DE42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5B0C58-A103-4C0B-95F9-C836CE6C0A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -2108,7 +2108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+    <sheetView topLeftCell="A346" workbookViewId="0">
       <selection activeCell="D363" sqref="D363"/>
     </sheetView>
   </sheetViews>
@@ -8785,8 +8785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10055,8 +10055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5B0C58-A103-4C0B-95F9-C836CE6C0A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CB9964-8967-4094-BCA3-A6F656B446E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -1399,10 +1399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ass_AK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C_YZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1630,6 +1626,10 @@
   </si>
   <si>
     <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS_XY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7264,10 +7264,10 @@
         <v>296</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>6</v>
@@ -7278,10 +7278,10 @@
         <v>297</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>5</v>
@@ -7292,10 +7292,10 @@
         <v>298</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>7</v>
@@ -7306,10 +7306,10 @@
         <v>299</v>
       </c>
       <c r="B299" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>6</v>
@@ -7320,10 +7320,10 @@
         <v>300</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>5</v>
@@ -7334,10 +7334,10 @@
         <v>301</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>7</v>
@@ -7348,10 +7348,10 @@
         <v>302</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>6</v>
@@ -7362,10 +7362,10 @@
         <v>303</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>5</v>
@@ -7376,10 +7376,10 @@
         <v>304</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>7</v>
@@ -7390,10 +7390,10 @@
         <v>305</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>6</v>
@@ -7404,10 +7404,10 @@
         <v>306</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>5</v>
@@ -7418,10 +7418,10 @@
         <v>307</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>7</v>
@@ -7432,10 +7432,10 @@
         <v>308</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>6</v>
@@ -7446,10 +7446,10 @@
         <v>309</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>5</v>
@@ -7460,10 +7460,10 @@
         <v>310</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>7</v>
@@ -7474,10 +7474,10 @@
         <v>311</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>6</v>
@@ -7488,10 +7488,10 @@
         <v>312</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>5</v>
@@ -7502,10 +7502,10 @@
         <v>313</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>7</v>
@@ -7516,10 +7516,10 @@
         <v>314</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>6</v>
@@ -7530,10 +7530,10 @@
         <v>315</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>5</v>
@@ -7544,10 +7544,10 @@
         <v>316</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D316" s="13"/>
       <c r="E316" s="1" t="s">
@@ -7559,10 +7559,10 @@
         <v>317</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>6</v>
@@ -7573,10 +7573,10 @@
         <v>318</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>5</v>
@@ -7587,10 +7587,10 @@
         <v>319</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>7</v>
@@ -7601,10 +7601,10 @@
         <v>320</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>6</v>
@@ -7615,10 +7615,10 @@
         <v>321</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>5</v>
@@ -7629,10 +7629,10 @@
         <v>322</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>7</v>
@@ -7643,10 +7643,10 @@
         <v>323</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>6</v>
@@ -7657,10 +7657,10 @@
         <v>324</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>5</v>
@@ -7671,10 +7671,10 @@
         <v>325</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>7</v>
@@ -7685,10 +7685,10 @@
         <v>326</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>6</v>
@@ -7699,10 +7699,10 @@
         <v>327</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>5</v>
@@ -7713,10 +7713,10 @@
         <v>328</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>7</v>
@@ -7727,10 +7727,10 @@
         <v>329</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>6</v>
@@ -7741,10 +7741,10 @@
         <v>330</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>5</v>
@@ -7755,10 +7755,10 @@
         <v>331</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>7</v>
@@ -7769,7 +7769,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>310</v>
@@ -7783,7 +7783,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>310</v>
@@ -7797,7 +7797,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>310</v>
@@ -7811,10 +7811,10 @@
         <v>335</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>6</v>
@@ -7825,10 +7825,10 @@
         <v>336</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>5</v>
@@ -7839,10 +7839,10 @@
         <v>337</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>7</v>
@@ -7853,7 +7853,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>310</v>
@@ -7867,7 +7867,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>310</v>
@@ -7881,7 +7881,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>310</v>
@@ -7895,10 +7895,10 @@
         <v>341</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>6</v>
@@ -7909,10 +7909,10 @@
         <v>342</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>5</v>
@@ -7923,10 +7923,10 @@
         <v>343</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>7</v>
@@ -7937,10 +7937,10 @@
         <v>344</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>6</v>
@@ -7951,10 +7951,10 @@
         <v>345</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>5</v>
@@ -7965,10 +7965,10 @@
         <v>346</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>7</v>
@@ -7979,10 +7979,10 @@
         <v>347</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>6</v>
@@ -7993,10 +7993,10 @@
         <v>348</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>5</v>
@@ -8007,10 +8007,10 @@
         <v>349</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>7</v>
@@ -8021,10 +8021,10 @@
         <v>350</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>6</v>
@@ -8035,10 +8035,10 @@
         <v>351</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>5</v>
@@ -8049,10 +8049,10 @@
         <v>352</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>7</v>
@@ -8063,10 +8063,10 @@
         <v>353</v>
       </c>
       <c r="B353" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>6</v>
@@ -8077,10 +8077,10 @@
         <v>354</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>5</v>
@@ -8091,10 +8091,10 @@
         <v>355</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>413</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>7</v>
@@ -8785,8 +8785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -9915,90 +9915,90 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B36" s="5">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="C36" s="5">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D36" s="5">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="E36" s="5">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F36" s="5">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="G36" s="5">
-        <v>700</v>
+        <v>260</v>
       </c>
       <c r="H36" s="5">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="I36" s="5">
-        <v>0</v>
+        <v>304</v>
       </c>
       <c r="J36" s="5">
-        <v>1000</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B37" s="5">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="C37" s="5">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="D37" s="5">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="E37" s="5">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="F37" s="5">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G37" s="5">
+        <v>180</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
         <v>260</v>
       </c>
-      <c r="H37" s="5">
-        <v>280</v>
-      </c>
-      <c r="I37" s="5">
-        <v>304</v>
-      </c>
-      <c r="J37" s="5">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
-        <v>180</v>
-      </c>
       <c r="H38" s="5">
         <v>0</v>
       </c>
@@ -10006,39 +10006,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="B39" s="5">
-        <v>0</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0</v>
-      </c>
-      <c r="D39" s="5">
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>0</v>
-      </c>
-      <c r="G39" s="5">
-        <v>106.5</v>
-      </c>
-      <c r="H39" s="5">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
-        <v>106.5</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -10053,10 +10021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10120,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -11206,7 +11174,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
@@ -11238,7 +11206,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
@@ -11270,7 +11238,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B38" s="5">
         <v>0</v>
@@ -11302,7 +11270,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
@@ -11334,7 +11302,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B40" s="5">
         <v>0</v>
@@ -11370,7 +11338,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
@@ -11402,7 +11370,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
@@ -11438,7 +11406,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
@@ -11470,7 +11438,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B44" s="5">
         <v>0</v>
@@ -11506,7 +11474,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
@@ -11538,7 +11506,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
@@ -11574,7 +11542,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
@@ -11606,7 +11574,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -11638,7 +11606,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -11670,7 +11638,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -11702,7 +11670,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -11734,7 +11702,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -11766,7 +11734,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -11798,7 +11766,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -11830,7 +11798,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
@@ -11862,7 +11830,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B56" s="5">
         <v>0</v>
@@ -11894,7 +11862,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -11926,7 +11894,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
@@ -11958,7 +11926,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B59" s="5">
         <v>0</v>
@@ -11990,7 +11958,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B60" s="5">
         <v>0</v>
@@ -12022,7 +11990,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B61" s="5">
         <v>0</v>
@@ -12054,7 +12022,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B62" s="5">
         <v>0</v>
@@ -12086,7 +12054,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
@@ -12118,7 +12086,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B64" s="5">
         <v>0</v>
@@ -12150,7 +12118,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B65" s="5">
         <v>0</v>
@@ -12182,7 +12150,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B66" s="5">
         <v>0</v>
@@ -12210,6 +12178,38 @@
       </c>
       <c r="J66" s="5">
         <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B67" s="5">
+        <v>299</v>
+      </c>
+      <c r="C67" s="5">
+        <v>324</v>
+      </c>
+      <c r="D67" s="5">
+        <v>358</v>
+      </c>
+      <c r="E67" s="5">
+        <v>360</v>
+      </c>
+      <c r="F67" s="5">
+        <v>408</v>
+      </c>
+      <c r="G67" s="5">
+        <v>495</v>
+      </c>
+      <c r="H67" s="5">
+        <v>565</v>
+      </c>
+      <c r="I67" s="5">
+        <v>627</v>
+      </c>
+      <c r="J67" s="5">
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CB9964-8967-4094-BCA3-A6F656B446E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA61175-FDB0-4B91-A375-35433494963B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
@@ -8785,8 +8785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -10023,13 +10023,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5">
         <v>25</v>
@@ -10059,7 +10059,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>289</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>318</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>317</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>319</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>298</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>22.5</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -10222,8 +10222,12 @@
         <f>22.5+1.9</f>
         <v>24.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <f>22.5-4.65</f>
+        <v>17.850000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>297</v>
       </c>
@@ -10255,7 +10259,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>299</v>
       </c>
@@ -10287,7 +10291,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>301</v>
       </c>
@@ -10319,7 +10323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>302</v>
       </c>
@@ -10351,7 +10355,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>303</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>306</v>
       </c>
@@ -10415,7 +10419,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>307</v>
       </c>
@@ -10447,7 +10451,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>308</v>
       </c>
@@ -10479,7 +10483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>309</v>
       </c>
@@ -10511,7 +10515,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>312</v>
       </c>
@@ -11424,7 +11428,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="5">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
@@ -11433,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="5">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA61175-FDB0-4B91-A375-35433494963B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1A5230-400C-401C-89BF-117C6EEB308E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="1" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -8785,7 +8785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B3B749-9C03-4F2D-961F-CC66A2D9EC96}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -10023,8 +10023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -11205,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="5">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -11437,7 +11437,11 @@
         <v>0</v>
       </c>
       <c r="J43" s="5">
-        <v>67</v>
+        <v>86</v>
+      </c>
+      <c r="L43">
+        <f>67+16</f>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">

--- a/SYEI_stamping_press_system/組立尺寸.xlsx
+++ b/SYEI_stamping_press_system/組立尺寸.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\stamping_press\SYEI_stamping_press_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1A5230-400C-401C-89BF-117C6EEB308E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C072C6-40EC-4AF5-9A32-3BBF57A1E3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
+    <workbookView xWindow="28680" yWindow="-1770" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D95FF1D3-BC95-4F65-B0C3-1F178778F757}"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="423">
   <si>
     <t>零件1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1399,6 +1410,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Ass_AK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C_YZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1626,6 +1641,38 @@
   </si>
   <si>
     <t>FRAME2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME23_1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME15.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME15.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRaME13.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME 13_1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRAME13_1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.OIL_LEVEL_GAUGE_list_CON_ROD+'.1'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_i.CON_ROD_list[i]+'.1'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1786,7 +1833,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1810,9 +1857,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1850,7 +1897,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1956,7 +2003,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2098,7 +2145,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2108,15 +2155,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B19879-DCB5-405F-8EB4-C1890949F809}">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="D363" sqref="D363"/>
+    <sheetView topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="142.33203125" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" customWidth="1"/>
+    <col min="3" max="3" width="57.33203125" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
@@ -6718,10 +6765,10 @@
         <v>257</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>304</v>
+        <v>420</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>6</v>
@@ -7264,10 +7311,10 @@
         <v>296</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>6</v>
@@ -7278,10 +7325,10 @@
         <v>297</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>5</v>
@@ -7292,10 +7339,10 @@
         <v>298</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>7</v>
@@ -7306,10 +7353,10 @@
         <v>299</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>6</v>
@@ -7320,10 +7367,10 @@
         <v>300</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>5</v>
@@ -7334,10 +7381,10 @@
         <v>301</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>7</v>
@@ -7348,10 +7395,10 @@
         <v>302</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>6</v>
@@ -7362,10 +7409,10 @@
         <v>303</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>5</v>
@@ -7376,10 +7423,10 @@
         <v>304</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E304" s="1" t="s">
         <v>7</v>
@@ -7390,10 +7437,10 @@
         <v>305</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E305" s="1" t="s">
         <v>6</v>
@@ -7404,10 +7451,10 @@
         <v>306</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>5</v>
@@ -7418,10 +7465,10 @@
         <v>307</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>7</v>
@@ -7432,10 +7479,10 @@
         <v>308</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E308" s="1" t="s">
         <v>6</v>
@@ -7446,10 +7493,10 @@
         <v>309</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E309" s="1" t="s">
         <v>5</v>
@@ -7460,10 +7507,10 @@
         <v>310</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>7</v>
@@ -7474,10 +7521,10 @@
         <v>311</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>6</v>
@@ -7488,10 +7535,10 @@
         <v>312</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E312" s="1" t="s">
         <v>5</v>
@@ -7502,10 +7549,10 @@
         <v>313</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E313" s="1" t="s">
         <v>7</v>
@@ -7516,10 +7563,10 @@
         <v>314</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>6</v>
@@ -7530,10 +7577,10 @@
         <v>315</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>5</v>
@@ -7544,10 +7591,10 @@
         <v>316</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D316" s="13"/>
       <c r="E316" s="1" t="s">
@@ -7559,10 +7606,10 @@
         <v>317</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>6</v>
@@ -7573,10 +7620,10 @@
         <v>318</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>5</v>
@@ -7587,10 +7634,10 @@
         <v>319</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>7</v>
@@ -7601,10 +7648,10 @@
         <v>320</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>6</v>
@@ -7615,10 +7662,10 @@
         <v>321</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>5</v>
@@ -7629,10 +7676,10 @@
         <v>322</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>7</v>
@@ -7643,10 +7690,10 @@
         <v>323</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>6</v>
@@ -7657,10 +7704,10 @@
         <v>324</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>5</v>
@@ -7671,10 +7718,10 @@
         <v>325</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>7</v>
@@ -7685,10 +7732,10 @@
         <v>326</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>6</v>
@@ -7699,10 +7746,10 @@
         <v>327</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>5</v>
@@ -7713,10 +7760,10 @@
         <v>328</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>7</v>
@@ -7727,10 +7774,10 @@
         <v>329</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>6</v>
@@ -7741,10 +7788,10 @@
         <v>330</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>5</v>
@@ -7755,10 +7802,10 @@
         <v>331</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>7</v>
@@ -7769,7 +7816,7 @@
         <v>332</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>310</v>
@@ -7783,7 +7830,7 @@
         <v>333</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>310</v>
@@ -7797,7 +7844,7 @@
         <v>334</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>310</v>
@@ -7811,10 +7858,10 @@
         <v>335</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>6</v>
@@ -7825,10 +7872,10 @@
         <v>336</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>5</v>
@@ -7839,10 +7886,10 @@
         <v>337</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>7</v>
@@ -7853,7 +7900,7 @@
         <v>338</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>310</v>
@@ -7867,7 +7914,7 @@
         <v>339</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>310</v>
@@ -7881,7 +7928,7 @@
         <v>340</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>310</v>
@@ -7895,10 +7942,10 @@
         <v>341</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>6</v>
@@ -7909,10 +7956,10 @@
         <v>342</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>5</v>
@@ -7923,10 +7970,10 @@
         <v>343</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>7</v>
@@ -7937,10 +7984,10 @@
         <v>344</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>6</v>
@@ -7951,10 +7998,10 @@
         <v>345</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>5</v>
@@ -7965,10 +8012,10 @@
         <v>346</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>7</v>
@@ -7979,10 +8026,10 @@
         <v>347</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>6</v>
@@ -7993,10 +8040,10 @@
         <v>348</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>5</v>
@@ -8007,10 +8054,10 @@
         <v>349</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>7</v>
@@ -8021,10 +8068,10 @@
         <v>350</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>6</v>
@@ -8035,10 +8082,10 @@
         <v>351</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>5</v>
@@ -8049,10 +8096,10 @@
         <v>352</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>7</v>
@@ -8063,10 +8110,10 @@
         <v>353</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>6</v>
@@ -8077,10 +8124,10 @@
         <v>354</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>5</v>
@@ -8091,10 +8138,10 @@
         <v>355</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>7</v>
@@ -8104,8 +8151,12 @@
       <c r="A356" s="1">
         <v>356</v>
       </c>
-      <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
+      <c r="B356" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E356" s="1" t="s">
         <v>6</v>
       </c>
@@ -8114,8 +8165,12 @@
       <c r="A357" s="1">
         <v>357</v>
       </c>
-      <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
+      <c r="B357" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E357" s="1" t="s">
         <v>5</v>
       </c>
@@ -8124,8 +8179,12 @@
       <c r="A358" s="1">
         <v>358</v>
       </c>
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
+      <c r="B358" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E358" s="1" t="s">
         <v>7</v>
       </c>
@@ -8134,8 +8193,12 @@
       <c r="A359" s="1">
         <v>359</v>
       </c>
-      <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
+      <c r="B359" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E359" s="1" t="s">
         <v>6</v>
       </c>
@@ -8144,8 +8207,12 @@
       <c r="A360" s="1">
         <v>360</v>
       </c>
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
+      <c r="B360" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E360" s="1" t="s">
         <v>5</v>
       </c>
@@ -8154,8 +8221,12 @@
       <c r="A361" s="1">
         <v>361</v>
       </c>
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
+      <c r="B361" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E361" s="1" t="s">
         <v>7</v>
       </c>
@@ -8164,8 +8235,12 @@
       <c r="A362" s="1">
         <v>362</v>
       </c>
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
+      <c r="B362" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E362" s="1" t="s">
         <v>6</v>
       </c>
@@ -8174,8 +8249,12 @@
       <c r="A363" s="1">
         <v>363</v>
       </c>
-      <c r="B363" s="1"/>
-      <c r="C363" s="1"/>
+      <c r="B363" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E363" s="1" t="s">
         <v>5</v>
       </c>
@@ -8184,8 +8263,12 @@
       <c r="A364" s="1">
         <v>364</v>
       </c>
-      <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
+      <c r="B364" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E364" s="1" t="s">
         <v>7</v>
       </c>
@@ -8194,8 +8277,12 @@
       <c r="A365" s="1">
         <v>365</v>
       </c>
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
+      <c r="B365" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E365" s="1" t="s">
         <v>6</v>
       </c>
@@ -8204,8 +8291,12 @@
       <c r="A366" s="1">
         <v>366</v>
       </c>
-      <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
+      <c r="B366" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E366" s="1" t="s">
         <v>5</v>
       </c>
@@ -8214,8 +8305,12 @@
       <c r="A367" s="1">
         <v>367</v>
       </c>
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
+      <c r="B367" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E367" s="1" t="s">
         <v>7</v>
       </c>
@@ -8224,8 +8319,12 @@
       <c r="A368" s="1">
         <v>368</v>
       </c>
-      <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
+      <c r="B368" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E368" s="1" t="s">
         <v>6</v>
       </c>
@@ -8234,8 +8333,12 @@
       <c r="A369" s="1">
         <v>369</v>
       </c>
-      <c r="B369" s="1"/>
-      <c r="C369" s="1"/>
+      <c r="B369" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E369" s="1" t="s">
         <v>5</v>
       </c>
@@ -8244,8 +8347,12 @@
       <c r="A370" s="1">
         <v>370</v>
       </c>
-      <c r="B370" s="1"/>
-      <c r="C370" s="1"/>
+      <c r="B370" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E370" s="1" t="s">
         <v>7</v>
       </c>
@@ -8254,8 +8361,12 @@
       <c r="A371" s="1">
         <v>371</v>
       </c>
-      <c r="B371" s="1"/>
-      <c r="C371" s="1"/>
+      <c r="B371" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E371" s="1" t="s">
         <v>6</v>
       </c>
@@ -8264,8 +8375,12 @@
       <c r="A372" s="1">
         <v>372</v>
       </c>
-      <c r="B372" s="1"/>
-      <c r="C372" s="1"/>
+      <c r="B372" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E372" s="1" t="s">
         <v>5</v>
       </c>
@@ -8274,8 +8389,12 @@
       <c r="A373" s="1">
         <v>373</v>
       </c>
-      <c r="B373" s="1"/>
-      <c r="C373" s="1"/>
+      <c r="B373" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E373" s="1" t="s">
         <v>7</v>
       </c>
@@ -8284,8 +8403,12 @@
       <c r="A374" s="1">
         <v>374</v>
       </c>
-      <c r="B374" s="1"/>
-      <c r="C374" s="1"/>
+      <c r="B374" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E374" s="1" t="s">
         <v>6</v>
       </c>
@@ -8294,8 +8417,12 @@
       <c r="A375" s="1">
         <v>375</v>
       </c>
-      <c r="B375" s="1"/>
-      <c r="C375" s="1"/>
+      <c r="B375" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E375" s="1" t="s">
         <v>5</v>
       </c>
@@ -8304,8 +8431,12 @@
       <c r="A376" s="1">
         <v>376</v>
       </c>
-      <c r="B376" s="1"/>
-      <c r="C376" s="1"/>
+      <c r="B376" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E376" s="1" t="s">
         <v>7</v>
       </c>
@@ -8314,8 +8445,12 @@
       <c r="A377" s="1">
         <v>377</v>
       </c>
-      <c r="B377" s="1"/>
-      <c r="C377" s="1"/>
+      <c r="B377" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E377" s="1" t="s">
         <v>6</v>
       </c>
@@ -8324,8 +8459,12 @@
       <c r="A378" s="1">
         <v>378</v>
       </c>
-      <c r="B378" s="1"/>
-      <c r="C378" s="1"/>
+      <c r="B378" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E378" s="1" t="s">
         <v>5</v>
       </c>
@@ -8334,8 +8473,12 @@
       <c r="A379" s="1">
         <v>379</v>
       </c>
-      <c r="B379" s="1"/>
-      <c r="C379" s="1"/>
+      <c r="B379" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E379" s="1" t="s">
         <v>7</v>
       </c>
@@ -8344,8 +8487,12 @@
       <c r="A380" s="1">
         <v>380</v>
       </c>
-      <c r="B380" s="1"/>
-      <c r="C380" s="1"/>
+      <c r="B380" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E380" s="1" t="s">
         <v>6</v>
       </c>
@@ -8354,8 +8501,12 @@
       <c r="A381" s="1">
         <v>381</v>
       </c>
-      <c r="B381" s="1"/>
-      <c r="C381" s="1"/>
+      <c r="B381" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E381" s="1" t="s">
         <v>5</v>
       </c>
@@ -8364,8 +8515,12 @@
       <c r="A382" s="1">
         <v>382</v>
       </c>
-      <c r="B382" s="1"/>
-      <c r="C382" s="1"/>
+      <c r="B382" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E382" s="1" t="s">
         <v>7</v>
       </c>
@@ -8374,8 +8529,12 @@
       <c r="A383" s="1">
         <v>383</v>
       </c>
-      <c r="B383" s="1"/>
-      <c r="C383" s="1"/>
+      <c r="B383" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E383" s="1" t="s">
         <v>6</v>
       </c>
@@ -8384,8 +8543,12 @@
       <c r="A384" s="1">
         <v>384</v>
       </c>
-      <c r="B384" s="1"/>
-      <c r="C384" s="1"/>
+      <c r="B384" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E384" s="1" t="s">
         <v>5</v>
       </c>
@@ -8394,8 +8557,12 @@
       <c r="A385" s="1">
         <v>385</v>
       </c>
-      <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
+      <c r="B385" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E385" s="1" t="s">
         <v>7</v>
       </c>
@@ -8404,8 +8571,12 @@
       <c r="A386" s="1">
         <v>386</v>
       </c>
-      <c r="B386" s="1"/>
-      <c r="C386" s="1"/>
+      <c r="B386" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="E386" s="1" t="s">
         <v>6</v>
       </c>
@@ -8414,8 +8585,12 @@
       <c r="A387" s="1">
         <v>387</v>
       </c>
-      <c r="B387" s="1"/>
-      <c r="C387" s="1"/>
+      <c r="B387" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="E387" s="1" t="s">
         <v>5</v>
       </c>
@@ -8424,8 +8599,12 @@
       <c r="A388" s="1">
         <v>388</v>
       </c>
-      <c r="B388" s="1"/>
-      <c r="C388" s="1"/>
+      <c r="B388" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>417</v>
+      </c>
       <c r="E388" s="1" t="s">
         <v>7</v>
       </c>
@@ -8434,8 +8613,12 @@
       <c r="A389" s="1">
         <v>389</v>
       </c>
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
+      <c r="B389" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="E389" s="1" t="s">
         <v>6</v>
       </c>
@@ -8444,8 +8627,12 @@
       <c r="A390" s="1">
         <v>390</v>
       </c>
-      <c r="B390" s="1"/>
-      <c r="C390" s="1"/>
+      <c r="B390" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="E390" s="1" t="s">
         <v>5</v>
       </c>
@@ -8454,8 +8641,12 @@
       <c r="A391" s="1">
         <v>391</v>
       </c>
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
+      <c r="B391" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>418</v>
+      </c>
       <c r="E391" s="1" t="s">
         <v>7</v>
       </c>
@@ -8464,8 +8655,12 @@
       <c r="A392" s="1">
         <v>392</v>
       </c>
-      <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
+      <c r="B392" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E392" s="1" t="s">
         <v>6</v>
       </c>
@@ -8474,8 +8669,12 @@
       <c r="A393" s="1">
         <v>393</v>
       </c>
-      <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
+      <c r="B393" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E393" s="1" t="s">
         <v>5</v>
       </c>
@@ -8484,8 +8683,12 @@
       <c r="A394" s="1">
         <v>394</v>
       </c>
-      <c r="B394" s="1"/>
-      <c r="C394" s="1"/>
+      <c r="B394" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E394" s="1" t="s">
         <v>7</v>
       </c>
@@ -8494,8 +8697,12 @@
       <c r="A395" s="1">
         <v>395</v>
       </c>
-      <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
+      <c r="B395" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E395" s="1" t="s">
         <v>6</v>
       </c>
@@ -8504,8 +8711,12 @@
       <c r="A396" s="1">
         <v>396</v>
       </c>
-      <c r="B396" s="1"/>
-      <c r="C396" s="1"/>
+      <c r="B396" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E396" s="1" t="s">
         <v>5</v>
       </c>
@@ -8514,8 +8725,12 @@
       <c r="A397" s="1">
         <v>397</v>
       </c>
-      <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
+      <c r="B397" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E397" s="1" t="s">
         <v>7</v>
       </c>
@@ -8524,8 +8739,12 @@
       <c r="A398" s="1">
         <v>398</v>
       </c>
-      <c r="B398" s="1"/>
-      <c r="C398" s="1"/>
+      <c r="B398" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E398" s="1" t="s">
         <v>6</v>
       </c>
@@ -8534,8 +8753,12 @@
       <c r="A399" s="1">
         <v>399</v>
       </c>
-      <c r="B399" s="1"/>
-      <c r="C399" s="1"/>
+      <c r="B399" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E399" s="1" t="s">
         <v>5</v>
       </c>
@@ -8544,8 +8767,12 @@
       <c r="A400" s="1">
         <v>400</v>
       </c>
-      <c r="B400" s="1"/>
-      <c r="C400" s="1"/>
+      <c r="B400" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E400" s="1" t="s">
         <v>7</v>
       </c>
@@ -8554,8 +8781,12 @@
       <c r="A401" s="1">
         <v>401</v>
       </c>
-      <c r="B401" s="1"/>
-      <c r="C401" s="1"/>
+      <c r="B401" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E401" s="1" t="s">
         <v>6</v>
       </c>
@@ -8564,8 +8795,12 @@
       <c r="A402" s="1">
         <v>402</v>
       </c>
-      <c r="B402" s="1"/>
-      <c r="C402" s="1"/>
+      <c r="B402" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E402" s="1" t="s">
         <v>5</v>
       </c>
@@ -8574,8 +8809,12 @@
       <c r="A403" s="1">
         <v>403</v>
       </c>
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
+      <c r="B403" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E403" s="1" t="s">
         <v>7</v>
       </c>
@@ -8584,8 +8823,12 @@
       <c r="A404" s="1">
         <v>404</v>
       </c>
-      <c r="B404" s="1"/>
-      <c r="C404" s="1"/>
+      <c r="B404" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E404" s="1" t="s">
         <v>6</v>
       </c>
@@ -8594,8 +8837,12 @@
       <c r="A405" s="1">
         <v>405</v>
       </c>
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
+      <c r="B405" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E405" s="1" t="s">
         <v>5</v>
       </c>
@@ -8604,8 +8851,12 @@
       <c r="A406" s="1">
         <v>406</v>
       </c>
-      <c r="B406" s="1"/>
-      <c r="C406" s="1"/>
+      <c r="B406" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E406" s="1" t="s">
         <v>7</v>
       </c>
@@ -8614,8 +8865,12 @@
       <c r="A407" s="1">
         <v>407</v>
       </c>
-      <c r="B407" s="1"/>
-      <c r="C407" s="1"/>
+      <c r="B407" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E407" s="1" t="s">
         <v>6</v>
       </c>
@@ -8624,8 +8879,12 @@
       <c r="A408" s="1">
         <v>408</v>
       </c>
-      <c r="B408" s="1"/>
-      <c r="C408" s="1"/>
+      <c r="B408" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E408" s="1" t="s">
         <v>5</v>
       </c>
@@ -8634,8 +8893,12 @@
       <c r="A409" s="1">
         <v>409</v>
       </c>
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
+      <c r="B409" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E409" s="1" t="s">
         <v>7</v>
       </c>
@@ -8644,8 +8907,12 @@
       <c r="A410" s="1">
         <v>410</v>
       </c>
-      <c r="B410" s="1"/>
-      <c r="C410" s="1"/>
+      <c r="B410" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E410" s="1" t="s">
         <v>6</v>
       </c>
@@ -8654,8 +8921,12 @@
       <c r="A411" s="1">
         <v>411</v>
       </c>
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
+      <c r="B411" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E411" s="1" t="s">
         <v>5</v>
       </c>
@@ -8664,8 +8935,12 @@
       <c r="A412" s="1">
         <v>412</v>
       </c>
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
+      <c r="B412" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E412" s="1" t="s">
         <v>7</v>
       </c>
@@ -8674,8 +8949,12 @@
       <c r="A413" s="1">
         <v>413</v>
       </c>
-      <c r="B413" s="1"/>
-      <c r="C413" s="1"/>
+      <c r="B413" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E413" s="1" t="s">
         <v>6</v>
       </c>
@@ -8684,8 +8963,12 @@
       <c r="A414" s="1">
         <v>414</v>
       </c>
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
+      <c r="B414" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E414" s="1" t="s">
         <v>5</v>
       </c>
@@ -8694,8 +8977,12 @@
       <c r="A415" s="1">
         <v>415</v>
       </c>
-      <c r="B415" s="1"/>
-      <c r="C415" s="1"/>
+      <c r="B415" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E415" s="1" t="s">
         <v>7</v>
       </c>
@@ -8704,8 +8991,12 @@
       <c r="A416" s="1">
         <v>416</v>
       </c>
-      <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
+      <c r="B416" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E416" s="1" t="s">
         <v>6</v>
       </c>
@@ -8714,8 +9005,12 @@
       <c r="A417" s="1">
         <v>417</v>
       </c>
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
+      <c r="B417" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E417" s="1" t="s">
         <v>5</v>
       </c>
@@ -8724,8 +9019,12 @@
       <c r="A418" s="1">
         <v>418</v>
       </c>
-      <c r="B418" s="1"/>
-      <c r="C418" s="1"/>
+      <c r="B418" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E418" s="1" t="s">
         <v>7</v>
       </c>
@@ -8734,8 +9033,12 @@
       <c r="A419" s="1">
         <v>419</v>
       </c>
-      <c r="B419" s="1"/>
-      <c r="C419" s="1"/>
+      <c r="B419" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E419" s="1" t="s">
         <v>6</v>
       </c>
@@ -8744,8 +9047,12 @@
       <c r="A420" s="1">
         <v>420</v>
       </c>
-      <c r="B420" s="1"/>
-      <c r="C420" s="1"/>
+      <c r="B420" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E420" s="1" t="s">
         <v>5</v>
       </c>
@@ -8754,8 +9061,12 @@
       <c r="A421" s="1">
         <v>421</v>
       </c>
-      <c r="B421" s="1"/>
-      <c r="C421" s="1"/>
+      <c r="B421" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E421" s="1" t="s">
         <v>7</v>
       </c>
@@ -8764,10 +9075,2115 @@
       <c r="A422" s="1">
         <v>422</v>
       </c>
-      <c r="B422" s="1"/>
-      <c r="C422" s="1"/>
+      <c r="B422" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E422" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>423</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>424</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>425</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>426</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>427</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>428</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>429</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>430</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>431</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>432</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>433</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>434</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>435</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>436</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>437</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>438</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>439</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>440</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>441</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>442</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>443</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>444</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>445</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>446</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>447</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>448</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>449</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>450</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>451</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>452</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>453</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>454</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>455</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>456</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>457</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>458</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>459</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>460</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>461</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>462</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>463</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>464</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>465</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>466</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>467</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>468</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>469</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>470</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>471</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>472</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>473</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>474</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>475</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>476</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>477</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>478</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>479</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>480</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>481</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>482</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>483</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>484</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>485</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>486</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>487</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>488</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>489</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>490</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>491</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>492</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>493</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>494</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>495</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>496</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>497</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>498</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>499</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>500</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>501</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>502</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>503</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>504</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>505</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>506</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>507</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>508</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>509</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>510</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>511</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>512</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>513</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>514</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>515</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>516</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>517</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>518</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>519</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>520</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>521</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>522</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>523</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>524</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>525</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>526</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>527</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>528</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>529</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>530</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>531</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>532</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>533</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>534</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>535</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E536" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E537" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E538" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E539" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E540" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E541" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E542" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E543" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E544" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E545" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="546" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E546" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E547" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E548" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="549" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E549" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E550" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E551" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="552" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E552" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E553" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="554" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E554" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E555" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E556" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="557" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E557" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="558" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E558" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E559" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="560" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E560" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="561" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E561" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E562" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="563" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E563" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="564" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E564" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="565" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E565" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="566" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E566" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="567" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E567" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E568" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="569" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E569" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E570" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E571" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="572" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E572" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="573" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E573" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E574" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="575" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E575" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="576" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E576" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E577" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="578" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E578" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="579" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E579" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E580" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E581" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="582" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E582" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E583" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E584" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="585" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E585" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E586" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="587" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E587" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="588" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E588" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E589" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="590" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E590" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="591" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E591" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E592" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="593" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E593" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="594" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E594" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E595" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E596" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E597" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E598" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="599" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E599" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="600" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E600" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E601" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="602" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E602" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="603" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E603" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E604" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="605" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E605" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E606" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E607" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="608" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E608" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="609" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E609" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="610" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E610" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="611" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E611" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="612" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E612" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E613" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="614" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E614" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="615" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E615" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E616" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="617" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E617" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E618" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E619" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="620" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E620" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E621" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E622" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="623" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E623" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="624" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E624" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E625" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="626" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E626" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="627" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E627" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E628" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="629" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E629" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E630" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E631" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="632" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E632" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="633" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E633" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E634" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="635" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E635" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="636" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E636" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="637" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E637" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="638" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E638" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E639" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E640" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="641" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E641" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="642" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E642" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="643" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E643" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="644" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E644" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="645" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E645" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="646" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E646" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="647" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E647" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="648" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E648" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="649" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E649" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="650" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E650" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="651" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E651" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E652" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="653" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E653" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="654" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E654" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E655" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="656" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E656" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="657" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E657" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E658" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="659" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E659" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="660" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E660" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="661" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E661" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="662" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E662" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E663" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E664" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="665" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E665" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="666" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E666" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E667" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="668" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E668" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="669" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E669" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="670" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E670" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="671" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E671" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="672" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E672" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="673" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E673" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="674" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E674" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="675" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E675" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E676" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="677" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E677" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="678" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E678" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E679" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="680" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E680" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="681" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E681" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E682" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="683" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E683" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="684" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E684" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E685" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="686" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E686" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="687" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E687" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E688" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E689" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="690" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E690" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="691" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E691" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="692" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E692" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="693" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E693" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="694" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E694" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="695" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E695" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="696" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E696" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="697" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E697" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="698" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E698" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="699" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E699" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E700" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="701" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E701" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="702" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E702" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="703" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E703" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="704" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E704" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="705" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E705" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E706" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="707" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E707" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="708" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E708" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E709" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="710" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E710" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="711" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E711" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="712" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E712" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="713" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E713" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="714" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E714" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E715" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="716" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E716" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="717" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E717" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E718" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="719" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E719" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="720" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E720" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E721" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="722" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E722" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="723" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E723" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E724" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="725" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E725" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="726" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E726" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E727" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="728" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E728" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="729" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E729" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E730" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="731" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E731" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="732" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E732" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E733" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="734" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E734" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="735" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E735" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="736" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E736" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="737" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E737" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="738" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E738" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="739" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E739" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="740" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E740" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="741" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E741" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="742" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E742" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="743" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E743" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="744" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E744" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="745" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E745" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="746" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E746" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="747" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E747" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="748" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E748" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="749" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E749" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="750" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E750" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="751" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E751" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="752" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E752" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="753" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E753" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="754" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E754" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1048576" spans="2:3" x14ac:dyDescent="0.3">
@@ -8786,7 +11202,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -8979,7 +11395,7 @@
         <v>27.5</v>
       </c>
       <c r="I6" s="5">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="J6" s="5">
         <v>137.5</v>
@@ -9107,7 +11523,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="5">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J10" s="5">
         <v>20</v>
@@ -9907,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="5">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J35" s="5">
         <v>80</v>
@@ -9915,102 +12331,143 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B36" s="5">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="C36" s="5">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="D36" s="5">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="E36" s="5">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="F36" s="5">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G36" s="5">
-        <v>260</v>
+        <v>700</v>
       </c>
       <c r="H36" s="5">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5">
-        <v>304</v>
+        <v>900</v>
       </c>
       <c r="J36" s="5">
-        <v>365</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B37" s="5">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="C37" s="5">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D37" s="5">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="E37" s="5">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="F37" s="5">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="G37" s="5">
+        <v>260</v>
+      </c>
+      <c r="H37" s="5">
+        <v>280</v>
+      </c>
+      <c r="I37" s="5">
+        <v>304</v>
+      </c>
+      <c r="J37" s="5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
         <v>180</v>
       </c>
-      <c r="H37" s="5">
-        <v>0</v>
-      </c>
-      <c r="I37" s="5">
-        <v>0</v>
-      </c>
-      <c r="J37" s="5">
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
         <v>260</v>
       </c>
-      <c r="H38" s="5">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0</v>
-      </c>
-      <c r="J38" s="5">
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>307.5</v>
+      </c>
+      <c r="J39" s="5">
         <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10023,13 +12480,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{695B781D-C14A-4372-B2F3-B6EEB89BDF42}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5">
         <v>25</v>
@@ -10059,7 +12519,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>289</v>
       </c>
@@ -10085,13 +12545,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="J2" s="5">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>318</v>
       </c>
@@ -10123,7 +12583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>317</v>
       </c>
@@ -10149,13 +12609,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J4" s="5">
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>319</v>
       </c>
@@ -10181,13 +12641,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J5" s="5">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>298</v>
       </c>
@@ -10207,13 +12667,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>17.850000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J6" s="5">
         <v>24.4</v>
@@ -10222,12 +12682,8 @@
         <f>22.5+1.9</f>
         <v>24.4</v>
       </c>
-      <c r="L6">
-        <f>22.5-4.65</f>
-        <v>17.850000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>297</v>
       </c>
@@ -10253,13 +12709,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="5">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="J7" s="5">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>299</v>
       </c>
@@ -10285,13 +12741,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="5">
-        <v>0</v>
+        <v>1055</v>
       </c>
       <c r="J8" s="5">
         <v>1140</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>301</v>
       </c>
@@ -10317,13 +12773,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J9" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>302</v>
       </c>
@@ -10349,13 +12805,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J10" s="5">
         <v>12.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>303</v>
       </c>
@@ -10381,13 +12837,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="5">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J11" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>306</v>
       </c>
@@ -10413,13 +12869,13 @@
         <v>0</v>
       </c>
       <c r="I12" s="5">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="J12" s="5">
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>307</v>
       </c>
@@ -10445,13 +12901,13 @@
         <v>0</v>
       </c>
       <c r="I13" s="5">
-        <v>0</v>
+        <v>130.5</v>
       </c>
       <c r="J13" s="5">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>308</v>
       </c>
@@ -10477,13 +12933,13 @@
         <v>0</v>
       </c>
       <c r="I14" s="5">
-        <v>0</v>
+        <v>14.11</v>
       </c>
       <c r="J14" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>309</v>
       </c>
@@ -10509,13 +12965,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="5">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J15" s="5">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>312</v>
       </c>
@@ -10541,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="J16" s="5">
         <v>37.5</v>
@@ -10573,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="5">
-        <v>0</v>
+        <v>1037</v>
       </c>
       <c r="J17" s="5">
         <v>1034</v>
@@ -10605,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="5">
         <v>100</v>
@@ -10637,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J19" s="5">
         <v>102</v>
@@ -10673,7 +13129,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="5">
-        <v>0</v>
+        <v>1266</v>
       </c>
       <c r="J20" s="5">
         <v>1527</v>
@@ -10703,13 +13159,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="5">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
       </c>
       <c r="I21" s="5">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="J21" s="5">
         <v>316</v>
@@ -10745,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="5">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="J22" s="5">
         <v>485</v>
@@ -10777,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J23" s="5">
         <v>15</v>
@@ -10809,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J24" s="5">
         <v>10</v>
@@ -10841,7 +13297,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" s="5">
         <v>4</v>
@@ -10873,7 +13329,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="5">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="J26" s="5">
         <v>137</v>
@@ -10905,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="5">
         <v>4</v>
@@ -11001,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="5">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="J30" s="5">
         <v>540</v>
@@ -11065,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="5">
-        <v>0</v>
+        <v>843.5</v>
       </c>
       <c r="J32" s="5">
         <v>907</v>
@@ -11098,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J33" s="5">
         <v>0.1</v>
@@ -11130,7 +13586,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="5">
-        <v>0</v>
+        <v>1808</v>
       </c>
       <c r="J34" s="5">
         <v>1907</v>
@@ -11166,7 +13622,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="5">
-        <v>0</v>
+        <v>1190</v>
       </c>
       <c r="J35" s="5">
         <v>1267.5</v>
@@ -11178,7 +13634,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B36" s="5">
         <v>0</v>
@@ -11202,15 +13658,15 @@
         <v>0</v>
       </c>
       <c r="I36" s="5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J36" s="5">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
@@ -11234,7 +13690,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J37" s="5">
         <v>22.5</v>
@@ -11242,7 +13698,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B38" s="5">
         <v>0</v>
@@ -11266,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J38" s="5">
         <v>12.5</v>
@@ -11274,7 +13730,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
@@ -11298,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="5">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J39" s="5">
         <v>65</v>
@@ -11306,7 +13762,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B40" s="5">
         <v>0</v>
@@ -11330,7 +13786,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="5">
-        <v>0</v>
+        <v>150.5</v>
       </c>
       <c r="J40" s="5">
         <v>150.5</v>
@@ -11342,7 +13798,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
@@ -11366,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="5">
-        <v>0</v>
+        <v>595.20000000000005</v>
       </c>
       <c r="J41" s="5">
         <v>595.20000000000005</v>
@@ -11374,7 +13830,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
@@ -11398,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="5">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="J42" s="5">
         <v>78.5</v>
@@ -11410,7 +13866,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" s="5">
         <v>0</v>
@@ -11428,25 +13884,21 @@
         <v>0</v>
       </c>
       <c r="G43" s="5">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="H43" s="5">
         <v>0</v>
       </c>
       <c r="I43" s="5">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="J43" s="5">
         <v>86</v>
       </c>
-      <c r="L43">
-        <f>67+16</f>
-        <v>83</v>
-      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B44" s="5">
         <v>0</v>
@@ -11470,7 +13922,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="5">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J44" s="5">
         <v>54</v>
@@ -11482,7 +13934,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
@@ -11506,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J45" s="5">
         <v>90</v>
@@ -11514,7 +13966,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
@@ -11538,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="5">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="J46" s="5">
         <v>159.5</v>
@@ -11550,7 +14002,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
@@ -11574,7 +14026,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="5">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="J47" s="5">
         <v>926</v>
@@ -11582,7 +14034,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -11606,7 +14058,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="5">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="J48" s="5">
         <v>667</v>
@@ -11614,7 +14066,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B49" s="5">
         <v>0</v>
@@ -11646,7 +14098,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B50" s="5">
         <v>0</v>
@@ -11670,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="5">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="J50" s="5">
         <v>469</v>
@@ -11678,7 +14130,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B51" s="5">
         <v>0</v>
@@ -11702,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="5">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="J51" s="5">
         <v>407</v>
@@ -11710,7 +14162,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -11742,7 +14194,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B53" s="5">
         <v>0</v>
@@ -11766,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="5">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="J53" s="5">
         <v>271</v>
@@ -11774,7 +14226,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B54" s="5">
         <v>0</v>
@@ -11798,7 +14250,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J54" s="5">
         <v>73</v>
@@ -11806,7 +14258,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B55" s="5">
         <v>0</v>
@@ -11830,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="5">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="J55" s="5">
         <v>370</v>
@@ -11838,7 +14290,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B56" s="5">
         <v>0</v>
@@ -11862,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="5">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="J56" s="5">
         <v>880</v>
@@ -11870,7 +14322,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -11894,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="5">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="J57" s="5">
         <v>205</v>
@@ -11902,7 +14354,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B58" s="5">
         <v>0</v>
@@ -11926,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="5">
-        <v>0</v>
+        <v>505</v>
       </c>
       <c r="J58" s="5">
         <v>550.5</v>
@@ -11934,7 +14386,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B59" s="5">
         <v>0</v>
@@ -11958,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="5">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="J59" s="5">
         <v>480</v>
@@ -11966,7 +14418,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B60" s="5">
         <v>0</v>
@@ -11990,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="5">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="J60" s="5">
         <v>900</v>
@@ -11998,7 +14450,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B61" s="5">
         <v>0</v>
@@ -12022,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="5">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J61" s="5">
         <v>300</v>
@@ -12030,7 +14482,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B62" s="5">
         <v>0</v>
@@ -12054,7 +14506,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="5">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="J62" s="5">
         <v>42.5</v>
@@ -12062,7 +14514,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B63" s="5">
         <v>0</v>
@@ -12086,7 +14538,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="5">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="J63" s="5">
         <v>42.5</v>
@@ -12094,7 +14546,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B64" s="5">
         <v>0</v>
@@ -12126,7 +14578,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B65" s="5">
         <v>0</v>
@@ -12158,7 +14610,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B66" s="5">
         <v>0</v>
@@ -12190,7 +14642,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B67" s="5">
         <v>299</v>
